--- a/Efectividades.xlsx
+++ b/Efectividades.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfc_2\Documents\Git\Clasificador-Bayesiano\Sujetos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfc_2\Documents\Git\Clasificador-Bayesiano\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055A9B22-E469-4502-9611-3161242C02A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42619072-6F7C-4070-B7D7-2784C3D17BD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6DF6BAD8-DCEE-4FDF-B5FC-1870D868E7E2}"/>
+    <workbookView xWindow="2670" yWindow="1425" windowWidth="12510" windowHeight="7875" xr2:uid="{6DF6BAD8-DCEE-4FDF-B5FC-1870D868E7E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -97,7 +98,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -309,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -323,9 +324,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -335,43 +333,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -384,9 +349,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -404,22 +366,55 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1270,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAF7C7A-82F5-4FDE-94EB-09394C898A3F}">
   <dimension ref="A1:BW30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="AG16" sqref="AG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1283,70 +1278,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="11" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="11" t="s">
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="11" t="s">
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="11" t="s">
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="11" t="s">
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="11" t="s">
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="12"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="11" t="s">
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="13"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
+      <c r="AW1" s="32"/>
       <c r="AX1" s="2"/>
       <c r="AY1" s="2"/>
       <c r="AZ1" s="2"/>
@@ -1375,381 +1370,413 @@
       <c r="BW1" s="2"/>
     </row>
     <row r="2" spans="1:75" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="26">
         <v>0.985294</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="19" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="26">
         <v>0.98584899999999998</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="26">
         <v>1</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="19" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="9">
-        <v>0.97619</v>
-      </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="14" t="s">
+      <c r="L2" s="26">
+        <v>1</v>
+      </c>
+      <c r="M2" s="27"/>
+      <c r="N2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="26">
         <v>1</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="19" t="s">
+      <c r="P2" s="27"/>
+      <c r="Q2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="9">
+      <c r="R2" s="26">
         <v>1</v>
       </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="14" t="s">
+      <c r="S2" s="27"/>
+      <c r="T2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="9">
-        <v>0.97619</v>
-      </c>
-      <c r="V2" s="10"/>
-      <c r="W2" s="19" t="s">
+      <c r="U2" s="26">
+        <v>1</v>
+      </c>
+      <c r="V2" s="27"/>
+      <c r="W2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="9">
+      <c r="X2" s="26">
         <v>1</v>
       </c>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="14" t="s">
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="9">
-        <v>0.969387</v>
-      </c>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="22" t="s">
+      <c r="AA2" s="26">
+        <v>0.97959099999999999</v>
+      </c>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="9">
-        <v>0.95890399999999998</v>
-      </c>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="14" t="s">
+      <c r="AD2" s="26">
+        <v>0.95918300000000001</v>
+      </c>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AG2" s="9">
+      <c r="AG2" s="26">
         <v>1</v>
       </c>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="19" t="s">
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="9">
+      <c r="AJ2" s="26">
         <v>1</v>
       </c>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="14" t="s">
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AM2" s="9">
-        <v>0.97297199999999995</v>
-      </c>
-      <c r="AN2" s="10"/>
-      <c r="AO2" s="19" t="s">
+      <c r="AM2" s="26">
+        <v>0.98648599999999997</v>
+      </c>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AP2" s="9">
-        <v>0.984375</v>
-      </c>
-      <c r="AQ2" s="10"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AP2" s="26">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AS2" s="9">
-        <v>0.90908999999999995</v>
-      </c>
-      <c r="AT2" s="10"/>
-      <c r="AU2" s="19" t="s">
+      <c r="AS2" s="26">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="27"/>
+      <c r="AU2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AV2" s="9">
-        <v>0.96428499999999995</v>
-      </c>
-      <c r="AW2" s="10"/>
+      <c r="AV2" s="26">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="27"/>
     </row>
     <row r="3" spans="1:75" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="S3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="T3" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="U3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="V3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="W3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="X3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z3" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF3" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL3" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR3" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AU3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW3" s="25" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW3" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="6">
+      <c r="A4" s="35"/>
+      <c r="B4" s="5">
         <v>27</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>34</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>68</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>24</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>46</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>106</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>22</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>33</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>68</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="8">
+      <c r="K4" s="6">
+        <v>35</v>
+      </c>
+      <c r="L4" s="6">
+        <v>49</v>
+      </c>
+      <c r="M4" s="7">
         <v>21</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="5">
         <v>26</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="6">
         <v>35</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="7">
         <v>47</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="6">
         <v>26</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="6">
         <v>35</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="7">
         <v>31</v>
       </c>
-      <c r="T4" s="6"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="8">
-        <v>84</v>
-      </c>
-      <c r="W4" s="7">
+      <c r="T4" s="5">
+        <v>34</v>
+      </c>
+      <c r="U4" s="6">
+        <v>40</v>
+      </c>
+      <c r="V4" s="7">
+        <v>21</v>
+      </c>
+      <c r="W4" s="6">
         <v>26</v>
       </c>
-      <c r="X4" s="7">
+      <c r="X4" s="6">
         <v>35</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Y4" s="7">
         <v>39</v>
       </c>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="8">
+      <c r="Z4" s="5">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>33</v>
+      </c>
+      <c r="AB4" s="7">
         <v>49</v>
       </c>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="8">
+      <c r="AC4" s="6">
+        <v>26</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>35</v>
+      </c>
+      <c r="AE4" s="7">
         <v>73</v>
       </c>
-      <c r="AF4" s="6">
+      <c r="AF4" s="5">
         <v>26</v>
       </c>
-      <c r="AG4" s="7">
+      <c r="AG4" s="6">
         <v>35</v>
       </c>
-      <c r="AH4" s="8">
+      <c r="AH4" s="7">
         <v>95</v>
       </c>
-      <c r="AI4" s="7">
+      <c r="AI4" s="6">
         <v>26</v>
       </c>
-      <c r="AJ4" s="7">
+      <c r="AJ4" s="6">
         <v>35</v>
       </c>
-      <c r="AK4" s="8">
+      <c r="AK4" s="7">
         <v>99</v>
       </c>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="8">
+      <c r="AL4" s="5">
+        <v>27</v>
+      </c>
+      <c r="AM4" s="6">
+        <v>32</v>
+      </c>
+      <c r="AN4" s="7">
         <v>37</v>
       </c>
-      <c r="AO4" s="7"/>
-      <c r="AP4" s="7"/>
-      <c r="AQ4" s="8">
+      <c r="AO4" s="6">
+        <v>31</v>
+      </c>
+      <c r="AP4" s="6">
+        <v>49</v>
+      </c>
+      <c r="AQ4" s="7">
         <v>32</v>
       </c>
-      <c r="AR4" s="6"/>
-      <c r="AS4" s="7"/>
-      <c r="AT4" s="8">
-        <v>11</v>
-      </c>
-      <c r="AU4" s="7"/>
-      <c r="AV4" s="7"/>
-      <c r="AW4" s="8">
+      <c r="AR4" s="5">
+        <v>42</v>
+      </c>
+      <c r="AS4" s="6">
+        <v>49</v>
+      </c>
+      <c r="AT4" s="7">
+        <v>11</v>
+      </c>
+      <c r="AU4" s="6">
+        <v>47</v>
+      </c>
+      <c r="AV4" s="6">
+        <v>49</v>
+      </c>
+      <c r="AW4" s="7">
         <v>14</v>
       </c>
       <c r="AX4" s="2"/>
@@ -1780,113 +1807,113 @@
       <c r="BW4" s="2"/>
     </row>
     <row r="5" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="14" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="26">
         <v>1</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="19" t="s">
+      <c r="J5" s="27"/>
+      <c r="K5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="9">
-        <v>0.99038400000000004</v>
-      </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="14" t="s">
+      <c r="L5" s="26">
+        <v>1</v>
+      </c>
+      <c r="M5" s="27"/>
+      <c r="N5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="26">
+        <v>1</v>
+      </c>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="26">
+        <v>1</v>
+      </c>
+      <c r="S5" s="27"/>
+      <c r="T5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="26">
+        <v>0.78662399999999999</v>
+      </c>
+      <c r="V5" s="27"/>
+      <c r="W5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="X5" s="26">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA5" s="26">
         <v>0.95</v>
       </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="19" t="s">
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R5" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="S5" s="10"/>
-      <c r="T5" s="14" t="s">
+      <c r="AD5" s="26">
+        <v>0.88561999999999996</v>
+      </c>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="U5" s="9">
-        <v>0.71655999999999997</v>
-      </c>
-      <c r="V5" s="10"/>
-      <c r="W5" s="19" t="s">
+      <c r="AG5" s="26">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="X5" s="9">
-        <v>0.76190400000000003</v>
-      </c>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="14" t="s">
+      <c r="AJ5" s="26">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="27"/>
+      <c r="AL5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA5" s="9">
-        <v>0.85</v>
-      </c>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="19" t="s">
+      <c r="AM5" s="26">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="27"/>
+      <c r="AO5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AD5" s="9">
-        <v>0.86274499999999998</v>
-      </c>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="14" t="s">
+      <c r="AP5" s="26">
+        <v>0.96078399999999997</v>
+      </c>
+      <c r="AQ5" s="27"/>
+      <c r="AR5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AG5" s="9">
-        <v>0.96666600000000003</v>
-      </c>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="19" t="s">
+      <c r="AS5" s="26">
+        <v>0.96</v>
+      </c>
+      <c r="AT5" s="27"/>
+      <c r="AU5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AJ5" s="9">
-        <v>0.96428499999999995</v>
-      </c>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM5" s="9">
-        <v>0.84375</v>
-      </c>
-      <c r="AN5" s="10"/>
-      <c r="AO5" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP5" s="9">
-        <v>0.84313700000000003</v>
-      </c>
-      <c r="AQ5" s="10"/>
-      <c r="AR5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS5" s="9">
-        <v>0.92</v>
-      </c>
-      <c r="AT5" s="10"/>
-      <c r="AU5" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="AV5" s="9">
-        <v>0.88461500000000004</v>
-      </c>
-      <c r="AW5" s="10"/>
+      <c r="AV5" s="26">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="27"/>
       <c r="AX5" s="2"/>
       <c r="AY5" s="2"/>
       <c r="AZ5" s="2"/>
@@ -1915,137 +1942,137 @@
       <c r="BW5" s="2"/>
     </row>
     <row r="6" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="S6" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="T6" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="U6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="V6" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="W6" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="X6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y6" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z6" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB6" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC6" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE6" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF6" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH6" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI6" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK6" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL6" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN6" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO6" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ6" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR6" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT6" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AU6" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW6" s="25" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW6" s="13" t="s">
         <v>11</v>
       </c>
       <c r="AX6" s="2"/>
@@ -2076,85 +2103,137 @@
       <c r="BW6" s="2"/>
     </row>
     <row r="7" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="6">
+      <c r="A7" s="35"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="5">
         <v>26</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>35</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>54</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8">
+      <c r="K7" s="6">
+        <v>31</v>
+      </c>
+      <c r="L7" s="6">
+        <v>49</v>
+      </c>
+      <c r="M7" s="7">
         <v>52</v>
       </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="8">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="8">
-        <v>10</v>
-      </c>
-      <c r="T7" s="6"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="8">
+      <c r="N7" s="5">
+        <v>43</v>
+      </c>
+      <c r="O7" s="6">
+        <v>49</v>
+      </c>
+      <c r="P7" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>45</v>
+      </c>
+      <c r="R7" s="6">
+        <v>48</v>
+      </c>
+      <c r="S7" s="7">
+        <v>10</v>
+      </c>
+      <c r="T7" s="5">
+        <v>27</v>
+      </c>
+      <c r="U7" s="6">
+        <v>31</v>
+      </c>
+      <c r="V7" s="7">
         <v>157</v>
       </c>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="8">
+      <c r="W7" s="6">
+        <v>42</v>
+      </c>
+      <c r="X7" s="6">
+        <v>49</v>
+      </c>
+      <c r="Y7" s="7">
         <v>21</v>
       </c>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="8">
-        <v>10</v>
-      </c>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="8">
+      <c r="Z7" s="5">
+        <v>21</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>49</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>10</v>
+      </c>
+      <c r="AC7" s="6">
+        <v>23</v>
+      </c>
+      <c r="AD7" s="6">
+        <v>34</v>
+      </c>
+      <c r="AE7" s="7">
         <v>158</v>
       </c>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="8">
+      <c r="AF7" s="5">
+        <v>47</v>
+      </c>
+      <c r="AG7" s="6">
+        <v>49</v>
+      </c>
+      <c r="AH7" s="7">
         <v>15</v>
       </c>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="8">
+      <c r="AI7" s="6">
+        <v>45</v>
+      </c>
+      <c r="AJ7" s="6">
+        <v>49</v>
+      </c>
+      <c r="AK7" s="7">
         <v>14</v>
       </c>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="7"/>
-      <c r="AN7" s="8">
+      <c r="AL7" s="5">
+        <v>39</v>
+      </c>
+      <c r="AM7" s="6">
+        <v>44</v>
+      </c>
+      <c r="AN7" s="7">
         <v>16</v>
       </c>
-      <c r="AO7" s="7"/>
-      <c r="AP7" s="7"/>
-      <c r="AQ7" s="8">
+      <c r="AO7" s="6">
+        <v>20</v>
+      </c>
+      <c r="AP7" s="6">
+        <v>27</v>
+      </c>
+      <c r="AQ7" s="7">
         <v>158</v>
       </c>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="7"/>
-      <c r="AT7" s="8">
+      <c r="AR7" s="5">
+        <v>41</v>
+      </c>
+      <c r="AS7" s="6">
+        <v>49</v>
+      </c>
+      <c r="AT7" s="7">
         <v>25</v>
       </c>
-      <c r="AU7" s="7"/>
-      <c r="AV7" s="7"/>
-      <c r="AW7" s="8">
+      <c r="AU7" s="6">
+        <v>44</v>
+      </c>
+      <c r="AV7" s="6">
+        <v>49</v>
+      </c>
+      <c r="AW7" s="7">
         <v>13</v>
       </c>
       <c r="AX7" s="2"/>
@@ -2185,105 +2264,105 @@
       <c r="BW7" s="2"/>
     </row>
     <row r="8" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="14" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="9">
-        <v>0.98611099999999996</v>
-      </c>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="19" t="s">
+      <c r="O8" s="26">
+        <v>1</v>
+      </c>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="26">
         <v>0.98979499999999998</v>
       </c>
-      <c r="S8" s="10"/>
-      <c r="T8" s="14" t="s">
+      <c r="S8" s="27"/>
+      <c r="T8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="U8" s="9">
-        <v>0.99114999999999998</v>
-      </c>
-      <c r="V8" s="10"/>
-      <c r="W8" s="19" t="s">
+      <c r="U8" s="26">
+        <v>0.99557499999999999</v>
+      </c>
+      <c r="V8" s="27"/>
+      <c r="W8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="X8" s="9">
+      <c r="X8" s="26">
         <v>1</v>
       </c>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="14" t="s">
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA8" s="9">
+      <c r="AA8" s="26">
         <v>1</v>
       </c>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="19" t="s">
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AD8" s="9">
+      <c r="AD8" s="26">
         <v>1</v>
       </c>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="14" t="s">
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AG8" s="9">
+      <c r="AG8" s="26">
         <v>1</v>
       </c>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="19" t="s">
+      <c r="AH8" s="27"/>
+      <c r="AI8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AJ8" s="9">
-        <v>0.99468000000000001</v>
-      </c>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="14" t="s">
+      <c r="AJ8" s="26">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="27"/>
+      <c r="AL8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AM8" s="9">
+      <c r="AM8" s="26">
         <v>1</v>
       </c>
-      <c r="AN8" s="10"/>
-      <c r="AO8" s="19" t="s">
+      <c r="AN8" s="27"/>
+      <c r="AO8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AP8" s="9">
+      <c r="AP8" s="26">
         <v>1</v>
       </c>
-      <c r="AQ8" s="10"/>
-      <c r="AR8" s="14" t="s">
+      <c r="AQ8" s="27"/>
+      <c r="AR8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AS8" s="9">
-        <v>0.97826000000000002</v>
-      </c>
-      <c r="AT8" s="10"/>
-      <c r="AU8" s="19" t="s">
+      <c r="AS8" s="26">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="27"/>
+      <c r="AU8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AV8" s="9">
-        <v>0.94444399999999995</v>
-      </c>
-      <c r="AW8" s="10"/>
+      <c r="AV8" s="26">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="27"/>
       <c r="AX8" s="2"/>
       <c r="AY8" s="2"/>
       <c r="AZ8" s="2"/>
@@ -2312,125 +2391,125 @@
       <c r="BW8" s="2"/>
     </row>
     <row r="9" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="P9" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q9" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="S9" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="T9" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="U9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="V9" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="W9" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="X9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y9" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z9" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB9" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC9" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE9" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF9" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH9" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI9" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK9" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL9" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN9" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO9" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ9" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR9" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT9" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AU9" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW9" s="25" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="W9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="X9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW9" s="13" t="s">
         <v>11</v>
       </c>
       <c r="AX9" s="2"/>
@@ -2461,101 +2540,125 @@
       <c r="BW9" s="2"/>
     </row>
     <row r="10" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="8">
+      <c r="A10" s="35"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="5">
+        <v>35</v>
+      </c>
+      <c r="O10" s="6">
+        <v>41</v>
+      </c>
+      <c r="P10" s="7">
         <v>36</v>
       </c>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="8">
+      <c r="Q10" s="6">
+        <v>35</v>
+      </c>
+      <c r="R10" s="6">
         <v>49</v>
       </c>
-      <c r="T10" s="6"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="8">
+      <c r="S10" s="7">
+        <v>49</v>
+      </c>
+      <c r="T10" s="5">
+        <v>31</v>
+      </c>
+      <c r="U10" s="6">
+        <v>49</v>
+      </c>
+      <c r="V10" s="7">
         <v>113</v>
       </c>
-      <c r="W10" s="7">
+      <c r="W10" s="6">
         <v>26</v>
       </c>
-      <c r="X10" s="7">
+      <c r="X10" s="6">
         <v>35</v>
       </c>
-      <c r="Y10" s="8">
+      <c r="Y10" s="7">
         <v>42</v>
       </c>
-      <c r="Z10" s="6">
+      <c r="Z10" s="5">
         <v>26</v>
       </c>
-      <c r="AA10" s="7">
+      <c r="AA10" s="6">
         <v>35</v>
       </c>
-      <c r="AB10" s="8">
+      <c r="AB10" s="7">
         <v>107</v>
       </c>
-      <c r="AC10" s="7">
+      <c r="AC10" s="6">
         <v>26</v>
       </c>
-      <c r="AD10" s="7">
+      <c r="AD10" s="6">
         <v>35</v>
       </c>
-      <c r="AE10" s="8">
+      <c r="AE10" s="7">
         <v>43</v>
       </c>
-      <c r="AF10" s="6">
+      <c r="AF10" s="5">
         <v>26</v>
       </c>
-      <c r="AG10" s="7">
+      <c r="AG10" s="6">
         <v>35</v>
       </c>
-      <c r="AH10" s="8">
+      <c r="AH10" s="7">
         <v>93</v>
       </c>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="8">
+      <c r="AI10" s="6">
+        <v>37</v>
+      </c>
+      <c r="AJ10" s="6">
+        <v>49</v>
+      </c>
+      <c r="AK10" s="7">
         <v>94</v>
       </c>
-      <c r="AL10" s="6">
+      <c r="AL10" s="5">
         <v>26</v>
       </c>
-      <c r="AM10" s="7">
+      <c r="AM10" s="6">
         <v>35</v>
       </c>
-      <c r="AN10" s="8">
+      <c r="AN10" s="7">
         <v>113</v>
       </c>
-      <c r="AO10" s="7">
+      <c r="AO10" s="6">
         <v>26</v>
       </c>
-      <c r="AP10" s="7">
+      <c r="AP10" s="6">
         <v>35</v>
       </c>
-      <c r="AQ10" s="8">
+      <c r="AQ10" s="7">
         <v>79</v>
       </c>
-      <c r="AR10" s="6"/>
-      <c r="AS10" s="7"/>
-      <c r="AT10" s="8">
+      <c r="AR10" s="5">
+        <v>36</v>
+      </c>
+      <c r="AS10" s="6">
+        <v>41</v>
+      </c>
+      <c r="AT10" s="7">
         <v>23</v>
       </c>
-      <c r="AU10" s="7"/>
-      <c r="AV10" s="7"/>
-      <c r="AW10" s="8">
+      <c r="AU10" s="6">
+        <v>43</v>
+      </c>
+      <c r="AV10" s="6">
+        <v>48</v>
+      </c>
+      <c r="AW10" s="7">
         <v>18</v>
       </c>
       <c r="AX10" s="2"/>
@@ -2586,97 +2689,97 @@
       <c r="BW10" s="2"/>
     </row>
     <row r="11" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="14" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="U11" s="9">
-        <v>0.90908999999999995</v>
-      </c>
-      <c r="V11" s="10"/>
-      <c r="W11" s="19" t="s">
+      <c r="U11" s="26">
+        <v>1</v>
+      </c>
+      <c r="V11" s="27"/>
+      <c r="W11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="X11" s="9">
-        <v>0.85</v>
-      </c>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="14" t="s">
+      <c r="X11" s="26">
+        <v>0.91666599999999998</v>
+      </c>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA11" s="9">
-        <v>0.95454499999999998</v>
-      </c>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="19" t="s">
+      <c r="AA11" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AD11" s="9">
-        <v>0.95</v>
-      </c>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="14" t="s">
+      <c r="AD11" s="26">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AG11" s="9">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="19" t="s">
+      <c r="AG11" s="26">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AJ11" s="9">
-        <v>0.94444399999999995</v>
-      </c>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="14" t="s">
+      <c r="AJ11" s="26">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AM11" s="9">
-        <v>0.961538</v>
-      </c>
-      <c r="AN11" s="10"/>
-      <c r="AO11" s="19" t="s">
+      <c r="AM11" s="26">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="27"/>
+      <c r="AO11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AP11" s="9">
-        <v>0.91666599999999998</v>
-      </c>
-      <c r="AQ11" s="10"/>
-      <c r="AR11" s="14" t="s">
+      <c r="AP11" s="26">
+        <v>0.97916599999999998</v>
+      </c>
+      <c r="AQ11" s="27"/>
+      <c r="AR11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AS11" s="9">
-        <v>0.97368399999999999</v>
-      </c>
-      <c r="AT11" s="10"/>
-      <c r="AU11" s="19" t="s">
+      <c r="AS11" s="26">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="27"/>
+      <c r="AU11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AV11" s="9">
-        <v>0.95454499999999998</v>
-      </c>
-      <c r="AW11" s="10"/>
+      <c r="AV11" s="26">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="27"/>
       <c r="AX11" s="2"/>
       <c r="AY11" s="2"/>
       <c r="AZ11" s="2"/>
@@ -2705,113 +2808,113 @@
       <c r="BW11" s="2"/>
     </row>
     <row r="12" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="U12" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="V12" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="W12" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="X12" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y12" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z12" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA12" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB12" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC12" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD12" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE12" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF12" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG12" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH12" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI12" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ12" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK12" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL12" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM12" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN12" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO12" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP12" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ12" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR12" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS12" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT12" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AU12" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV12" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW12" s="25" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="W12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="X12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW12" s="13" t="s">
         <v>11</v>
       </c>
       <c r="AX12" s="2"/>
@@ -2842,73 +2945,113 @@
       <c r="BW12" s="2"/>
     </row>
     <row r="13" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="8">
-        <v>11</v>
-      </c>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="8">
+      <c r="A13" s="35"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="5">
+        <v>41</v>
+      </c>
+      <c r="U13" s="6">
+        <v>49</v>
+      </c>
+      <c r="V13" s="7">
+        <v>11</v>
+      </c>
+      <c r="W13" s="6">
+        <v>33</v>
+      </c>
+      <c r="X13" s="6">
+        <v>49</v>
+      </c>
+      <c r="Y13" s="7">
         <v>30</v>
       </c>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="8">
-        <v>11</v>
-      </c>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="8">
-        <v>10</v>
-      </c>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="8">
+      <c r="Z13" s="5">
+        <v>47</v>
+      </c>
+      <c r="AA13" s="6">
+        <v>49</v>
+      </c>
+      <c r="AB13" s="7">
+        <v>11</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>45</v>
+      </c>
+      <c r="AD13" s="6">
+        <v>49</v>
+      </c>
+      <c r="AE13" s="7">
+        <v>10</v>
+      </c>
+      <c r="AF13" s="5">
+        <v>43</v>
+      </c>
+      <c r="AG13" s="6">
+        <v>49</v>
+      </c>
+      <c r="AH13" s="7">
         <v>20</v>
       </c>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="7"/>
-      <c r="AK13" s="8">
+      <c r="AI13" s="6">
+        <v>42</v>
+      </c>
+      <c r="AJ13" s="6">
+        <v>49</v>
+      </c>
+      <c r="AK13" s="7">
         <v>18</v>
       </c>
-      <c r="AL13" s="6"/>
-      <c r="AM13" s="7"/>
-      <c r="AN13" s="8">
+      <c r="AL13" s="5">
+        <v>37</v>
+      </c>
+      <c r="AM13" s="6">
+        <v>47</v>
+      </c>
+      <c r="AN13" s="7">
         <v>13</v>
       </c>
-      <c r="AO13" s="7"/>
-      <c r="AP13" s="7"/>
-      <c r="AQ13" s="8">
+      <c r="AO13" s="6">
+        <v>25</v>
+      </c>
+      <c r="AP13" s="6">
+        <v>30</v>
+      </c>
+      <c r="AQ13" s="7">
         <v>24</v>
       </c>
-      <c r="AR13" s="6"/>
-      <c r="AS13" s="7"/>
-      <c r="AT13" s="8">
+      <c r="AR13" s="5">
+        <v>26</v>
+      </c>
+      <c r="AS13" s="6">
+        <v>36</v>
+      </c>
+      <c r="AT13" s="7">
         <v>19</v>
       </c>
-      <c r="AU13" s="7"/>
-      <c r="AV13" s="7"/>
-      <c r="AW13" s="8">
+      <c r="AU13" s="6">
+        <v>29</v>
+      </c>
+      <c r="AV13" s="6">
+        <v>35</v>
+      </c>
+      <c r="AW13" s="7">
         <v>22</v>
       </c>
       <c r="AX13" s="2"/>
@@ -2939,89 +3082,89 @@
       <c r="BW13" s="2"/>
     </row>
     <row r="14" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="14" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA14" s="9">
-        <v>0.83333299999999999</v>
-      </c>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="19" t="s">
+      <c r="AA14" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AD14" s="9">
-        <v>0.91666599999999998</v>
-      </c>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="14" t="s">
+      <c r="AD14" s="26">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AG14" s="9">
+      <c r="AG14" s="26">
         <v>0.95833330000000005</v>
       </c>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="19" t="s">
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AJ14" s="9">
+      <c r="AJ14" s="26">
         <v>0.96875</v>
       </c>
-      <c r="AK14" s="10"/>
-      <c r="AL14" s="14" t="s">
+      <c r="AK14" s="27"/>
+      <c r="AL14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AM14" s="9">
+      <c r="AM14" s="26">
         <v>0.85</v>
       </c>
-      <c r="AN14" s="10"/>
-      <c r="AO14" s="19" t="s">
+      <c r="AN14" s="27"/>
+      <c r="AO14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AP14" s="9">
+      <c r="AP14" s="26">
         <v>0.84615300000000004</v>
       </c>
-      <c r="AQ14" s="10"/>
-      <c r="AR14" s="14" t="s">
+      <c r="AQ14" s="27"/>
+      <c r="AR14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AS14" s="9">
+      <c r="AS14" s="26">
         <v>0.90740699999999996</v>
       </c>
-      <c r="AT14" s="10"/>
-      <c r="AU14" s="19" t="s">
+      <c r="AT14" s="27"/>
+      <c r="AU14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AV14" s="9">
+      <c r="AV14" s="26">
         <v>0.84848400000000002</v>
       </c>
-      <c r="AW14" s="10"/>
+      <c r="AW14" s="27"/>
       <c r="AX14" s="2"/>
       <c r="AY14" s="2"/>
       <c r="AZ14" s="2"/>
@@ -3050,101 +3193,101 @@
       <c r="BW14" s="2"/>
     </row>
     <row r="15" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA15" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB15" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC15" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD15" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE15" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF15" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG15" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH15" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI15" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ15" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK15" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL15" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM15" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN15" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO15" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP15" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ15" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR15" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS15" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT15" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AU15" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV15" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW15" s="25" t="s">
+      <c r="A15" s="34"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW15" s="13" t="s">
         <v>11</v>
       </c>
       <c r="AX15" s="2"/>
@@ -3175,69 +3318,77 @@
       <c r="BW15" s="2"/>
     </row>
     <row r="16" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="8">
+      <c r="A16" s="35"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="5">
+        <v>41</v>
+      </c>
+      <c r="AA16" s="6">
+        <v>48</v>
+      </c>
+      <c r="AB16" s="7">
         <v>27</v>
       </c>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="8">
+      <c r="AC16" s="6">
+        <v>43</v>
+      </c>
+      <c r="AD16" s="6">
+        <v>49</v>
+      </c>
+      <c r="AE16" s="7">
         <v>18</v>
       </c>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="8">
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="7">
         <v>12</v>
       </c>
-      <c r="AI16" s="7"/>
-      <c r="AJ16" s="7"/>
-      <c r="AK16" s="8">
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="7">
         <v>16</v>
       </c>
-      <c r="AL16" s="6"/>
-      <c r="AM16" s="7"/>
-      <c r="AN16" s="8">
-        <v>10</v>
-      </c>
-      <c r="AO16" s="7"/>
-      <c r="AP16" s="7"/>
-      <c r="AQ16" s="8">
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="7">
+        <v>10</v>
+      </c>
+      <c r="AO16" s="6"/>
+      <c r="AP16" s="6"/>
+      <c r="AQ16" s="7">
         <v>13</v>
       </c>
-      <c r="AR16" s="6"/>
-      <c r="AS16" s="7"/>
-      <c r="AT16" s="8">
+      <c r="AR16" s="5"/>
+      <c r="AS16" s="6"/>
+      <c r="AT16" s="7">
         <v>27</v>
       </c>
-      <c r="AU16" s="7"/>
-      <c r="AV16" s="7"/>
-      <c r="AW16" s="8">
+      <c r="AU16" s="6"/>
+      <c r="AV16" s="6"/>
+      <c r="AW16" s="7">
         <v>33</v>
       </c>
       <c r="AX16" s="2"/>
@@ -3268,81 +3419,81 @@
       <c r="BW16" s="2"/>
     </row>
     <row r="17" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="22"/>
-      <c r="AD17" s="22"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="14" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AG17" s="9">
+      <c r="AG17" s="26">
         <v>0.98979499999999998</v>
       </c>
-      <c r="AH17" s="10"/>
-      <c r="AI17" s="19" t="s">
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AJ17" s="9">
+      <c r="AJ17" s="26">
         <v>0.99264699999999995</v>
       </c>
-      <c r="AK17" s="10"/>
-      <c r="AL17" s="14" t="s">
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AM17" s="9">
+      <c r="AM17" s="26">
         <v>0.83333299999999999</v>
       </c>
-      <c r="AN17" s="10"/>
-      <c r="AO17" s="19" t="s">
+      <c r="AN17" s="27"/>
+      <c r="AO17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AP17" s="9">
+      <c r="AP17" s="26">
         <v>0.90476100000000004</v>
       </c>
-      <c r="AQ17" s="10"/>
-      <c r="AR17" s="14" t="s">
+      <c r="AQ17" s="27"/>
+      <c r="AR17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AS17" s="9">
+      <c r="AS17" s="26">
         <v>0.91666599999999998</v>
       </c>
-      <c r="AT17" s="10"/>
-      <c r="AU17" s="19" t="s">
+      <c r="AT17" s="27"/>
+      <c r="AU17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AV17" s="9">
+      <c r="AV17" s="26">
         <v>0.84615300000000004</v>
       </c>
-      <c r="AW17" s="10"/>
+      <c r="AW17" s="27"/>
       <c r="AX17" s="2"/>
       <c r="AY17" s="2"/>
       <c r="AZ17" s="2"/>
@@ -3371,89 +3522,89 @@
       <c r="BW17" s="2"/>
     </row>
     <row r="18" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="23"/>
-      <c r="AD18" s="23"/>
-      <c r="AE18" s="25"/>
-      <c r="AF18" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG18" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH18" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI18" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ18" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK18" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL18" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM18" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN18" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO18" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP18" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ18" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR18" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS18" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT18" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AU18" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV18" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW18" s="25" t="s">
+      <c r="A18" s="34"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW18" s="13" t="s">
         <v>11</v>
       </c>
       <c r="AX18" s="2"/>
@@ -3484,65 +3635,65 @@
       <c r="BW18" s="2"/>
     </row>
     <row r="19" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="31"/>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="8">
+      <c r="A19" s="35"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="7">
         <v>49</v>
       </c>
-      <c r="AI19" s="7"/>
-      <c r="AJ19" s="7"/>
-      <c r="AK19" s="8">
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="7">
         <v>68</v>
       </c>
-      <c r="AL19" s="6"/>
-      <c r="AM19" s="7"/>
-      <c r="AN19" s="8">
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="6"/>
+      <c r="AN19" s="7">
         <v>30</v>
       </c>
-      <c r="AO19" s="7"/>
-      <c r="AP19" s="7"/>
-      <c r="AQ19" s="8">
+      <c r="AO19" s="6"/>
+      <c r="AP19" s="6"/>
+      <c r="AQ19" s="7">
         <v>21</v>
       </c>
-      <c r="AR19" s="6"/>
-      <c r="AS19" s="7"/>
-      <c r="AT19" s="8">
+      <c r="AR19" s="5"/>
+      <c r="AS19" s="6"/>
+      <c r="AT19" s="7">
         <v>24</v>
       </c>
-      <c r="AU19" s="7"/>
-      <c r="AV19" s="7"/>
-      <c r="AW19" s="8">
+      <c r="AU19" s="6"/>
+      <c r="AV19" s="6"/>
+      <c r="AW19" s="7">
         <v>13</v>
       </c>
       <c r="AX19" s="2"/>
@@ -3573,73 +3724,73 @@
       <c r="BW19" s="2"/>
     </row>
     <row r="20" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="22"/>
-      <c r="AD20" s="32"/>
-      <c r="AE20" s="33"/>
-      <c r="AF20" s="27"/>
-      <c r="AG20" s="22"/>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="22"/>
-      <c r="AJ20" s="22"/>
-      <c r="AK20" s="28"/>
-      <c r="AL20" s="14" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="23"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="15"/>
+      <c r="AL20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AM20" s="9">
+      <c r="AM20" s="26">
         <v>0.98979499999999998</v>
       </c>
-      <c r="AN20" s="10"/>
-      <c r="AO20" s="19" t="s">
+      <c r="AN20" s="27"/>
+      <c r="AO20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AP20" s="9">
+      <c r="AP20" s="26">
         <v>0.98936100000000005</v>
       </c>
-      <c r="AQ20" s="10"/>
-      <c r="AR20" s="14" t="s">
+      <c r="AQ20" s="27"/>
+      <c r="AR20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AS20" s="9">
+      <c r="AS20" s="26">
         <v>0.96875</v>
       </c>
-      <c r="AT20" s="10"/>
-      <c r="AU20" s="19" t="s">
+      <c r="AT20" s="27"/>
+      <c r="AU20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AV20" s="9">
+      <c r="AV20" s="26">
         <v>1</v>
       </c>
-      <c r="AW20" s="10"/>
+      <c r="AW20" s="27"/>
       <c r="AX20" s="2"/>
       <c r="AY20" s="2"/>
       <c r="AZ20" s="2"/>
@@ -3668,77 +3819,77 @@
       <c r="BW20" s="2"/>
     </row>
     <row r="21" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="23"/>
-      <c r="AB21" s="25"/>
-      <c r="AC21" s="23"/>
-      <c r="AD21" s="23"/>
-      <c r="AE21" s="25"/>
-      <c r="AF21" s="24"/>
-      <c r="AG21" s="23"/>
-      <c r="AH21" s="25"/>
-      <c r="AI21" s="23"/>
-      <c r="AJ21" s="23"/>
-      <c r="AK21" s="25"/>
-      <c r="AL21" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM21" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN21" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO21" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP21" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ21" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR21" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS21" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT21" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AU21" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV21" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW21" s="25" t="s">
+      <c r="A21" s="34"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN21" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ21" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT21" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW21" s="13" t="s">
         <v>11</v>
       </c>
       <c r="AX21" s="2"/>
@@ -3769,65 +3920,65 @@
       <c r="BW21" s="2"/>
     </row>
     <row r="22" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="30"/>
-      <c r="AE22" s="31"/>
-      <c r="AF22" s="29"/>
-      <c r="AG22" s="30"/>
-      <c r="AH22" s="31"/>
-      <c r="AI22" s="30"/>
-      <c r="AJ22" s="30"/>
-      <c r="AK22" s="31"/>
-      <c r="AL22" s="6"/>
-      <c r="AM22" s="7"/>
-      <c r="AN22" s="8">
+      <c r="A22" s="35"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="16"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="17"/>
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="18"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="7">
         <v>49</v>
       </c>
-      <c r="AO22" s="7"/>
-      <c r="AP22" s="7"/>
-      <c r="AQ22" s="8">
+      <c r="AO22" s="6"/>
+      <c r="AP22" s="6"/>
+      <c r="AQ22" s="7">
         <v>47</v>
       </c>
-      <c r="AR22" s="6"/>
-      <c r="AS22" s="7"/>
-      <c r="AT22" s="8">
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="6"/>
+      <c r="AT22" s="7">
         <v>48</v>
       </c>
-      <c r="AU22" s="7">
+      <c r="AU22" s="6">
         <v>26</v>
       </c>
-      <c r="AV22" s="7">
+      <c r="AV22" s="6">
         <v>35</v>
       </c>
-      <c r="AW22" s="8">
+      <c r="AW22" s="7">
         <v>22</v>
       </c>
       <c r="AX22" s="2"/>
@@ -3858,65 +4009,65 @@
       <c r="BW22" s="2"/>
     </row>
     <row r="23" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="22"/>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="33"/>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="32"/>
-      <c r="AH23" s="33"/>
-      <c r="AI23" s="22"/>
-      <c r="AJ23" s="32"/>
-      <c r="AK23" s="33"/>
-      <c r="AL23" s="27"/>
-      <c r="AM23" s="22"/>
-      <c r="AN23" s="28"/>
-      <c r="AO23" s="22"/>
-      <c r="AP23" s="22"/>
-      <c r="AQ23" s="28"/>
-      <c r="AR23" s="14" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="23"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="22"/>
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="22"/>
+      <c r="AK23" s="23"/>
+      <c r="AL23" s="14"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="15"/>
+      <c r="AO23" s="10"/>
+      <c r="AP23" s="10"/>
+      <c r="AQ23" s="15"/>
+      <c r="AR23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AS23" s="9">
+      <c r="AS23" s="26">
         <v>0.88235200000000003</v>
       </c>
-      <c r="AT23" s="10"/>
-      <c r="AU23" s="19" t="s">
+      <c r="AT23" s="27"/>
+      <c r="AU23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AV23" s="18">
+      <c r="AV23" s="26">
         <v>0.77272700000000005</v>
       </c>
-      <c r="AW23" s="26"/>
+      <c r="AW23" s="27"/>
       <c r="AX23" s="2"/>
       <c r="AY23" s="2"/>
       <c r="AZ23" s="2"/>
@@ -3945,65 +4096,65 @@
       <c r="BW23" s="2"/>
     </row>
     <row r="24" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="24"/>
-      <c r="AA24" s="23"/>
-      <c r="AB24" s="25"/>
-      <c r="AC24" s="23"/>
-      <c r="AD24" s="23"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="24"/>
-      <c r="AG24" s="23"/>
-      <c r="AH24" s="25"/>
-      <c r="AI24" s="23"/>
-      <c r="AJ24" s="23"/>
-      <c r="AK24" s="25"/>
-      <c r="AL24" s="24"/>
-      <c r="AM24" s="23"/>
-      <c r="AN24" s="25"/>
-      <c r="AO24" s="23"/>
-      <c r="AP24" s="23"/>
-      <c r="AQ24" s="25"/>
-      <c r="AR24" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS24" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT24" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AU24" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV24" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW24" s="25" t="s">
+      <c r="A24" s="34"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="11"/>
+      <c r="AJ24" s="11"/>
+      <c r="AK24" s="13"/>
+      <c r="AL24" s="12"/>
+      <c r="AM24" s="11"/>
+      <c r="AN24" s="13"/>
+      <c r="AO24" s="11"/>
+      <c r="AP24" s="11"/>
+      <c r="AQ24" s="13"/>
+      <c r="AR24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS24" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV24" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW24" s="13" t="s">
         <v>11</v>
       </c>
       <c r="AX24" s="2"/>
@@ -4034,57 +4185,57 @@
       <c r="BW24" s="2"/>
     </row>
     <row r="25" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="30"/>
-      <c r="AD25" s="30"/>
-      <c r="AE25" s="31"/>
-      <c r="AF25" s="29"/>
-      <c r="AG25" s="30"/>
-      <c r="AH25" s="31"/>
-      <c r="AI25" s="30"/>
-      <c r="AJ25" s="30"/>
-      <c r="AK25" s="31"/>
-      <c r="AL25" s="29"/>
-      <c r="AM25" s="30"/>
-      <c r="AN25" s="31"/>
-      <c r="AO25" s="30"/>
-      <c r="AP25" s="30"/>
-      <c r="AQ25" s="31"/>
-      <c r="AR25" s="6"/>
-      <c r="AS25" s="7"/>
-      <c r="AT25" s="8">
+      <c r="A25" s="35"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="16"/>
+      <c r="AG25" s="17"/>
+      <c r="AH25" s="18"/>
+      <c r="AI25" s="17"/>
+      <c r="AJ25" s="17"/>
+      <c r="AK25" s="18"/>
+      <c r="AL25" s="16"/>
+      <c r="AM25" s="17"/>
+      <c r="AN25" s="18"/>
+      <c r="AO25" s="17"/>
+      <c r="AP25" s="17"/>
+      <c r="AQ25" s="18"/>
+      <c r="AR25" s="5"/>
+      <c r="AS25" s="6"/>
+      <c r="AT25" s="7">
         <v>17</v>
       </c>
-      <c r="AU25" s="7"/>
-      <c r="AV25" s="7"/>
-      <c r="AW25" s="8">
+      <c r="AU25" s="6"/>
+      <c r="AV25" s="6"/>
+      <c r="AW25" s="7">
         <v>22</v>
       </c>
       <c r="AX25" s="2"/>
@@ -4121,11 +4272,11 @@
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
-      <c r="F27" s="21">
+      <c r="F27" s="24">
         <f>AVERAGE(C2,F2,I2,L2,O2,R2,U2,X2,AA2,AD2,AG2,AJ2,AM2,AP2,AS2,AV2,I5,L5,O5,R5,U5,X5,AA5,AD5,AG5,AJ5,AM5,AP5,AS5,AV5,O8,R8,U8,X8,AA8,AD8,AG8,AJ8,AM8,AP8,AS8,AV8,U11,X11,AA11,AD11,AG11,AJ11,AM11,AP11,AS11,AV11,AA14,AD14,AG14,AJ14,AM14,AP14,AS14,AV14,AG17,AJ17,AM17,AP17,AS17,AV17,AM20,AP20,AS20,AV20,AS23,AV23)</f>
-        <v>0.93925000416666693</v>
-      </c>
-      <c r="G27" s="5"/>
+        <v>0.96925139305555552</v>
+      </c>
+      <c r="G27" s="25"/>
       <c r="K27" s="20" t="s">
         <v>15</v>
       </c>
@@ -4134,10 +4285,10 @@
       <c r="N27" s="20"/>
       <c r="O27" s="20"/>
       <c r="P27" s="20"/>
-      <c r="Q27" s="21">
+      <c r="Q27" s="24">
         <v>0.938967</v>
       </c>
-      <c r="R27" s="5"/>
+      <c r="R27" s="25"/>
     </row>
     <row r="28" spans="1:75" x14ac:dyDescent="0.2">
       <c r="B28" s="20" t="s">
@@ -4146,11 +4297,11 @@
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
-      <c r="F28" s="37">
+      <c r="F28" s="21">
         <f>AVERAGE(B4,E4,H4,K4,N4,Q4,T4,W4,Z4,AC4,AF4,AI4,AL4,AO4,AR4,AU4,H7,K7,N7,Q7,T7,W7,Z7,AC7,AF7,AI7,AL7,AO7,AR7,AU7,N10,Q10,T10,W10,Z10,AC10,AF10,AI10,AL10,AO10,AR10,AU10,T13,W13,Z13,AC13,AF13,AI13,AL13,AO13,AR13,AU13,Z16,AC16,AF16,AI16,AL16,AO16,AR16,AU16,AF19,AI19,AL19,AO19,AR19,AU19,AL22,AO22,AR22,AU22,AR25,AU25)</f>
-        <v>25.6875</v>
-      </c>
-      <c r="G28" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:75" x14ac:dyDescent="0.2">
       <c r="B29" s="20" t="s">
@@ -4159,11 +4310,11 @@
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
-      <c r="F29" s="37">
+      <c r="F29" s="21">
         <f>AVERAGE(C4,F4,I4,L4,O4,R4,U4,X4,AA4,AD4,AG4,AJ4,AM4,AP4,AS4,AV4,I7,L7,O7,O10,R7,R10,U7,U10,U13,X7,X10,X13,AA7,AA10,AA13,AA16,AD7,AD10,AD13,AD16,AG7,AG10,AG13,AG16,AG19,AJ7,AJ10,AJ13,AJ16,AJ19,AM7,AM10,AM13,AM16,AM19,AM22,AP7,AP10,AP13,AP16,AP19,AP22,AS7,AS10,AS13,AS16,AS19,AS22,AS25,AV7,AV10,AV13,AV16,AV19,AV25)</f>
-        <v>35.533333333333331</v>
-      </c>
-      <c r="G29" s="37"/>
+        <v>41.870370370370374</v>
+      </c>
+      <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:75" x14ac:dyDescent="0.2">
       <c r="B30" s="20" t="s">
@@ -4172,132 +4323,14 @@
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
-      <c r="F30" s="37">
+      <c r="F30" s="21">
         <f>AVERAGE(D4,G4,J4,J7,M4,M7,P4,P7,P10,S4,S7,S10,V4,V7,V10,V13,Y4,Y7,Y10,Y13,AB4,AB7,AB10,AB13,AB16,AE4,AE7,AE10,AE13,AE16,AH4,AH7,AH10,AH13,AH16,AH19,AK4,AK7,AK10,AK13,AK16,AK19,AN4,AN7,AN10,AN13,AN16,AN19,AN22,AQ4,AQ7,AQ10,AQ13,AQ16,AQ19,AQ22,AT4,AT7,AT10,AT13,AT16,AT19,AT22,AT25,AW4,AW7,AW10,AW13,AW16,AW19,AW22,AW25)</f>
-        <v>43.625</v>
-      </c>
-      <c r="G30" s="37"/>
+        <v>42.75</v>
+      </c>
+      <c r="G30" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="140">
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="AS23:AT23"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AJ23:AK23"/>
-    <mergeCell ref="AM20:AN20"/>
-    <mergeCell ref="AP20:AQ20"/>
-    <mergeCell ref="AS20:AT20"/>
-    <mergeCell ref="AV20:AW20"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AM17:AN17"/>
-    <mergeCell ref="AP17:AQ17"/>
-    <mergeCell ref="AS17:AT17"/>
-    <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AJ17:AK17"/>
-    <mergeCell ref="AM14:AN14"/>
-    <mergeCell ref="AP14:AQ14"/>
-    <mergeCell ref="AS14:AT14"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AJ14:AK14"/>
-    <mergeCell ref="AM11:AN11"/>
-    <mergeCell ref="AP11:AQ11"/>
-    <mergeCell ref="AS11:AT11"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AJ11:AK11"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AP8:AQ8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AP5:AQ5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AV5:AW5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AL1:AQ1"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR1:AW1"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="Z1:AE1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AJ2:AK2"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="T1:Y1"/>
@@ -4320,6 +4353,124 @@
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="AL1:AQ1"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR1:AW1"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AP5:AQ5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AV5:AW5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="AM11:AN11"/>
+    <mergeCell ref="AP11:AQ11"/>
+    <mergeCell ref="AS11:AT11"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AJ11:AK11"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="AP8:AQ8"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AM14:AN14"/>
+    <mergeCell ref="AP14:AQ14"/>
+    <mergeCell ref="AS14:AT14"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AJ14:AK14"/>
+    <mergeCell ref="AM17:AN17"/>
+    <mergeCell ref="AP17:AQ17"/>
+    <mergeCell ref="AS17:AT17"/>
+    <mergeCell ref="AV17:AW17"/>
+    <mergeCell ref="AJ17:AK17"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="AM20:AN20"/>
+    <mergeCell ref="AP20:AQ20"/>
+    <mergeCell ref="AS20:AT20"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="AS23:AT23"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AJ23:AK23"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:G27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="AX2:XFD2 A2:AE2">

--- a/Efectividades.xlsx
+++ b/Efectividades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfc_2\Documents\Git\Clasificador-Bayesiano\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42619072-6F7C-4070-B7D7-2784C3D17BD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F946D2-D1A6-4ED4-B5E7-995C1E346D5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2670" yWindow="1425" windowWidth="12510" windowHeight="7875" xr2:uid="{6DF6BAD8-DCEE-4FDF-B5FC-1870D868E7E2}"/>
   </bookViews>
@@ -310,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -415,6 +415,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1263,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAF7C7A-82F5-4FDE-94EB-09394C898A3F}">
-  <dimension ref="A1:BW30"/>
+  <dimension ref="A1:BW39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="AG16" sqref="AG16"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3127,42 +3130,42 @@
         <v>12</v>
       </c>
       <c r="AG14" s="26">
-        <v>0.95833330000000005</v>
+        <v>1</v>
       </c>
       <c r="AH14" s="27"/>
       <c r="AI14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="AJ14" s="26">
-        <v>0.96875</v>
+        <v>1</v>
       </c>
       <c r="AK14" s="27"/>
       <c r="AL14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="AM14" s="26">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AN14" s="27"/>
       <c r="AO14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="AP14" s="26">
-        <v>0.84615300000000004</v>
+        <v>1</v>
       </c>
       <c r="AQ14" s="27"/>
       <c r="AR14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="AS14" s="26">
-        <v>0.90740699999999996</v>
+        <v>0.925925</v>
       </c>
       <c r="AT14" s="27"/>
       <c r="AU14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="AV14" s="26">
-        <v>0.84848400000000002</v>
+        <v>0.89393900000000004</v>
       </c>
       <c r="AW14" s="27"/>
       <c r="AX14" s="2"/>
@@ -3361,33 +3364,57 @@
       <c r="AE16" s="7">
         <v>18</v>
       </c>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="6"/>
+      <c r="AF16" s="5">
+        <v>46</v>
+      </c>
+      <c r="AG16" s="6">
+        <v>49</v>
+      </c>
       <c r="AH16" s="7">
         <v>12</v>
       </c>
-      <c r="AI16" s="6"/>
-      <c r="AJ16" s="6"/>
+      <c r="AI16" s="6">
+        <v>44</v>
+      </c>
+      <c r="AJ16" s="6">
+        <v>49</v>
+      </c>
       <c r="AK16" s="7">
         <v>16</v>
       </c>
-      <c r="AL16" s="5"/>
-      <c r="AM16" s="6"/>
+      <c r="AL16" s="5">
+        <v>23</v>
+      </c>
+      <c r="AM16" s="6">
+        <v>26</v>
+      </c>
       <c r="AN16" s="7">
         <v>10</v>
       </c>
-      <c r="AO16" s="6"/>
-      <c r="AP16" s="6"/>
+      <c r="AO16" s="6">
+        <v>26</v>
+      </c>
+      <c r="AP16" s="6">
+        <v>28</v>
+      </c>
       <c r="AQ16" s="7">
         <v>13</v>
       </c>
-      <c r="AR16" s="5"/>
-      <c r="AS16" s="6"/>
+      <c r="AR16" s="5">
+        <v>24</v>
+      </c>
+      <c r="AS16" s="6">
+        <v>41</v>
+      </c>
       <c r="AT16" s="7">
         <v>27</v>
       </c>
-      <c r="AU16" s="6"/>
-      <c r="AV16" s="6"/>
+      <c r="AU16" s="6">
+        <v>32</v>
+      </c>
+      <c r="AV16" s="6">
+        <v>39</v>
+      </c>
       <c r="AW16" s="7">
         <v>33</v>
       </c>
@@ -4274,7 +4301,7 @@
       <c r="E27" s="20"/>
       <c r="F27" s="24">
         <f>AVERAGE(C2,F2,I2,L2,O2,R2,U2,X2,AA2,AD2,AG2,AJ2,AM2,AP2,AS2,AV2,I5,L5,O5,R5,U5,X5,AA5,AD5,AG5,AJ5,AM5,AP5,AS5,AV5,O8,R8,U8,X8,AA8,AD8,AG8,AJ8,AM8,AP8,AS8,AV8,U11,X11,AA11,AD11,AG11,AJ11,AM11,AP11,AS11,AV11,AA14,AD14,AG14,AJ14,AM14,AP14,AS14,AV14,AG17,AJ17,AM17,AP17,AS17,AV17,AM20,AP20,AS20,AV20,AS23,AV23)</f>
-        <v>0.96925139305555552</v>
+        <v>0.97537273611111119</v>
       </c>
       <c r="G27" s="25"/>
       <c r="K27" s="20" t="s">
@@ -4299,7 +4326,7 @@
       <c r="E28" s="20"/>
       <c r="F28" s="21">
         <f>AVERAGE(B4,E4,H4,K4,N4,Q4,T4,W4,Z4,AC4,AF4,AI4,AL4,AO4,AR4,AU4,H7,K7,N7,Q7,T7,W7,Z7,AC7,AF7,AI7,AL7,AO7,AR7,AU7,N10,Q10,T10,W10,Z10,AC10,AF10,AI10,AL10,AO10,AR10,AU10,T13,W13,Z13,AC13,AF13,AI13,AL13,AO13,AR13,AU13,Z16,AC16,AF16,AI16,AL16,AO16,AR16,AU16,AF19,AI19,AL19,AO19,AR19,AU19,AL22,AO22,AR22,AU22,AR25,AU25)</f>
-        <v>33</v>
+        <v>32.950819672131146</v>
       </c>
       <c r="G28" s="21"/>
     </row>
@@ -4312,7 +4339,7 @@
       <c r="E29" s="20"/>
       <c r="F29" s="21">
         <f>AVERAGE(C4,F4,I4,L4,O4,R4,U4,X4,AA4,AD4,AG4,AJ4,AM4,AP4,AS4,AV4,I7,L7,O7,O10,R7,R10,U7,U10,U13,X7,X10,X13,AA7,AA10,AA13,AA16,AD7,AD10,AD13,AD16,AG7,AG10,AG13,AG16,AG19,AJ7,AJ10,AJ13,AJ16,AJ19,AM7,AM10,AM13,AM16,AM19,AM22,AP7,AP10,AP13,AP16,AP19,AP22,AS7,AS10,AS13,AS16,AS19,AS22,AS25,AV7,AV10,AV13,AV16,AV19,AV25)</f>
-        <v>41.870370370370374</v>
+        <v>41.55</v>
       </c>
       <c r="G29" s="21"/>
     </row>
@@ -4328,6 +4355,9 @@
         <v>42.75</v>
       </c>
       <c r="G30" s="21"/>
+    </row>
+    <row r="39" spans="47:47" x14ac:dyDescent="0.2">
+      <c r="AU39" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="140">

--- a/Efectividades.xlsx
+++ b/Efectividades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfc_2\Documents\Git\Clasificador-Bayesiano\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F946D2-D1A6-4ED4-B5E7-995C1E346D5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9DCE23-3C42-47FC-B317-19CED41E8954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2670" yWindow="1425" windowWidth="12510" windowHeight="7875" xr2:uid="{6DF6BAD8-DCEE-4FDF-B5FC-1870D868E7E2}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -369,34 +368,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -408,16 +389,34 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1268,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAF7C7A-82F5-4FDE-94EB-09394C898A3F}">
   <dimension ref="A1:BW39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1281,70 +1280,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="30" t="s">
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="30" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="30" t="s">
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="30" t="s">
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="30" t="s">
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="30" t="s">
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31"/>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="30" t="s">
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="AS1" s="31"/>
-      <c r="AT1" s="31"/>
-      <c r="AU1" s="31"/>
-      <c r="AV1" s="31"/>
-      <c r="AW1" s="32"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="26"/>
       <c r="AX1" s="2"/>
       <c r="AY1" s="2"/>
       <c r="AZ1" s="2"/>
@@ -1373,124 +1372,124 @@
       <c r="BW1" s="2"/>
     </row>
     <row r="2" spans="1:75" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="27">
         <v>0.985294</v>
       </c>
-      <c r="D2" s="27"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="27">
         <v>0.98584899999999998</v>
       </c>
-      <c r="G2" s="27"/>
+      <c r="G2" s="28"/>
       <c r="H2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="26">
-        <v>1</v>
-      </c>
-      <c r="J2" s="27"/>
+      <c r="I2" s="27">
+        <v>1</v>
+      </c>
+      <c r="J2" s="28"/>
       <c r="K2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="26">
-        <v>1</v>
-      </c>
-      <c r="M2" s="27"/>
+      <c r="L2" s="27">
+        <v>1</v>
+      </c>
+      <c r="M2" s="28"/>
       <c r="N2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="26">
-        <v>1</v>
-      </c>
-      <c r="P2" s="27"/>
+      <c r="O2" s="27">
+        <v>1</v>
+      </c>
+      <c r="P2" s="28"/>
       <c r="Q2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="26">
-        <v>1</v>
-      </c>
-      <c r="S2" s="27"/>
+      <c r="R2" s="27">
+        <v>1</v>
+      </c>
+      <c r="S2" s="28"/>
       <c r="T2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="26">
-        <v>1</v>
-      </c>
-      <c r="V2" s="27"/>
+      <c r="U2" s="27">
+        <v>1</v>
+      </c>
+      <c r="V2" s="28"/>
       <c r="W2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="26">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="27"/>
+      <c r="X2" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="28"/>
       <c r="Z2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="26">
+      <c r="AA2" s="27">
         <v>0.97959099999999999</v>
       </c>
-      <c r="AB2" s="27"/>
+      <c r="AB2" s="28"/>
       <c r="AC2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="26">
+      <c r="AD2" s="27">
         <v>0.95918300000000001</v>
       </c>
-      <c r="AE2" s="27"/>
+      <c r="AE2" s="28"/>
       <c r="AF2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AG2" s="26">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="27"/>
+      <c r="AG2" s="27">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="28"/>
       <c r="AI2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="26">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="27"/>
+      <c r="AJ2" s="27">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="28"/>
       <c r="AL2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AM2" s="26">
+      <c r="AM2" s="27">
         <v>0.98648599999999997</v>
       </c>
-      <c r="AN2" s="27"/>
+      <c r="AN2" s="28"/>
       <c r="AO2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AP2" s="26">
-        <v>1</v>
-      </c>
-      <c r="AQ2" s="27"/>
+      <c r="AP2" s="27">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="28"/>
       <c r="AR2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AS2" s="26">
-        <v>1</v>
-      </c>
-      <c r="AT2" s="27"/>
+      <c r="AS2" s="27">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="28"/>
       <c r="AU2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AV2" s="26">
-        <v>1</v>
-      </c>
-      <c r="AW2" s="27"/>
+      <c r="AV2" s="27">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="28"/>
     </row>
     <row r="3" spans="1:75" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
@@ -1637,7 +1636,7 @@
       </c>
     </row>
     <row r="4" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="5">
         <v>27</v>
       </c>
@@ -1810,7 +1809,7 @@
       <c r="BW4" s="2"/>
     </row>
     <row r="5" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="14"/>
@@ -1822,101 +1821,101 @@
       <c r="H5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="26">
-        <v>1</v>
-      </c>
-      <c r="J5" s="27"/>
+      <c r="I5" s="27">
+        <v>1</v>
+      </c>
+      <c r="J5" s="28"/>
       <c r="K5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="26">
-        <v>1</v>
-      </c>
-      <c r="M5" s="27"/>
+      <c r="L5" s="27">
+        <v>1</v>
+      </c>
+      <c r="M5" s="28"/>
       <c r="N5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="26">
-        <v>1</v>
-      </c>
-      <c r="P5" s="27"/>
+      <c r="O5" s="27">
+        <v>1</v>
+      </c>
+      <c r="P5" s="28"/>
       <c r="Q5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R5" s="26">
-        <v>1</v>
-      </c>
-      <c r="S5" s="27"/>
+      <c r="R5" s="27">
+        <v>1</v>
+      </c>
+      <c r="S5" s="28"/>
       <c r="T5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="U5" s="26">
+      <c r="U5" s="27">
         <v>0.78662399999999999</v>
       </c>
-      <c r="V5" s="27"/>
+      <c r="V5" s="28"/>
       <c r="W5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="X5" s="26">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="27"/>
+      <c r="X5" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="28"/>
       <c r="Z5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA5" s="26">
+      <c r="AA5" s="27">
         <v>0.95</v>
       </c>
-      <c r="AB5" s="27"/>
+      <c r="AB5" s="28"/>
       <c r="AC5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AD5" s="26">
+      <c r="AD5" s="27">
         <v>0.88561999999999996</v>
       </c>
-      <c r="AE5" s="27"/>
+      <c r="AE5" s="28"/>
       <c r="AF5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AG5" s="26">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="27"/>
+      <c r="AG5" s="27">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="28"/>
       <c r="AI5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AJ5" s="26">
-        <v>1</v>
-      </c>
-      <c r="AK5" s="27"/>
+      <c r="AJ5" s="27">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="28"/>
       <c r="AL5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AM5" s="26">
-        <v>1</v>
-      </c>
-      <c r="AN5" s="27"/>
+      <c r="AM5" s="27">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="28"/>
       <c r="AO5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AP5" s="26">
+      <c r="AP5" s="27">
         <v>0.96078399999999997</v>
       </c>
-      <c r="AQ5" s="27"/>
+      <c r="AQ5" s="28"/>
       <c r="AR5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AS5" s="26">
+      <c r="AS5" s="27">
         <v>0.96</v>
       </c>
-      <c r="AT5" s="27"/>
+      <c r="AT5" s="28"/>
       <c r="AU5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AV5" s="26">
-        <v>1</v>
-      </c>
-      <c r="AW5" s="27"/>
+      <c r="AV5" s="27">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="28"/>
       <c r="AX5" s="2"/>
       <c r="AY5" s="2"/>
       <c r="AZ5" s="2"/>
@@ -1945,7 +1944,7 @@
       <c r="BW5" s="2"/>
     </row>
     <row r="6" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="12"/>
       <c r="C6" s="11"/>
       <c r="D6" s="13"/>
@@ -2106,7 +2105,7 @@
       <c r="BW6" s="2"/>
     </row>
     <row r="7" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
@@ -2267,15 +2266,15 @@
       <c r="BW7" s="2"/>
     </row>
     <row r="8" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="14"/>
       <c r="I8" s="10"/>
       <c r="J8" s="15"/>
@@ -2285,87 +2284,87 @@
       <c r="N8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="26">
-        <v>1</v>
-      </c>
-      <c r="P8" s="27"/>
+      <c r="O8" s="27">
+        <v>1</v>
+      </c>
+      <c r="P8" s="28"/>
       <c r="Q8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="26">
+      <c r="R8" s="27">
         <v>0.98979499999999998</v>
       </c>
-      <c r="S8" s="27"/>
+      <c r="S8" s="28"/>
       <c r="T8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="U8" s="26">
+      <c r="U8" s="27">
         <v>0.99557499999999999</v>
       </c>
-      <c r="V8" s="27"/>
+      <c r="V8" s="28"/>
       <c r="W8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="X8" s="26">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="27"/>
+      <c r="X8" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="28"/>
       <c r="Z8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA8" s="26">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="27"/>
+      <c r="AA8" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="28"/>
       <c r="AC8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AD8" s="26">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="27"/>
+      <c r="AD8" s="27">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="28"/>
       <c r="AF8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AG8" s="26">
-        <v>1</v>
-      </c>
-      <c r="AH8" s="27"/>
+      <c r="AG8" s="27">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="28"/>
       <c r="AI8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AJ8" s="26">
-        <v>1</v>
-      </c>
-      <c r="AK8" s="27"/>
+      <c r="AJ8" s="27">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="28"/>
       <c r="AL8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AM8" s="26">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="27"/>
+      <c r="AM8" s="27">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="28"/>
       <c r="AO8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AP8" s="26">
-        <v>1</v>
-      </c>
-      <c r="AQ8" s="27"/>
+      <c r="AP8" s="27">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="28"/>
       <c r="AR8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AS8" s="26">
-        <v>1</v>
-      </c>
-      <c r="AT8" s="27"/>
+      <c r="AS8" s="27">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="28"/>
       <c r="AU8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AV8" s="26">
-        <v>1</v>
-      </c>
-      <c r="AW8" s="27"/>
+      <c r="AV8" s="27">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="28"/>
       <c r="AX8" s="2"/>
       <c r="AY8" s="2"/>
       <c r="AZ8" s="2"/>
@@ -2394,7 +2393,7 @@
       <c r="BW8" s="2"/>
     </row>
     <row r="9" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="12"/>
       <c r="C9" s="11"/>
       <c r="D9" s="13"/>
@@ -2543,7 +2542,7 @@
       <c r="BW9" s="2"/>
     </row>
     <row r="10" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="16"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
@@ -2692,21 +2691,21 @@
       <c r="BW10" s="2"/>
     </row>
     <row r="11" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="23"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="30"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="23"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="30"/>
       <c r="N11" s="14"/>
       <c r="O11" s="10"/>
       <c r="P11" s="15"/>
@@ -2716,73 +2715,73 @@
       <c r="T11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="U11" s="26">
-        <v>1</v>
-      </c>
-      <c r="V11" s="27"/>
+      <c r="U11" s="27">
+        <v>1</v>
+      </c>
+      <c r="V11" s="28"/>
       <c r="W11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="X11" s="26">
+      <c r="X11" s="27">
         <v>0.91666599999999998</v>
       </c>
-      <c r="Y11" s="27"/>
+      <c r="Y11" s="28"/>
       <c r="Z11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA11" s="26">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="27"/>
+      <c r="AA11" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="28"/>
       <c r="AC11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AD11" s="26">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="27"/>
+      <c r="AD11" s="27">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="28"/>
       <c r="AF11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AG11" s="26">
-        <v>1</v>
-      </c>
-      <c r="AH11" s="27"/>
+      <c r="AG11" s="27">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="28"/>
       <c r="AI11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AJ11" s="26">
-        <v>1</v>
-      </c>
-      <c r="AK11" s="27"/>
+      <c r="AJ11" s="27">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="28"/>
       <c r="AL11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AM11" s="26">
-        <v>1</v>
-      </c>
-      <c r="AN11" s="27"/>
+      <c r="AM11" s="27">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="28"/>
       <c r="AO11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AP11" s="26">
+      <c r="AP11" s="27">
         <v>0.97916599999999998</v>
       </c>
-      <c r="AQ11" s="27"/>
+      <c r="AQ11" s="28"/>
       <c r="AR11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AS11" s="26">
-        <v>1</v>
-      </c>
-      <c r="AT11" s="27"/>
+      <c r="AS11" s="27">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="28"/>
       <c r="AU11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AV11" s="26">
-        <v>1</v>
-      </c>
-      <c r="AW11" s="27"/>
+      <c r="AV11" s="27">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="28"/>
       <c r="AX11" s="2"/>
       <c r="AY11" s="2"/>
       <c r="AZ11" s="2"/>
@@ -2811,7 +2810,7 @@
       <c r="BW11" s="2"/>
     </row>
     <row r="12" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="12"/>
       <c r="C12" s="11"/>
       <c r="D12" s="13"/>
@@ -2948,7 +2947,7 @@
       <c r="BW12" s="2"/>
     </row>
     <row r="13" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="16"/>
       <c r="C13" s="17"/>
       <c r="D13" s="18"/>
@@ -3085,27 +3084,27 @@
       <c r="BW13" s="2"/>
     </row>
     <row r="14" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="14"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="23"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="30"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="23"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="30"/>
       <c r="N14" s="14"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="23"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="30"/>
       <c r="Q14" s="10"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="23"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="30"/>
       <c r="T14" s="14"/>
       <c r="U14" s="10"/>
       <c r="V14" s="15"/>
@@ -3115,59 +3114,59 @@
       <c r="Z14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA14" s="26">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="27"/>
+      <c r="AA14" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="28"/>
       <c r="AC14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AD14" s="26">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="27"/>
+      <c r="AD14" s="27">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="28"/>
       <c r="AF14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AG14" s="26">
-        <v>1</v>
-      </c>
-      <c r="AH14" s="27"/>
+      <c r="AG14" s="27">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="28"/>
       <c r="AI14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AJ14" s="26">
-        <v>1</v>
-      </c>
-      <c r="AK14" s="27"/>
+      <c r="AJ14" s="27">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="28"/>
       <c r="AL14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AM14" s="26">
-        <v>1</v>
-      </c>
-      <c r="AN14" s="27"/>
+      <c r="AM14" s="27">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="28"/>
       <c r="AO14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AP14" s="26">
-        <v>1</v>
-      </c>
-      <c r="AQ14" s="27"/>
+      <c r="AP14" s="27">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="28"/>
       <c r="AR14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AS14" s="26">
+      <c r="AS14" s="27">
         <v>0.925925</v>
       </c>
-      <c r="AT14" s="27"/>
+      <c r="AT14" s="28"/>
       <c r="AU14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AV14" s="26">
+      <c r="AV14" s="27">
         <v>0.89393900000000004</v>
       </c>
-      <c r="AW14" s="27"/>
+      <c r="AW14" s="28"/>
       <c r="AX14" s="2"/>
       <c r="AY14" s="2"/>
       <c r="AZ14" s="2"/>
@@ -3196,7 +3195,7 @@
       <c r="BW14" s="2"/>
     </row>
     <row r="15" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="12"/>
       <c r="C15" s="11"/>
       <c r="D15" s="13"/>
@@ -3321,7 +3320,7 @@
       <c r="BW15" s="2"/>
     </row>
     <row r="16" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="16"/>
       <c r="C16" s="17"/>
       <c r="D16" s="18"/>
@@ -3446,33 +3445,33 @@
       <c r="BW16" s="2"/>
     </row>
     <row r="17" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="14"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="23"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="30"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="23"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="30"/>
       <c r="N17" s="14"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="23"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="30"/>
       <c r="Q17" s="10"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="23"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="30"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="23"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="30"/>
       <c r="W17" s="10"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="23"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="30"/>
       <c r="Z17" s="14"/>
       <c r="AA17" s="10"/>
       <c r="AB17" s="15"/>
@@ -3482,45 +3481,45 @@
       <c r="AF17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AG17" s="26">
-        <v>0.98979499999999998</v>
-      </c>
-      <c r="AH17" s="27"/>
+      <c r="AG17" s="27">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="28"/>
       <c r="AI17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AJ17" s="26">
-        <v>0.99264699999999995</v>
-      </c>
-      <c r="AK17" s="27"/>
+      <c r="AJ17" s="27">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="28"/>
       <c r="AL17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AM17" s="26">
-        <v>0.83333299999999999</v>
-      </c>
-      <c r="AN17" s="27"/>
+      <c r="AM17" s="27">
+        <v>0.98333300000000001</v>
+      </c>
+      <c r="AN17" s="28"/>
       <c r="AO17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AP17" s="26">
-        <v>0.90476100000000004</v>
-      </c>
-      <c r="AQ17" s="27"/>
+      <c r="AP17" s="27">
+        <v>1</v>
+      </c>
+      <c r="AQ17" s="28"/>
       <c r="AR17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AS17" s="26">
-        <v>0.91666599999999998</v>
-      </c>
-      <c r="AT17" s="27"/>
+      <c r="AS17" s="27">
+        <v>0.97916599999999998</v>
+      </c>
+      <c r="AT17" s="28"/>
       <c r="AU17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AV17" s="26">
-        <v>0.84615300000000004</v>
-      </c>
-      <c r="AW17" s="27"/>
+      <c r="AV17" s="27">
+        <v>1</v>
+      </c>
+      <c r="AW17" s="28"/>
       <c r="AX17" s="2"/>
       <c r="AY17" s="2"/>
       <c r="AZ17" s="2"/>
@@ -3549,7 +3548,7 @@
       <c r="BW17" s="2"/>
     </row>
     <row r="18" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="12"/>
       <c r="C18" s="11"/>
       <c r="D18" s="13"/>
@@ -3662,7 +3661,7 @@
       <c r="BW18" s="2"/>
     </row>
     <row r="19" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="16"/>
       <c r="C19" s="17"/>
       <c r="D19" s="18"/>
@@ -3693,33 +3692,57 @@
       <c r="AC19" s="17"/>
       <c r="AD19" s="17"/>
       <c r="AE19" s="18"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="6"/>
+      <c r="AF19" s="5">
+        <v>39</v>
+      </c>
+      <c r="AG19" s="6">
+        <v>56</v>
+      </c>
       <c r="AH19" s="7">
+        <v>33</v>
+      </c>
+      <c r="AI19" s="6">
+        <v>24</v>
+      </c>
+      <c r="AJ19" s="6">
         <v>49</v>
       </c>
-      <c r="AI19" s="6"/>
-      <c r="AJ19" s="6"/>
       <c r="AK19" s="7">
         <v>68</v>
       </c>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="6"/>
+      <c r="AL19" s="5">
+        <v>38</v>
+      </c>
+      <c r="AM19" s="6">
+        <v>49</v>
+      </c>
       <c r="AN19" s="7">
         <v>30</v>
       </c>
-      <c r="AO19" s="6"/>
-      <c r="AP19" s="6"/>
+      <c r="AO19" s="6">
+        <v>38</v>
+      </c>
+      <c r="AP19" s="6">
+        <v>49</v>
+      </c>
       <c r="AQ19" s="7">
         <v>21</v>
       </c>
-      <c r="AR19" s="5"/>
-      <c r="AS19" s="6"/>
+      <c r="AR19" s="5">
+        <v>42</v>
+      </c>
+      <c r="AS19" s="6">
+        <v>49</v>
+      </c>
       <c r="AT19" s="7">
         <v>24</v>
       </c>
-      <c r="AU19" s="6"/>
-      <c r="AV19" s="6"/>
+      <c r="AU19" s="6">
+        <v>46</v>
+      </c>
+      <c r="AV19" s="6">
+        <v>49</v>
+      </c>
       <c r="AW19" s="7">
         <v>13</v>
       </c>
@@ -3751,39 +3774,39 @@
       <c r="BW19" s="2"/>
     </row>
     <row r="20" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="14"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="23"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="30"/>
       <c r="K20" s="10"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="23"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="30"/>
       <c r="N20" s="14"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="23"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="30"/>
       <c r="Q20" s="10"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="23"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="30"/>
       <c r="T20" s="14"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="23"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="30"/>
       <c r="W20" s="10"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="23"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="30"/>
       <c r="Z20" s="14"/>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="23"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="30"/>
       <c r="AC20" s="10"/>
-      <c r="AD20" s="22"/>
-      <c r="AE20" s="23"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="30"/>
       <c r="AF20" s="14"/>
       <c r="AG20" s="10"/>
       <c r="AH20" s="15"/>
@@ -3793,31 +3816,31 @@
       <c r="AL20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AM20" s="26">
-        <v>0.98979499999999998</v>
-      </c>
-      <c r="AN20" s="27"/>
+      <c r="AM20" s="27">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="28"/>
       <c r="AO20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AP20" s="26">
-        <v>0.98936100000000005</v>
-      </c>
-      <c r="AQ20" s="27"/>
+      <c r="AP20" s="27">
+        <v>1</v>
+      </c>
+      <c r="AQ20" s="28"/>
       <c r="AR20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AS20" s="26">
-        <v>0.96875</v>
-      </c>
-      <c r="AT20" s="27"/>
+      <c r="AS20" s="27">
+        <v>0.98958299999999999</v>
+      </c>
+      <c r="AT20" s="28"/>
       <c r="AU20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AV20" s="26">
-        <v>1</v>
-      </c>
-      <c r="AW20" s="27"/>
+      <c r="AV20" s="27">
+        <v>1</v>
+      </c>
+      <c r="AW20" s="28"/>
       <c r="AX20" s="2"/>
       <c r="AY20" s="2"/>
       <c r="AZ20" s="2"/>
@@ -3846,7 +3869,7 @@
       <c r="BW20" s="2"/>
     </row>
     <row r="21" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="12"/>
       <c r="C21" s="11"/>
       <c r="D21" s="13"/>
@@ -3947,7 +3970,7 @@
       <c r="BW21" s="2"/>
     </row>
     <row r="22" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
       <c r="D22" s="18"/>
@@ -3984,18 +4007,30 @@
       <c r="AI22" s="17"/>
       <c r="AJ22" s="17"/>
       <c r="AK22" s="18"/>
-      <c r="AL22" s="5"/>
-      <c r="AM22" s="6"/>
+      <c r="AL22" s="5">
+        <v>30</v>
+      </c>
+      <c r="AM22" s="6">
+        <v>49</v>
+      </c>
       <c r="AN22" s="7">
         <v>49</v>
       </c>
-      <c r="AO22" s="6"/>
-      <c r="AP22" s="6"/>
+      <c r="AO22" s="6">
+        <v>38</v>
+      </c>
+      <c r="AP22" s="6">
+        <v>49</v>
+      </c>
       <c r="AQ22" s="7">
         <v>47</v>
       </c>
-      <c r="AR22" s="5"/>
-      <c r="AS22" s="6"/>
+      <c r="AR22" s="5">
+        <v>31</v>
+      </c>
+      <c r="AS22" s="6">
+        <v>38</v>
+      </c>
       <c r="AT22" s="7">
         <v>48</v>
       </c>
@@ -4036,45 +4071,45 @@
       <c r="BW22" s="2"/>
     </row>
     <row r="23" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="14"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="10"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="23"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="30"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="23"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="30"/>
       <c r="N23" s="14"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="23"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="30"/>
       <c r="Q23" s="10"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="23"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="30"/>
       <c r="T23" s="14"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="23"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="30"/>
       <c r="W23" s="10"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="23"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="30"/>
       <c r="Z23" s="14"/>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="23"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="30"/>
       <c r="AC23" s="10"/>
-      <c r="AD23" s="22"/>
-      <c r="AE23" s="23"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="30"/>
       <c r="AF23" s="14"/>
-      <c r="AG23" s="22"/>
-      <c r="AH23" s="23"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="30"/>
       <c r="AI23" s="10"/>
-      <c r="AJ23" s="22"/>
-      <c r="AK23" s="23"/>
+      <c r="AJ23" s="29"/>
+      <c r="AK23" s="30"/>
       <c r="AL23" s="14"/>
       <c r="AM23" s="10"/>
       <c r="AN23" s="15"/>
@@ -4084,17 +4119,17 @@
       <c r="AR23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AS23" s="26">
-        <v>0.88235200000000003</v>
-      </c>
-      <c r="AT23" s="27"/>
+      <c r="AS23" s="27">
+        <v>0.97058800000000001</v>
+      </c>
+      <c r="AT23" s="28"/>
       <c r="AU23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AV23" s="26">
-        <v>0.77272700000000005</v>
-      </c>
-      <c r="AW23" s="27"/>
+      <c r="AV23" s="27">
+        <v>0.94117600000000001</v>
+      </c>
+      <c r="AW23" s="28"/>
       <c r="AX23" s="2"/>
       <c r="AY23" s="2"/>
       <c r="AZ23" s="2"/>
@@ -4123,7 +4158,7 @@
       <c r="BW23" s="2"/>
     </row>
     <row r="24" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="34"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="12"/>
       <c r="C24" s="11"/>
       <c r="D24" s="13"/>
@@ -4212,7 +4247,7 @@
       <c r="BW24" s="2"/>
     </row>
     <row r="25" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="18"/>
@@ -4255,13 +4290,21 @@
       <c r="AO25" s="17"/>
       <c r="AP25" s="17"/>
       <c r="AQ25" s="18"/>
-      <c r="AR25" s="5"/>
-      <c r="AS25" s="6"/>
+      <c r="AR25" s="5">
+        <v>41</v>
+      </c>
+      <c r="AS25" s="6">
+        <v>49</v>
+      </c>
       <c r="AT25" s="7">
         <v>17</v>
       </c>
-      <c r="AU25" s="6"/>
-      <c r="AV25" s="6"/>
+      <c r="AU25" s="6">
+        <v>40</v>
+      </c>
+      <c r="AV25" s="6">
+        <v>49</v>
+      </c>
       <c r="AW25" s="7">
         <v>22</v>
       </c>
@@ -4293,74 +4336,190 @@
       <c r="BW25" s="2"/>
     </row>
     <row r="27" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="24">
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="33">
         <f>AVERAGE(C2,F2,I2,L2,O2,R2,U2,X2,AA2,AD2,AG2,AJ2,AM2,AP2,AS2,AV2,I5,L5,O5,R5,U5,X5,AA5,AD5,AG5,AJ5,AM5,AP5,AS5,AV5,O8,R8,U8,X8,AA8,AD8,AG8,AJ8,AM8,AP8,AS8,AV8,U11,X11,AA11,AD11,AG11,AJ11,AM11,AP11,AS11,AV11,AA14,AD14,AG14,AJ14,AM14,AP14,AS14,AV14,AG17,AJ17,AM17,AP17,AS17,AV17,AM20,AP20,AS20,AV20,AS23,AV23)</f>
-        <v>0.97537273611111119</v>
-      </c>
-      <c r="G27" s="25"/>
-      <c r="K27" s="20" t="s">
+        <v>0.98617143055555567</v>
+      </c>
+      <c r="G27" s="34"/>
+      <c r="K27" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="24">
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="33">
         <v>0.938967</v>
       </c>
-      <c r="R27" s="25"/>
+      <c r="R27" s="34"/>
     </row>
     <row r="28" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="21">
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="36">
         <f>AVERAGE(B4,E4,H4,K4,N4,Q4,T4,W4,Z4,AC4,AF4,AI4,AL4,AO4,AR4,AU4,H7,K7,N7,Q7,T7,W7,Z7,AC7,AF7,AI7,AL7,AO7,AR7,AU7,N10,Q10,T10,W10,Z10,AC10,AF10,AI10,AL10,AO10,AR10,AU10,T13,W13,Z13,AC13,AF13,AI13,AL13,AO13,AR13,AU13,Z16,AC16,AF16,AI16,AL16,AO16,AR16,AU16,AF19,AI19,AL19,AO19,AR19,AU19,AL22,AO22,AR22,AU22,AR25,AU25)</f>
-        <v>32.950819672131146</v>
-      </c>
-      <c r="G28" s="21"/>
+        <v>33.569444444444443</v>
+      </c>
+      <c r="G28" s="36"/>
     </row>
     <row r="29" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21">
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="36">
         <f>AVERAGE(C4,F4,I4,L4,O4,R4,U4,X4,AA4,AD4,AG4,AJ4,AM4,AP4,AS4,AV4,I7,L7,O7,O10,R7,R10,U7,U10,U13,X7,X10,X13,AA7,AA10,AA13,AA16,AD7,AD10,AD13,AD16,AG7,AG10,AG13,AG16,AG19,AJ7,AJ10,AJ13,AJ16,AJ19,AM7,AM10,AM13,AM16,AM19,AM22,AP7,AP10,AP13,AP16,AP19,AP22,AS7,AS10,AS13,AS16,AS19,AS22,AS25,AV7,AV10,AV13,AV16,AV19,AV25)</f>
-        <v>41.55</v>
-      </c>
-      <c r="G29" s="21"/>
+        <v>42.647887323943664</v>
+      </c>
+      <c r="G29" s="36"/>
     </row>
     <row r="30" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="21">
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="36">
         <f>AVERAGE(D4,G4,J4,J7,M4,M7,P4,P7,P10,S4,S7,S10,V4,V7,V10,V13,Y4,Y7,Y10,Y13,AB4,AB7,AB10,AB13,AB16,AE4,AE7,AE10,AE13,AE16,AH4,AH7,AH10,AH13,AH16,AH19,AK4,AK7,AK10,AK13,AK16,AK19,AN4,AN7,AN10,AN13,AN16,AN19,AN22,AQ4,AQ7,AQ10,AQ13,AQ16,AQ19,AQ22,AT4,AT7,AT10,AT13,AT16,AT19,AT22,AT25,AW4,AW7,AW10,AW13,AW16,AW19,AW22,AW25)</f>
-        <v>42.75</v>
-      </c>
-      <c r="G30" s="21"/>
+        <v>42.527777777777779</v>
+      </c>
+      <c r="G30" s="36"/>
     </row>
     <row r="39" spans="47:47" x14ac:dyDescent="0.2">
-      <c r="AU39" s="36"/>
+      <c r="AU39" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="AS23:AT23"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AJ23:AK23"/>
+    <mergeCell ref="AM20:AN20"/>
+    <mergeCell ref="AP20:AQ20"/>
+    <mergeCell ref="AS20:AT20"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AM14:AN14"/>
+    <mergeCell ref="AP14:AQ14"/>
+    <mergeCell ref="AS14:AT14"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AJ14:AK14"/>
+    <mergeCell ref="AM17:AN17"/>
+    <mergeCell ref="AP17:AQ17"/>
+    <mergeCell ref="AS17:AT17"/>
+    <mergeCell ref="AV17:AW17"/>
+    <mergeCell ref="AJ17:AK17"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="AP8:AQ8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="AM11:AN11"/>
+    <mergeCell ref="AP11:AQ11"/>
+    <mergeCell ref="AS11:AT11"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AJ11:AK11"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AP5:AQ5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AV5:AW5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AL1:AQ1"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR1:AW1"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AJ2:AK2"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="T1:Y1"/>
@@ -4385,122 +4544,6 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="F14:G14"/>
-    <mergeCell ref="AL1:AQ1"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR1:AW1"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="Z1:AE1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AP5:AQ5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AV5:AW5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="AM11:AN11"/>
-    <mergeCell ref="AP11:AQ11"/>
-    <mergeCell ref="AS11:AT11"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AJ11:AK11"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AP8:AQ8"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AM14:AN14"/>
-    <mergeCell ref="AP14:AQ14"/>
-    <mergeCell ref="AS14:AT14"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AJ14:AK14"/>
-    <mergeCell ref="AM17:AN17"/>
-    <mergeCell ref="AP17:AQ17"/>
-    <mergeCell ref="AS17:AT17"/>
-    <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="AJ17:AK17"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="AM20:AN20"/>
-    <mergeCell ref="AP20:AQ20"/>
-    <mergeCell ref="AS20:AT20"/>
-    <mergeCell ref="AV20:AW20"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="AS23:AT23"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AJ23:AK23"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:G27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="AX2:XFD2 A2:AE2">

--- a/Efectividades.xlsx
+++ b/Efectividades.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfc_2\Documents\Git\Clasificador-Bayesiano\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9DCE23-3C42-47FC-B317-19CED41E8954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9DB176-D07E-4365-824F-8EC429B1A32A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="1425" windowWidth="12510" windowHeight="7875" xr2:uid="{6DF6BAD8-DCEE-4FDF-B5FC-1870D868E7E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{6DF6BAD8-DCEE-4FDF-B5FC-1870D868E7E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="K-Fold" sheetId="2" r:id="rId2"/>
+    <sheet name="Validación cruzada" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="19">
   <si>
     <t>Sujeto 1</t>
   </si>
@@ -309,7 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -371,13 +373,55 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -389,34 +433,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -424,7 +447,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="55">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1267,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAF7C7A-82F5-4FDE-94EB-09394C898A3F}">
   <dimension ref="A1:BW39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1280,70 +1323,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="24" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="24" t="s">
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="24" t="s">
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="24" t="s">
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="24" t="s">
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="24" t="s">
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="24" t="s">
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39"/>
+      <c r="AP1" s="39"/>
+      <c r="AQ1" s="40"/>
+      <c r="AR1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="26"/>
+      <c r="AS1" s="39"/>
+      <c r="AT1" s="39"/>
+      <c r="AU1" s="39"/>
+      <c r="AV1" s="39"/>
+      <c r="AW1" s="40"/>
       <c r="AX1" s="2"/>
       <c r="AY1" s="2"/>
       <c r="AZ1" s="2"/>
@@ -1372,124 +1415,124 @@
       <c r="BW1" s="2"/>
     </row>
     <row r="2" spans="1:75" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="34">
         <v>0.985294</v>
       </c>
-      <c r="D2" s="28"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="34">
         <v>0.98584899999999998</v>
       </c>
-      <c r="G2" s="28"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="27">
+      <c r="I2" s="34">
         <v>1</v>
       </c>
-      <c r="J2" s="28"/>
+      <c r="J2" s="35"/>
       <c r="K2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="27">
+      <c r="L2" s="34">
         <v>1</v>
       </c>
-      <c r="M2" s="28"/>
+      <c r="M2" s="35"/>
       <c r="N2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="27">
+      <c r="O2" s="34">
         <v>1</v>
       </c>
-      <c r="P2" s="28"/>
+      <c r="P2" s="35"/>
       <c r="Q2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="27">
+      <c r="R2" s="34">
         <v>1</v>
       </c>
-      <c r="S2" s="28"/>
+      <c r="S2" s="35"/>
       <c r="T2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="27">
+      <c r="U2" s="34">
         <v>1</v>
       </c>
-      <c r="V2" s="28"/>
+      <c r="V2" s="35"/>
       <c r="W2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="27">
+      <c r="X2" s="34">
         <v>1</v>
       </c>
-      <c r="Y2" s="28"/>
+      <c r="Y2" s="35"/>
       <c r="Z2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="27">
+      <c r="AA2" s="34">
         <v>0.97959099999999999</v>
       </c>
-      <c r="AB2" s="28"/>
+      <c r="AB2" s="35"/>
       <c r="AC2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="27">
+      <c r="AD2" s="34">
         <v>0.95918300000000001</v>
       </c>
-      <c r="AE2" s="28"/>
+      <c r="AE2" s="35"/>
       <c r="AF2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AG2" s="27">
+      <c r="AG2" s="34">
         <v>1</v>
       </c>
-      <c r="AH2" s="28"/>
+      <c r="AH2" s="35"/>
       <c r="AI2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="27">
+      <c r="AJ2" s="34">
         <v>1</v>
       </c>
-      <c r="AK2" s="28"/>
+      <c r="AK2" s="35"/>
       <c r="AL2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AM2" s="27">
+      <c r="AM2" s="34">
         <v>0.98648599999999997</v>
       </c>
-      <c r="AN2" s="28"/>
+      <c r="AN2" s="35"/>
       <c r="AO2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AP2" s="27">
+      <c r="AP2" s="34">
         <v>1</v>
       </c>
-      <c r="AQ2" s="28"/>
+      <c r="AQ2" s="35"/>
       <c r="AR2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AS2" s="27">
+      <c r="AS2" s="34">
         <v>1</v>
       </c>
-      <c r="AT2" s="28"/>
+      <c r="AT2" s="35"/>
       <c r="AU2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AV2" s="27">
+      <c r="AV2" s="34">
         <v>1</v>
       </c>
-      <c r="AW2" s="28"/>
+      <c r="AW2" s="35"/>
     </row>
     <row r="3" spans="1:75" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
@@ -1636,7 +1679,7 @@
       </c>
     </row>
     <row r="4" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="5">
         <v>27</v>
       </c>
@@ -1809,7 +1852,7 @@
       <c r="BW4" s="2"/>
     </row>
     <row r="5" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="41" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="14"/>
@@ -1821,101 +1864,101 @@
       <c r="H5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="34">
         <v>1</v>
       </c>
-      <c r="J5" s="28"/>
+      <c r="J5" s="35"/>
       <c r="K5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="27">
+      <c r="L5" s="34">
         <v>1</v>
       </c>
-      <c r="M5" s="28"/>
+      <c r="M5" s="35"/>
       <c r="N5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="27">
+      <c r="O5" s="34">
         <v>1</v>
       </c>
-      <c r="P5" s="28"/>
+      <c r="P5" s="35"/>
       <c r="Q5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R5" s="27">
+      <c r="R5" s="34">
         <v>1</v>
       </c>
-      <c r="S5" s="28"/>
+      <c r="S5" s="35"/>
       <c r="T5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="U5" s="27">
+      <c r="U5" s="34">
         <v>0.78662399999999999</v>
       </c>
-      <c r="V5" s="28"/>
+      <c r="V5" s="35"/>
       <c r="W5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="X5" s="27">
+      <c r="X5" s="34">
         <v>1</v>
       </c>
-      <c r="Y5" s="28"/>
+      <c r="Y5" s="35"/>
       <c r="Z5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA5" s="27">
+      <c r="AA5" s="34">
         <v>0.95</v>
       </c>
-      <c r="AB5" s="28"/>
+      <c r="AB5" s="35"/>
       <c r="AC5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AD5" s="27">
+      <c r="AD5" s="34">
         <v>0.88561999999999996</v>
       </c>
-      <c r="AE5" s="28"/>
+      <c r="AE5" s="35"/>
       <c r="AF5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AG5" s="27">
+      <c r="AG5" s="34">
         <v>1</v>
       </c>
-      <c r="AH5" s="28"/>
+      <c r="AH5" s="35"/>
       <c r="AI5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AJ5" s="27">
+      <c r="AJ5" s="34">
         <v>1</v>
       </c>
-      <c r="AK5" s="28"/>
+      <c r="AK5" s="35"/>
       <c r="AL5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AM5" s="27">
+      <c r="AM5" s="34">
         <v>1</v>
       </c>
-      <c r="AN5" s="28"/>
+      <c r="AN5" s="35"/>
       <c r="AO5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AP5" s="27">
+      <c r="AP5" s="34">
         <v>0.96078399999999997</v>
       </c>
-      <c r="AQ5" s="28"/>
+      <c r="AQ5" s="35"/>
       <c r="AR5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AS5" s="27">
+      <c r="AS5" s="34">
         <v>0.96</v>
       </c>
-      <c r="AT5" s="28"/>
+      <c r="AT5" s="35"/>
       <c r="AU5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AV5" s="27">
+      <c r="AV5" s="34">
         <v>1</v>
       </c>
-      <c r="AW5" s="28"/>
+      <c r="AW5" s="35"/>
       <c r="AX5" s="2"/>
       <c r="AY5" s="2"/>
       <c r="AZ5" s="2"/>
@@ -1944,7 +1987,7 @@
       <c r="BW5" s="2"/>
     </row>
     <row r="6" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="12"/>
       <c r="C6" s="11"/>
       <c r="D6" s="13"/>
@@ -2105,7 +2148,7 @@
       <c r="BW6" s="2"/>
     </row>
     <row r="7" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
@@ -2266,15 +2309,15 @@
       <c r="BW7" s="2"/>
     </row>
     <row r="8" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="41" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="14"/>
       <c r="I8" s="10"/>
       <c r="J8" s="15"/>
@@ -2284,87 +2327,87 @@
       <c r="N8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="27">
+      <c r="O8" s="34">
         <v>1</v>
       </c>
-      <c r="P8" s="28"/>
+      <c r="P8" s="35"/>
       <c r="Q8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="27">
+      <c r="R8" s="34">
         <v>0.98979499999999998</v>
       </c>
-      <c r="S8" s="28"/>
+      <c r="S8" s="35"/>
       <c r="T8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="U8" s="27">
+      <c r="U8" s="34">
         <v>0.99557499999999999</v>
       </c>
-      <c r="V8" s="28"/>
+      <c r="V8" s="35"/>
       <c r="W8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="X8" s="27">
+      <c r="X8" s="34">
         <v>1</v>
       </c>
-      <c r="Y8" s="28"/>
+      <c r="Y8" s="35"/>
       <c r="Z8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA8" s="27">
+      <c r="AA8" s="34">
         <v>1</v>
       </c>
-      <c r="AB8" s="28"/>
+      <c r="AB8" s="35"/>
       <c r="AC8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AD8" s="27">
+      <c r="AD8" s="34">
         <v>1</v>
       </c>
-      <c r="AE8" s="28"/>
+      <c r="AE8" s="35"/>
       <c r="AF8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AG8" s="27">
+      <c r="AG8" s="34">
         <v>1</v>
       </c>
-      <c r="AH8" s="28"/>
+      <c r="AH8" s="35"/>
       <c r="AI8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AJ8" s="27">
+      <c r="AJ8" s="34">
         <v>1</v>
       </c>
-      <c r="AK8" s="28"/>
+      <c r="AK8" s="35"/>
       <c r="AL8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AM8" s="27">
+      <c r="AM8" s="34">
         <v>1</v>
       </c>
-      <c r="AN8" s="28"/>
+      <c r="AN8" s="35"/>
       <c r="AO8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AP8" s="27">
+      <c r="AP8" s="34">
         <v>1</v>
       </c>
-      <c r="AQ8" s="28"/>
+      <c r="AQ8" s="35"/>
       <c r="AR8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AS8" s="27">
+      <c r="AS8" s="34">
         <v>1</v>
       </c>
-      <c r="AT8" s="28"/>
+      <c r="AT8" s="35"/>
       <c r="AU8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AV8" s="27">
+      <c r="AV8" s="34">
         <v>1</v>
       </c>
-      <c r="AW8" s="28"/>
+      <c r="AW8" s="35"/>
       <c r="AX8" s="2"/>
       <c r="AY8" s="2"/>
       <c r="AZ8" s="2"/>
@@ -2393,7 +2436,7 @@
       <c r="BW8" s="2"/>
     </row>
     <row r="9" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="12"/>
       <c r="C9" s="11"/>
       <c r="D9" s="13"/>
@@ -2542,7 +2585,7 @@
       <c r="BW9" s="2"/>
     </row>
     <row r="10" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="16"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
@@ -2691,21 +2734,21 @@
       <c r="BW10" s="2"/>
     </row>
     <row r="11" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="41" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="31"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
       <c r="N11" s="14"/>
       <c r="O11" s="10"/>
       <c r="P11" s="15"/>
@@ -2715,73 +2758,73 @@
       <c r="T11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="U11" s="27">
+      <c r="U11" s="34">
         <v>1</v>
       </c>
-      <c r="V11" s="28"/>
+      <c r="V11" s="35"/>
       <c r="W11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="X11" s="27">
+      <c r="X11" s="34">
         <v>0.91666599999999998</v>
       </c>
-      <c r="Y11" s="28"/>
+      <c r="Y11" s="35"/>
       <c r="Z11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA11" s="27">
+      <c r="AA11" s="34">
         <v>1</v>
       </c>
-      <c r="AB11" s="28"/>
+      <c r="AB11" s="35"/>
       <c r="AC11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AD11" s="27">
+      <c r="AD11" s="34">
         <v>1</v>
       </c>
-      <c r="AE11" s="28"/>
+      <c r="AE11" s="35"/>
       <c r="AF11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AG11" s="27">
+      <c r="AG11" s="34">
         <v>1</v>
       </c>
-      <c r="AH11" s="28"/>
+      <c r="AH11" s="35"/>
       <c r="AI11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AJ11" s="27">
+      <c r="AJ11" s="34">
         <v>1</v>
       </c>
-      <c r="AK11" s="28"/>
+      <c r="AK11" s="35"/>
       <c r="AL11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AM11" s="27">
+      <c r="AM11" s="34">
         <v>1</v>
       </c>
-      <c r="AN11" s="28"/>
+      <c r="AN11" s="35"/>
       <c r="AO11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AP11" s="27">
+      <c r="AP11" s="34">
         <v>0.97916599999999998</v>
       </c>
-      <c r="AQ11" s="28"/>
+      <c r="AQ11" s="35"/>
       <c r="AR11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AS11" s="27">
+      <c r="AS11" s="34">
         <v>1</v>
       </c>
-      <c r="AT11" s="28"/>
+      <c r="AT11" s="35"/>
       <c r="AU11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AV11" s="27">
+      <c r="AV11" s="34">
         <v>1</v>
       </c>
-      <c r="AW11" s="28"/>
+      <c r="AW11" s="35"/>
       <c r="AX11" s="2"/>
       <c r="AY11" s="2"/>
       <c r="AZ11" s="2"/>
@@ -2810,7 +2853,7 @@
       <c r="BW11" s="2"/>
     </row>
     <row r="12" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="12"/>
       <c r="C12" s="11"/>
       <c r="D12" s="13"/>
@@ -2947,7 +2990,7 @@
       <c r="BW12" s="2"/>
     </row>
     <row r="13" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="16"/>
       <c r="C13" s="17"/>
       <c r="D13" s="18"/>
@@ -3084,27 +3127,27 @@
       <c r="BW13" s="2"/>
     </row>
     <row r="14" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="14"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="31"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="31"/>
       <c r="N14" s="14"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="31"/>
       <c r="Q14" s="10"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="31"/>
       <c r="T14" s="14"/>
       <c r="U14" s="10"/>
       <c r="V14" s="15"/>
@@ -3114,59 +3157,59 @@
       <c r="Z14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA14" s="27">
+      <c r="AA14" s="34">
         <v>1</v>
       </c>
-      <c r="AB14" s="28"/>
+      <c r="AB14" s="35"/>
       <c r="AC14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AD14" s="27">
+      <c r="AD14" s="34">
         <v>1</v>
       </c>
-      <c r="AE14" s="28"/>
+      <c r="AE14" s="35"/>
       <c r="AF14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AG14" s="27">
+      <c r="AG14" s="34">
         <v>1</v>
       </c>
-      <c r="AH14" s="28"/>
+      <c r="AH14" s="35"/>
       <c r="AI14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AJ14" s="27">
+      <c r="AJ14" s="34">
         <v>1</v>
       </c>
-      <c r="AK14" s="28"/>
+      <c r="AK14" s="35"/>
       <c r="AL14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AM14" s="27">
+      <c r="AM14" s="34">
         <v>1</v>
       </c>
-      <c r="AN14" s="28"/>
+      <c r="AN14" s="35"/>
       <c r="AO14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AP14" s="27">
+      <c r="AP14" s="34">
         <v>1</v>
       </c>
-      <c r="AQ14" s="28"/>
+      <c r="AQ14" s="35"/>
       <c r="AR14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AS14" s="27">
+      <c r="AS14" s="34">
         <v>0.925925</v>
       </c>
-      <c r="AT14" s="28"/>
+      <c r="AT14" s="35"/>
       <c r="AU14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AV14" s="27">
+      <c r="AV14" s="34">
         <v>0.89393900000000004</v>
       </c>
-      <c r="AW14" s="28"/>
+      <c r="AW14" s="35"/>
       <c r="AX14" s="2"/>
       <c r="AY14" s="2"/>
       <c r="AZ14" s="2"/>
@@ -3195,7 +3238,7 @@
       <c r="BW14" s="2"/>
     </row>
     <row r="15" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="12"/>
       <c r="C15" s="11"/>
       <c r="D15" s="13"/>
@@ -3320,7 +3363,7 @@
       <c r="BW15" s="2"/>
     </row>
     <row r="16" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="16"/>
       <c r="C16" s="17"/>
       <c r="D16" s="18"/>
@@ -3445,33 +3488,33 @@
       <c r="BW16" s="2"/>
     </row>
     <row r="17" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="41" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="14"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="31"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="31"/>
       <c r="N17" s="14"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="31"/>
       <c r="Q17" s="10"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="31"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="31"/>
       <c r="W17" s="10"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="31"/>
       <c r="Z17" s="14"/>
       <c r="AA17" s="10"/>
       <c r="AB17" s="15"/>
@@ -3481,45 +3524,45 @@
       <c r="AF17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AG17" s="27">
+      <c r="AG17" s="34">
         <v>1</v>
       </c>
-      <c r="AH17" s="28"/>
+      <c r="AH17" s="35"/>
       <c r="AI17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AJ17" s="27">
+      <c r="AJ17" s="34">
         <v>1</v>
       </c>
-      <c r="AK17" s="28"/>
+      <c r="AK17" s="35"/>
       <c r="AL17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AM17" s="27">
+      <c r="AM17" s="34">
         <v>0.98333300000000001</v>
       </c>
-      <c r="AN17" s="28"/>
+      <c r="AN17" s="35"/>
       <c r="AO17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AP17" s="27">
+      <c r="AP17" s="34">
         <v>1</v>
       </c>
-      <c r="AQ17" s="28"/>
+      <c r="AQ17" s="35"/>
       <c r="AR17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AS17" s="27">
+      <c r="AS17" s="34">
         <v>0.97916599999999998</v>
       </c>
-      <c r="AT17" s="28"/>
+      <c r="AT17" s="35"/>
       <c r="AU17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AV17" s="27">
+      <c r="AV17" s="34">
         <v>1</v>
       </c>
-      <c r="AW17" s="28"/>
+      <c r="AW17" s="35"/>
       <c r="AX17" s="2"/>
       <c r="AY17" s="2"/>
       <c r="AZ17" s="2"/>
@@ -3548,7 +3591,7 @@
       <c r="BW17" s="2"/>
     </row>
     <row r="18" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="12"/>
       <c r="C18" s="11"/>
       <c r="D18" s="13"/>
@@ -3661,7 +3704,7 @@
       <c r="BW18" s="2"/>
     </row>
     <row r="19" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="16"/>
       <c r="C19" s="17"/>
       <c r="D19" s="18"/>
@@ -3774,39 +3817,39 @@
       <c r="BW19" s="2"/>
     </row>
     <row r="20" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="41" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="14"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="31"/>
       <c r="K20" s="10"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="31"/>
       <c r="N20" s="14"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="31"/>
       <c r="Q20" s="10"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="31"/>
       <c r="T20" s="14"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="31"/>
       <c r="W20" s="10"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="31"/>
       <c r="Z20" s="14"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="31"/>
       <c r="AC20" s="10"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="31"/>
       <c r="AF20" s="14"/>
       <c r="AG20" s="10"/>
       <c r="AH20" s="15"/>
@@ -3816,31 +3859,31 @@
       <c r="AL20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AM20" s="27">
+      <c r="AM20" s="34">
         <v>1</v>
       </c>
-      <c r="AN20" s="28"/>
+      <c r="AN20" s="35"/>
       <c r="AO20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AP20" s="27">
+      <c r="AP20" s="34">
         <v>1</v>
       </c>
-      <c r="AQ20" s="28"/>
+      <c r="AQ20" s="35"/>
       <c r="AR20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AS20" s="27">
+      <c r="AS20" s="34">
         <v>0.98958299999999999</v>
       </c>
-      <c r="AT20" s="28"/>
+      <c r="AT20" s="35"/>
       <c r="AU20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AV20" s="27">
+      <c r="AV20" s="34">
         <v>1</v>
       </c>
-      <c r="AW20" s="28"/>
+      <c r="AW20" s="35"/>
       <c r="AX20" s="2"/>
       <c r="AY20" s="2"/>
       <c r="AZ20" s="2"/>
@@ -3869,7 +3912,7 @@
       <c r="BW20" s="2"/>
     </row>
     <row r="21" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="12"/>
       <c r="C21" s="11"/>
       <c r="D21" s="13"/>
@@ -3970,7 +4013,7 @@
       <c r="BW21" s="2"/>
     </row>
     <row r="22" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
       <c r="D22" s="18"/>
@@ -4071,45 +4114,45 @@
       <c r="BW22" s="2"/>
     </row>
     <row r="23" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="41" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="14"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="10"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="31"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="31"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="31"/>
       <c r="N23" s="14"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="31"/>
       <c r="Q23" s="10"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="31"/>
       <c r="T23" s="14"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="31"/>
       <c r="W23" s="10"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="31"/>
       <c r="Z23" s="14"/>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="31"/>
       <c r="AC23" s="10"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="31"/>
       <c r="AF23" s="14"/>
-      <c r="AG23" s="29"/>
-      <c r="AH23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="31"/>
       <c r="AI23" s="10"/>
-      <c r="AJ23" s="29"/>
-      <c r="AK23" s="30"/>
+      <c r="AJ23" s="30"/>
+      <c r="AK23" s="31"/>
       <c r="AL23" s="14"/>
       <c r="AM23" s="10"/>
       <c r="AN23" s="15"/>
@@ -4119,17 +4162,17 @@
       <c r="AR23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AS23" s="27">
+      <c r="AS23" s="34">
         <v>0.97058800000000001</v>
       </c>
-      <c r="AT23" s="28"/>
+      <c r="AT23" s="35"/>
       <c r="AU23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AV23" s="27">
+      <c r="AV23" s="34">
         <v>0.94117600000000001</v>
       </c>
-      <c r="AW23" s="28"/>
+      <c r="AW23" s="35"/>
       <c r="AX23" s="2"/>
       <c r="AY23" s="2"/>
       <c r="AZ23" s="2"/>
@@ -4158,7 +4201,7 @@
       <c r="BW23" s="2"/>
     </row>
     <row r="24" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="12"/>
       <c r="C24" s="11"/>
       <c r="D24" s="13"/>
@@ -4247,7 +4290,7 @@
       <c r="BW24" s="2"/>
     </row>
     <row r="25" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="18"/>
@@ -4336,114 +4379,150 @@
       <c r="BW25" s="2"/>
     </row>
     <row r="27" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="33">
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="32">
         <f>AVERAGE(C2,F2,I2,L2,O2,R2,U2,X2,AA2,AD2,AG2,AJ2,AM2,AP2,AS2,AV2,I5,L5,O5,R5,U5,X5,AA5,AD5,AG5,AJ5,AM5,AP5,AS5,AV5,O8,R8,U8,X8,AA8,AD8,AG8,AJ8,AM8,AP8,AS8,AV8,U11,X11,AA11,AD11,AG11,AJ11,AM11,AP11,AS11,AV11,AA14,AD14,AG14,AJ14,AM14,AP14,AS14,AV14,AG17,AJ17,AM17,AP17,AS17,AV17,AM20,AP20,AS20,AV20,AS23,AV23)</f>
         <v>0.98617143055555567</v>
       </c>
-      <c r="G27" s="34"/>
-      <c r="K27" s="35" t="s">
+      <c r="G27" s="33"/>
+      <c r="K27" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="33">
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="32">
         <v>0.938967</v>
       </c>
-      <c r="R27" s="34"/>
+      <c r="R27" s="33"/>
     </row>
     <row r="28" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="36">
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29">
         <f>AVERAGE(B4,E4,H4,K4,N4,Q4,T4,W4,Z4,AC4,AF4,AI4,AL4,AO4,AR4,AU4,H7,K7,N7,Q7,T7,W7,Z7,AC7,AF7,AI7,AL7,AO7,AR7,AU7,N10,Q10,T10,W10,Z10,AC10,AF10,AI10,AL10,AO10,AR10,AU10,T13,W13,Z13,AC13,AF13,AI13,AL13,AO13,AR13,AU13,Z16,AC16,AF16,AI16,AL16,AO16,AR16,AU16,AF19,AI19,AL19,AO19,AR19,AU19,AL22,AO22,AR22,AU22,AR25,AU25)</f>
         <v>33.569444444444443</v>
       </c>
-      <c r="G28" s="36"/>
+      <c r="G28" s="29"/>
     </row>
     <row r="29" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="36">
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="29">
         <f>AVERAGE(C4,F4,I4,L4,O4,R4,U4,X4,AA4,AD4,AG4,AJ4,AM4,AP4,AS4,AV4,I7,L7,O7,O10,R7,R10,U7,U10,U13,X7,X10,X13,AA7,AA10,AA13,AA16,AD7,AD10,AD13,AD16,AG7,AG10,AG13,AG16,AG19,AJ7,AJ10,AJ13,AJ16,AJ19,AM7,AM10,AM13,AM16,AM19,AM22,AP7,AP10,AP13,AP16,AP19,AP22,AS7,AS10,AS13,AS16,AS19,AS22,AS25,AV7,AV10,AV13,AV16,AV19,AV25)</f>
         <v>42.647887323943664</v>
       </c>
-      <c r="G29" s="36"/>
+      <c r="G29" s="29"/>
     </row>
     <row r="30" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="36">
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="29">
         <f>AVERAGE(D4,G4,J4,J7,M4,M7,P4,P7,P10,S4,S7,S10,V4,V7,V10,V13,Y4,Y7,Y10,Y13,AB4,AB7,AB10,AB13,AB16,AE4,AE7,AE10,AE13,AE16,AH4,AH7,AH10,AH13,AH16,AH19,AK4,AK7,AK10,AK13,AK16,AK19,AN4,AN7,AN10,AN13,AN16,AN19,AN22,AQ4,AQ7,AQ10,AQ13,AQ16,AQ19,AQ22,AT4,AT7,AT10,AT13,AT16,AT19,AT22,AT25,AW4,AW7,AW10,AW13,AW16,AW19,AW22,AW25)</f>
         <v>42.527777777777779</v>
       </c>
-      <c r="G30" s="36"/>
+      <c r="G30" s="29"/>
     </row>
     <row r="39" spans="47:47" x14ac:dyDescent="0.2">
       <c r="AU39" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="140">
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="AS23:AT23"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AJ23:AK23"/>
-    <mergeCell ref="AM20:AN20"/>
-    <mergeCell ref="AP20:AQ20"/>
-    <mergeCell ref="AS20:AT20"/>
-    <mergeCell ref="AV20:AW20"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="T1:Y1"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="AL1:AQ1"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR1:AW1"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AP5:AQ5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AV5:AW5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="AM11:AN11"/>
+    <mergeCell ref="AP11:AQ11"/>
+    <mergeCell ref="AS11:AT11"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AJ11:AK11"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="AP8:AQ8"/>
     <mergeCell ref="U17:V17"/>
     <mergeCell ref="X17:Y17"/>
     <mergeCell ref="AG17:AH17"/>
@@ -4468,345 +4547,4511 @@
     <mergeCell ref="AJ17:AK17"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="L14:M14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AP8:AQ8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="AM11:AN11"/>
-    <mergeCell ref="AP11:AQ11"/>
-    <mergeCell ref="AS11:AT11"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AJ11:AK11"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AP5:AQ5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AV5:AW5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AL1:AQ1"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR1:AW1"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="Z1:AE1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AM20:AN20"/>
+    <mergeCell ref="AP20:AQ20"/>
+    <mergeCell ref="AS20:AT20"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="AS23:AT23"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AJ23:AK23"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:G27"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="AX2:XFD2 A2:AE2">
+    <cfRule type="cellIs" dxfId="54" priority="84" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF2:AK2">
+    <cfRule type="cellIs" dxfId="53" priority="83" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL2:AQ2">
+    <cfRule type="cellIs" dxfId="52" priority="82" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR2:AW2">
+    <cfRule type="cellIs" dxfId="51" priority="81" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:M5">
+    <cfRule type="cellIs" dxfId="50" priority="79" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5:S5">
+    <cfRule type="cellIs" dxfId="49" priority="78" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T5:Y5">
+    <cfRule type="cellIs" dxfId="48" priority="77" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z5:AE5">
+    <cfRule type="cellIs" dxfId="47" priority="76" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF5:AK5">
+    <cfRule type="cellIs" dxfId="46" priority="75" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL5:AQ5">
+    <cfRule type="cellIs" dxfId="45" priority="74" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR5:AW5">
+    <cfRule type="cellIs" dxfId="44" priority="73" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:G8">
+    <cfRule type="cellIs" dxfId="43" priority="72" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8:S8">
+    <cfRule type="cellIs" dxfId="42" priority="70" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T8:Y8">
+    <cfRule type="cellIs" dxfId="41" priority="69" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z8:AE8">
+    <cfRule type="cellIs" dxfId="40" priority="68" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF8:AK8">
+    <cfRule type="cellIs" dxfId="39" priority="67" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL8:AQ8">
+    <cfRule type="cellIs" dxfId="38" priority="66" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR8:AW8">
+    <cfRule type="cellIs" dxfId="37" priority="65" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:G11">
+    <cfRule type="cellIs" dxfId="36" priority="64" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:M14">
+    <cfRule type="cellIs" dxfId="35" priority="55" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T11:Y11">
+    <cfRule type="cellIs" dxfId="34" priority="61" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z11:AE11">
+    <cfRule type="cellIs" dxfId="33" priority="60" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF11:AK11">
+    <cfRule type="cellIs" dxfId="32" priority="59" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL11:AQ11">
+    <cfRule type="cellIs" dxfId="31" priority="58" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR11:AW11">
+    <cfRule type="cellIs" dxfId="30" priority="57" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:G14">
+    <cfRule type="cellIs" dxfId="29" priority="56" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z14:AE14">
+    <cfRule type="cellIs" dxfId="28" priority="52" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF14:AK14">
+    <cfRule type="cellIs" dxfId="27" priority="51" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL14:AQ14">
+    <cfRule type="cellIs" dxfId="26" priority="50" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR14:AW14">
+    <cfRule type="cellIs" dxfId="25" priority="49" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:G17">
+    <cfRule type="cellIs" dxfId="24" priority="48" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:M17">
+    <cfRule type="cellIs" dxfId="23" priority="47" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17:S17">
+    <cfRule type="cellIs" dxfId="22" priority="46" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL17:AQ17">
+    <cfRule type="cellIs" dxfId="21" priority="42" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF17:AK17">
+    <cfRule type="cellIs" dxfId="20" priority="43" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR17:AW17">
+    <cfRule type="cellIs" dxfId="19" priority="41" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:G20">
+    <cfRule type="cellIs" dxfId="18" priority="40" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:M20">
+    <cfRule type="cellIs" dxfId="17" priority="39" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N20:S20">
+    <cfRule type="cellIs" dxfId="16" priority="38" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T20:Y20">
+    <cfRule type="cellIs" dxfId="15" priority="37" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:G23">
+    <cfRule type="cellIs" dxfId="14" priority="32" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR20:AW20">
+    <cfRule type="cellIs" dxfId="13" priority="33" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23:M23">
+    <cfRule type="cellIs" dxfId="12" priority="31" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N23:S23">
+    <cfRule type="cellIs" dxfId="11" priority="30" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T23:Y23">
+    <cfRule type="cellIs" dxfId="10" priority="29" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z23:AE23">
+    <cfRule type="cellIs" dxfId="9" priority="28" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL20:AQ20">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR23:AW23">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF23:AK23">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z20:AE20">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T17:Y17">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14:S14">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:M11">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34A7FC4-4A22-4356-9923-FD64DF263193}">
+  <dimension ref="A1:BG38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" style="4" customWidth="1"/>
+    <col min="2" max="33" width="7" style="3" customWidth="1"/>
+    <col min="34" max="46" width="4.7109375" style="3" customWidth="1"/>
+    <col min="47" max="59" width="11.42578125" style="3"/>
+    <col min="60" max="16384" width="11.42578125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+    </row>
+    <row r="2" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="26">
+        <v>0.95330000000000004</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="27">
+        <v>0.95</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="26">
+        <v>0.99285699999999999</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="27">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="26">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="27">
+        <v>0.95935000000000004</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="26">
+        <v>0.96</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="27">
+        <v>0.9375</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="26">
+        <v>0.99285699999999999</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="27">
+        <v>0.99660000000000004</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="26">
+        <v>0.99660000000000004</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="26">
+        <v>0.86</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC2" s="27">
+        <v>0.89659999999999995</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE2" s="26">
+        <v>0.95330000000000004</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG2" s="26">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="42"/>
+      <c r="B3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG3" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="43"/>
+      <c r="B4" s="5">
+        <v>23</v>
+      </c>
+      <c r="C4" s="7">
+        <v>34</v>
+      </c>
+      <c r="D4" s="6">
+        <v>25</v>
+      </c>
+      <c r="E4" s="6">
+        <v>32</v>
+      </c>
+      <c r="F4" s="5">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7">
+        <v>9</v>
+      </c>
+      <c r="H4" s="6">
+        <v>3</v>
+      </c>
+      <c r="I4" s="6">
+        <v>8</v>
+      </c>
+      <c r="J4" s="5">
+        <v>33</v>
+      </c>
+      <c r="K4" s="7">
+        <v>47</v>
+      </c>
+      <c r="L4" s="6">
+        <v>26</v>
+      </c>
+      <c r="M4" s="6">
+        <v>39</v>
+      </c>
+      <c r="N4" s="5">
+        <v>20</v>
+      </c>
+      <c r="O4" s="7">
+        <v>48</v>
+      </c>
+      <c r="P4" s="6">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>45</v>
+      </c>
+      <c r="R4" s="5">
+        <v>4</v>
+      </c>
+      <c r="S4" s="7">
+        <v>9</v>
+      </c>
+      <c r="T4" s="6">
+        <v>3</v>
+      </c>
+      <c r="U4" s="6">
+        <v>9</v>
+      </c>
+      <c r="V4" s="5">
+        <v>36</v>
+      </c>
+      <c r="W4" s="7">
+        <v>48</v>
+      </c>
+      <c r="X4" s="6">
+        <v>37</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>49</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>34</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>40</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>32</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>43</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>39</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>48</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>39</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>49</v>
+      </c>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2"/>
+    </row>
+    <row r="5" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="27">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="26">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="27">
+        <v>0.953125</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="26">
+        <v>0.921875</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="27">
+        <v>0.921875</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="26"/>
+      <c r="T5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="U5" s="27"/>
+      <c r="V5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="26"/>
+      <c r="X5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+    </row>
+    <row r="6" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="42"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="2"/>
+      <c r="AZ6" s="2"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="2"/>
+      <c r="BE6" s="2"/>
+      <c r="BF6" s="2"/>
+      <c r="BG6" s="2"/>
+    </row>
+    <row r="7" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="43"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="5">
+        <v>28</v>
+      </c>
+      <c r="G7" s="7">
+        <v>49</v>
+      </c>
+      <c r="H7" s="6">
+        <v>31</v>
+      </c>
+      <c r="I7" s="6">
+        <v>42</v>
+      </c>
+      <c r="J7" s="5">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7">
+        <v>14</v>
+      </c>
+      <c r="L7" s="6">
+        <v>11</v>
+      </c>
+      <c r="M7" s="6">
+        <v>12</v>
+      </c>
+      <c r="N7" s="5">
+        <v>9</v>
+      </c>
+      <c r="O7" s="7">
+        <v>12</v>
+      </c>
+      <c r="P7" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>12</v>
+      </c>
+      <c r="R7" s="5"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2"/>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="2"/>
+      <c r="BG7" s="2"/>
+    </row>
+    <row r="8" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="26"/>
+      <c r="L8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="27"/>
+      <c r="N8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="26"/>
+      <c r="P8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="26"/>
+      <c r="T8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="U8" s="27"/>
+      <c r="V8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W8" s="26"/>
+      <c r="X8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="2"/>
+      <c r="BD8" s="2"/>
+      <c r="BE8" s="2"/>
+      <c r="BF8" s="2"/>
+      <c r="BG8" s="2"/>
+    </row>
+    <row r="9" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="42"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="2"/>
+      <c r="BG9" s="2"/>
+    </row>
+    <row r="10" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="2"/>
+      <c r="BE10" s="2"/>
+      <c r="BF10" s="2"/>
+      <c r="BG10" s="2"/>
+    </row>
+    <row r="11" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="26"/>
+      <c r="P11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" s="26"/>
+      <c r="T11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="U11" s="27"/>
+      <c r="V11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W11" s="26"/>
+      <c r="X11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG11" s="26"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="2"/>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="2"/>
+      <c r="BD11" s="2"/>
+      <c r="BE11" s="2"/>
+      <c r="BF11" s="2"/>
+      <c r="BG11" s="2"/>
+    </row>
+    <row r="12" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="42"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2"/>
+      <c r="BE12" s="2"/>
+      <c r="BF12" s="2"/>
+      <c r="BG12" s="2"/>
+    </row>
+    <row r="13" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="43"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2"/>
+      <c r="BE13" s="2"/>
+      <c r="BF13" s="2"/>
+      <c r="BG13" s="2"/>
+    </row>
+    <row r="14" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="26"/>
+      <c r="T14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="U14" s="27"/>
+      <c r="V14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W14" s="26"/>
+      <c r="X14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="2"/>
+      <c r="BD14" s="2"/>
+      <c r="BE14" s="2"/>
+      <c r="BF14" s="2"/>
+      <c r="BG14" s="2"/>
+    </row>
+    <row r="15" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="42"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="2"/>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="2"/>
+      <c r="BD15" s="2"/>
+      <c r="BE15" s="2"/>
+      <c r="BF15" s="2"/>
+      <c r="BG15" s="2"/>
+    </row>
+    <row r="16" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="43"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="2"/>
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="2"/>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="2"/>
+      <c r="BD16" s="2"/>
+      <c r="BE16" s="2"/>
+      <c r="BF16" s="2"/>
+      <c r="BG16" s="2"/>
+    </row>
+    <row r="17" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W17" s="26"/>
+      <c r="X17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="2"/>
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="2"/>
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="2"/>
+      <c r="BA17" s="2"/>
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="2"/>
+      <c r="BD17" s="2"/>
+      <c r="BE17" s="2"/>
+      <c r="BF17" s="2"/>
+      <c r="BG17" s="2"/>
+    </row>
+    <row r="18" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="42"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="2"/>
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="2"/>
+      <c r="AY18" s="2"/>
+      <c r="AZ18" s="2"/>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="2"/>
+      <c r="BD18" s="2"/>
+      <c r="BE18" s="2"/>
+      <c r="BF18" s="2"/>
+      <c r="BG18" s="2"/>
+    </row>
+    <row r="19" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="43"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="2"/>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="2"/>
+      <c r="BE19" s="2"/>
+      <c r="BF19" s="2"/>
+      <c r="BG19" s="2"/>
+    </row>
+    <row r="20" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE20" s="26"/>
+      <c r="AF20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG20" s="26"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="2"/>
+      <c r="AZ20" s="2"/>
+      <c r="BA20" s="2"/>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="2"/>
+      <c r="BD20" s="2"/>
+      <c r="BE20" s="2"/>
+      <c r="BF20" s="2"/>
+      <c r="BG20" s="2"/>
+    </row>
+    <row r="21" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="42"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="2"/>
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="2"/>
+      <c r="BD21" s="2"/>
+      <c r="BE21" s="2"/>
+      <c r="BF21" s="2"/>
+      <c r="BG21" s="2"/>
+    </row>
+    <row r="22" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="43"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
+      <c r="AZ22" s="2"/>
+      <c r="BA22" s="2"/>
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="2"/>
+      <c r="BD22" s="2"/>
+      <c r="BE22" s="2"/>
+      <c r="BF22" s="2"/>
+      <c r="BG22" s="2"/>
+    </row>
+    <row r="23" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
+      <c r="AZ23" s="2"/>
+      <c r="BA23" s="2"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="2"/>
+      <c r="BD23" s="2"/>
+      <c r="BE23" s="2"/>
+      <c r="BF23" s="2"/>
+      <c r="BG23" s="2"/>
+    </row>
+    <row r="24" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="42"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="2"/>
+      <c r="AU24" s="2"/>
+      <c r="AV24" s="2"/>
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="2"/>
+      <c r="AZ24" s="2"/>
+      <c r="BA24" s="2"/>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="2"/>
+      <c r="BD24" s="2"/>
+      <c r="BE24" s="2"/>
+      <c r="BF24" s="2"/>
+      <c r="BG24" s="2"/>
+    </row>
+    <row r="25" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="43"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="2"/>
+      <c r="BA25" s="2"/>
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="2"/>
+      <c r="BD25" s="2"/>
+      <c r="BE25" s="2"/>
+      <c r="BF25" s="2"/>
+      <c r="BG25" s="2"/>
+    </row>
+    <row r="27" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="B27" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="32">
+        <f>AVERAGE(C2,E2,G2,I2,K2,M2,O2,Q2,S2,U2,W2,Y2,AA2,AC2,AE2,AG2,G5,I5,K5,M5,O5,Q5,S5,U5,W5,Y5,AA5,AC5,AE5,AG5,K8,M8,O8,Q8,S8,U8,W8,Y8,AA8,AC8,AE8,AG8,O11,Q11,S11,U11,W11,Y11,AA11,AC11,AE11,AG11,S14,U14,W14,Y14,AA14,AC14,AE14,AG14,W17,Y17,AA17,AC17,AE17,AG17,AA20,AC20,AE20,AG20,AE23,AG23)</f>
+        <v>0.96108359090909101</v>
+      </c>
+      <c r="F27" s="32"/>
+    </row>
+    <row r="28" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="B28" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29">
+        <f>AVERAGE(B4,D4,F4,H4,J4,L4,N4,P4,R4,T4,V4,X4,Z4,AB4,AD4,AF4,F7,H7,J7,L7,N7,P7,R7,T7,V7,X7,Z7,AB7,AD7,AF7,J10,L10,N10,P10,R10,T10,V10,X10,Z10,AB10,AD10,AF10,N13,P13,R13,T13,V13,X13,Z13,AB13,AD13,AF13,R16,T16,V16,X16,Z16,AB16,AD16,AF16,V19,X19,Z19,AB19,AD19,AF19,Z22,AB22,AD22,AF22,AD25,AF25)</f>
+        <v>21.727272727272727</v>
+      </c>
+      <c r="F28" s="29"/>
+    </row>
+    <row r="29" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="B29" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29">
+        <f>AVERAGE(C4,E4,G4,I4,K4,M4,O4,Q4,S4,U4,W4,Y4,AA4,AC4,AE4,AG4,G7,I7,K7,K10,M7,M10,O7,O10,O13,Q7,Q10,Q13,S7,S10,S13,S16,U7,U10,U13,U16,W7,W10,W13,W16,W19,Y7,Y10,Y13,Y16,Y19,AA7,AA10,AA13,AA16,AA19,AA22,AC7,AC10,AC13,AC16,AC19,AC22,AE7,AE10,AE13,AE16,AE19,AE22,AE25,AG7,AG10,AG13,AG16,AG19,AG25)</f>
+        <v>31.727272727272727</v>
+      </c>
+      <c r="F29" s="29"/>
+    </row>
+    <row r="38" spans="32:32" x14ac:dyDescent="0.2">
+      <c r="AF38" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
-    <mergeCell ref="T1:Y1"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:Y1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B8:E8 B14:M14 B17:Q17 B20:U20 B23:Y23 B11:I11 AD23:AG23 A2:XFD2 F5:AG5 J8:AG8 N11:AG11 R14:AG14 V17:AG17 Z20:AG20">
+    <cfRule type="cellIs" dxfId="1" priority="53" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC3DF52-2744-4164-B222-55FC3FE8B13B}">
+  <dimension ref="A1:BG38"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" style="4" customWidth="1"/>
+    <col min="2" max="33" width="7" style="3" customWidth="1"/>
+    <col min="34" max="46" width="4.7109375" style="3" customWidth="1"/>
+    <col min="47" max="59" width="11.42578125" style="3"/>
+    <col min="60" max="16384" width="11.42578125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+    </row>
+    <row r="2" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="27"/>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="26"/>
+      <c r="H2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="27"/>
+      <c r="J2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="26"/>
+      <c r="L2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="27"/>
+      <c r="N2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="26"/>
+      <c r="P2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="26"/>
+      <c r="T2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="27"/>
+      <c r="V2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="26"/>
+      <c r="X2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG2" s="26"/>
+    </row>
+    <row r="3" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="42"/>
+      <c r="B3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG3" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="43"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="5">
+        <v>20</v>
+      </c>
+      <c r="O4" s="7">
+        <v>48</v>
+      </c>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2"/>
+    </row>
+    <row r="5" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="27"/>
+      <c r="J5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="26"/>
+      <c r="L5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="27"/>
+      <c r="N5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="26"/>
+      <c r="P5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="26"/>
+      <c r="T5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="U5" s="27"/>
+      <c r="V5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="26"/>
+      <c r="X5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+    </row>
+    <row r="6" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="42"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="2"/>
+      <c r="AZ6" s="2"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="2"/>
+      <c r="BE6" s="2"/>
+      <c r="BF6" s="2"/>
+      <c r="BG6" s="2"/>
+    </row>
+    <row r="7" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="43"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2"/>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="2"/>
+      <c r="BG7" s="2"/>
+    </row>
+    <row r="8" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="26"/>
+      <c r="L8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="27"/>
+      <c r="N8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="26"/>
+      <c r="P8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="26"/>
+      <c r="T8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="U8" s="27"/>
+      <c r="V8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W8" s="26"/>
+      <c r="X8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="2"/>
+      <c r="BD8" s="2"/>
+      <c r="BE8" s="2"/>
+      <c r="BF8" s="2"/>
+      <c r="BG8" s="2"/>
+    </row>
+    <row r="9" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="42"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="2"/>
+      <c r="BG9" s="2"/>
+    </row>
+    <row r="10" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="2"/>
+      <c r="BE10" s="2"/>
+      <c r="BF10" s="2"/>
+      <c r="BG10" s="2"/>
+    </row>
+    <row r="11" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="26"/>
+      <c r="P11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" s="26"/>
+      <c r="T11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="U11" s="27"/>
+      <c r="V11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W11" s="26"/>
+      <c r="X11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG11" s="26"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="2"/>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="2"/>
+      <c r="BD11" s="2"/>
+      <c r="BE11" s="2"/>
+      <c r="BF11" s="2"/>
+      <c r="BG11" s="2"/>
+    </row>
+    <row r="12" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="42"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2"/>
+      <c r="BE12" s="2"/>
+      <c r="BF12" s="2"/>
+      <c r="BG12" s="2"/>
+    </row>
+    <row r="13" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="43"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2"/>
+      <c r="BE13" s="2"/>
+      <c r="BF13" s="2"/>
+      <c r="BG13" s="2"/>
+    </row>
+    <row r="14" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="26"/>
+      <c r="T14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="U14" s="27"/>
+      <c r="V14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W14" s="26"/>
+      <c r="X14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="2"/>
+      <c r="BD14" s="2"/>
+      <c r="BE14" s="2"/>
+      <c r="BF14" s="2"/>
+      <c r="BG14" s="2"/>
+    </row>
+    <row r="15" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="42"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="2"/>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="2"/>
+      <c r="BD15" s="2"/>
+      <c r="BE15" s="2"/>
+      <c r="BF15" s="2"/>
+      <c r="BG15" s="2"/>
+    </row>
+    <row r="16" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="43"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="2"/>
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="2"/>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="2"/>
+      <c r="BD16" s="2"/>
+      <c r="BE16" s="2"/>
+      <c r="BF16" s="2"/>
+      <c r="BG16" s="2"/>
+    </row>
+    <row r="17" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W17" s="26"/>
+      <c r="X17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="2"/>
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="2"/>
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="2"/>
+      <c r="BA17" s="2"/>
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="2"/>
+      <c r="BD17" s="2"/>
+      <c r="BE17" s="2"/>
+      <c r="BF17" s="2"/>
+      <c r="BG17" s="2"/>
+    </row>
+    <row r="18" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="42"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="2"/>
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="2"/>
+      <c r="AY18" s="2"/>
+      <c r="AZ18" s="2"/>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="2"/>
+      <c r="BD18" s="2"/>
+      <c r="BE18" s="2"/>
+      <c r="BF18" s="2"/>
+      <c r="BG18" s="2"/>
+    </row>
+    <row r="19" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="43"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="2"/>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="2"/>
+      <c r="BE19" s="2"/>
+      <c r="BF19" s="2"/>
+      <c r="BG19" s="2"/>
+    </row>
+    <row r="20" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE20" s="26"/>
+      <c r="AF20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG20" s="26"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="2"/>
+      <c r="AZ20" s="2"/>
+      <c r="BA20" s="2"/>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="2"/>
+      <c r="BD20" s="2"/>
+      <c r="BE20" s="2"/>
+      <c r="BF20" s="2"/>
+      <c r="BG20" s="2"/>
+    </row>
+    <row r="21" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="42"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="2"/>
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="2"/>
+      <c r="BD21" s="2"/>
+      <c r="BE21" s="2"/>
+      <c r="BF21" s="2"/>
+      <c r="BG21" s="2"/>
+    </row>
+    <row r="22" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="43"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
+      <c r="AZ22" s="2"/>
+      <c r="BA22" s="2"/>
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="2"/>
+      <c r="BD22" s="2"/>
+      <c r="BE22" s="2"/>
+      <c r="BF22" s="2"/>
+      <c r="BG22" s="2"/>
+    </row>
+    <row r="23" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
+      <c r="AZ23" s="2"/>
+      <c r="BA23" s="2"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="2"/>
+      <c r="BD23" s="2"/>
+      <c r="BE23" s="2"/>
+      <c r="BF23" s="2"/>
+      <c r="BG23" s="2"/>
+    </row>
+    <row r="24" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="42"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="2"/>
+      <c r="AU24" s="2"/>
+      <c r="AV24" s="2"/>
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="2"/>
+      <c r="AZ24" s="2"/>
+      <c r="BA24" s="2"/>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="2"/>
+      <c r="BD24" s="2"/>
+      <c r="BE24" s="2"/>
+      <c r="BF24" s="2"/>
+      <c r="BG24" s="2"/>
+    </row>
+    <row r="25" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="43"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="2"/>
+      <c r="BA25" s="2"/>
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="2"/>
+      <c r="BD25" s="2"/>
+      <c r="BE25" s="2"/>
+      <c r="BF25" s="2"/>
+      <c r="BG25" s="2"/>
+    </row>
+    <row r="27" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="B27" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="32" t="e">
+        <f>AVERAGE(C2,E2,G2,I2,K2,M2,O2,Q2,S2,U2,W2,Y2,AA2,AC2,AE2,AG2,G5,I5,K5,M5,O5,Q5,S5,U5,W5,Y5,AA5,AC5,AE5,AG5,K8,M8,O8,Q8,S8,U8,W8,Y8,AA8,AC8,AE8,AG8,O11,Q11,S11,U11,W11,Y11,AA11,AC11,AE11,AG11,S14,U14,W14,Y14,AA14,AC14,AE14,AG14,W17,Y17,AA17,AC17,AE17,AG17,AA20,AC20,AE20,AG20,AE23,AG23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="32"/>
+      <c r="H27" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="32">
+        <v>0.938967</v>
+      </c>
+      <c r="M27" s="33"/>
+    </row>
+    <row r="28" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="B28" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29">
+        <f>AVERAGE(B4,D4,F4,H4,J4,L4,N4,P4,R4,T4,V4,X4,Z4,AB4,AD4,AF4,F7,H7,J7,L7,N7,P7,R7,T7,V7,X7,Z7,AB7,AD7,AF7,J10,L10,N10,P10,R10,T10,V10,X10,Z10,AB10,AD10,AF10,N13,P13,R13,T13,V13,X13,Z13,AB13,AD13,AF13,R16,T16,V16,X16,Z16,AB16,AD16,AF16,V19,X19,Z19,AB19,AD19,AF19,Z22,AB22,AD22,AF22,AD25,AF25)</f>
+        <v>20</v>
+      </c>
+      <c r="F28" s="29"/>
+    </row>
+    <row r="29" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="B29" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29">
+        <f>AVERAGE(C4,E4,G4,I4,K4,M4,O4,Q4,S4,U4,W4,Y4,AA4,AC4,AE4,AG4,G7,I7,K7,K10,M7,M10,O7,O10,O13,Q7,Q10,Q13,S7,S10,S13,S16,U7,U10,U13,U16,W7,W10,W13,W16,W19,Y7,Y10,Y13,Y16,Y19,AA7,AA10,AA13,AA16,AA19,AA22,AC7,AC10,AC13,AC16,AC19,AC22,AE7,AE10,AE13,AE16,AE19,AE22,AE25,AG7,AG10,AG13,AG16,AG19,AG25)</f>
+        <v>48</v>
+      </c>
+      <c r="F29" s="29"/>
+    </row>
+    <row r="38" spans="32:32" x14ac:dyDescent="0.2">
+      <c r="AF38" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:Y1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="AX2:XFD2 A2:AE2">
-    <cfRule type="cellIs" dxfId="52" priority="84" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF2:AK2">
-    <cfRule type="cellIs" dxfId="51" priority="83" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AQ2">
-    <cfRule type="cellIs" dxfId="50" priority="82" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR2:AW2">
-    <cfRule type="cellIs" dxfId="49" priority="81" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:M5">
-    <cfRule type="cellIs" dxfId="48" priority="79" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5:S5">
-    <cfRule type="cellIs" dxfId="47" priority="78" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T5:Y5">
-    <cfRule type="cellIs" dxfId="46" priority="77" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z5:AE5">
-    <cfRule type="cellIs" dxfId="45" priority="76" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF5:AK5">
-    <cfRule type="cellIs" dxfId="44" priority="75" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL5:AQ5">
-    <cfRule type="cellIs" dxfId="43" priority="74" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR5:AW5">
-    <cfRule type="cellIs" dxfId="42" priority="73" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:G8">
-    <cfRule type="cellIs" dxfId="41" priority="72" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N8:S8">
-    <cfRule type="cellIs" dxfId="40" priority="70" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T8:Y8">
-    <cfRule type="cellIs" dxfId="39" priority="69" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z8:AE8">
-    <cfRule type="cellIs" dxfId="38" priority="68" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF8:AK8">
-    <cfRule type="cellIs" dxfId="37" priority="67" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL8:AQ8">
-    <cfRule type="cellIs" dxfId="36" priority="66" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR8:AW8">
-    <cfRule type="cellIs" dxfId="35" priority="65" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:G11">
-    <cfRule type="cellIs" dxfId="34" priority="64" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14:M14">
-    <cfRule type="cellIs" dxfId="33" priority="55" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T11:Y11">
-    <cfRule type="cellIs" dxfId="32" priority="61" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z11:AE11">
-    <cfRule type="cellIs" dxfId="31" priority="60" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF11:AK11">
-    <cfRule type="cellIs" dxfId="30" priority="59" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL11:AQ11">
-    <cfRule type="cellIs" dxfId="29" priority="58" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR11:AW11">
-    <cfRule type="cellIs" dxfId="28" priority="57" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:G14">
-    <cfRule type="cellIs" dxfId="27" priority="56" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z14:AE14">
-    <cfRule type="cellIs" dxfId="26" priority="52" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF14:AK14">
-    <cfRule type="cellIs" dxfId="25" priority="51" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL14:AQ14">
-    <cfRule type="cellIs" dxfId="24" priority="50" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR14:AW14">
-    <cfRule type="cellIs" dxfId="23" priority="49" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:G17">
-    <cfRule type="cellIs" dxfId="22" priority="48" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17:M17">
-    <cfRule type="cellIs" dxfId="21" priority="47" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N17:S17">
-    <cfRule type="cellIs" dxfId="20" priority="46" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL17:AQ17">
-    <cfRule type="cellIs" dxfId="19" priority="42" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF17:AK17">
-    <cfRule type="cellIs" dxfId="18" priority="43" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR17:AW17">
-    <cfRule type="cellIs" dxfId="17" priority="41" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:G20">
-    <cfRule type="cellIs" dxfId="16" priority="40" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20:M20">
-    <cfRule type="cellIs" dxfId="15" priority="39" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N20:S20">
-    <cfRule type="cellIs" dxfId="14" priority="38" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T20:Y20">
-    <cfRule type="cellIs" dxfId="13" priority="37" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:G23">
-    <cfRule type="cellIs" dxfId="12" priority="32" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR20:AW20">
-    <cfRule type="cellIs" dxfId="11" priority="33" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23:M23">
-    <cfRule type="cellIs" dxfId="10" priority="31" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N23:S23">
-    <cfRule type="cellIs" dxfId="9" priority="30" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T23:Y23">
-    <cfRule type="cellIs" dxfId="8" priority="29" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z23:AE23">
-    <cfRule type="cellIs" dxfId="7" priority="28" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL20:AQ20">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR23:AW23">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF23:AK23">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z20:AE20">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T17:Y17">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N14:S14">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>100%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11:M11">
+  <conditionalFormatting sqref="B8:E8 B14:M14 B17:Q17 B20:U20 B23:Y23 B11:I11 AD23:AG23 A2:XFD2 F5:AG5 J8:AG8 N11:AG11 R14:AG14 V17:AG17 Z20:AG20">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>100%</formula>
     </cfRule>

--- a/Efectividades.xlsx
+++ b/Efectividades.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfc_2\Documents\Git\Clasificador-Bayesiano\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9DB176-D07E-4365-824F-8EC429B1A32A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E35A53-CF22-4409-95D4-24EBABA688FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{6DF6BAD8-DCEE-4FDF-B5FC-1870D868E7E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="4" xr2:uid="{F52822BA-92CC-49F9-94B3-F5711F9646BD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="K-Fold" sheetId="2" r:id="rId2"/>
-    <sheet name="Validación cruzada" sheetId="3" r:id="rId3"/>
+    <sheet name="Validacion" sheetId="3" r:id="rId3"/>
+    <sheet name="Validacion (MAD 3.7)" sheetId="4" r:id="rId4"/>
+    <sheet name="Validacion (MAD 3.5)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="20">
   <si>
     <t>Sujeto 1</t>
   </si>
@@ -92,6 +94,9 @@
   </si>
   <si>
     <t>Uso de datos promedio</t>
+  </si>
+  <si>
+    <t>Sup</t>
   </si>
 </sst>
 </file>
@@ -158,7 +163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -306,12 +311,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -379,7 +458,13 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -388,11 +473,20 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -442,12 +536,180 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="70">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1310,9 +1572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAF7C7A-82F5-4FDE-94EB-09394C898A3F}">
   <dimension ref="A1:BW39"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1323,70 +1583,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="38" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="38" t="s">
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="38" t="s">
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="38" t="s">
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="38" t="s">
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="38" t="s">
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="39"/>
-      <c r="AO1" s="39"/>
-      <c r="AP1" s="39"/>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="38" t="s">
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="AS1" s="39"/>
-      <c r="AT1" s="39"/>
-      <c r="AU1" s="39"/>
-      <c r="AV1" s="39"/>
-      <c r="AW1" s="40"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
+      <c r="AW1" s="45"/>
       <c r="AX1" s="2"/>
       <c r="AY1" s="2"/>
       <c r="AZ1" s="2"/>
@@ -1415,124 +1675,124 @@
       <c r="BW1" s="2"/>
     </row>
     <row r="2" spans="1:75" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="39">
         <v>0.985294</v>
       </c>
-      <c r="D2" s="35"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="39">
         <v>0.98584899999999998</v>
       </c>
-      <c r="G2" s="35"/>
+      <c r="G2" s="40"/>
       <c r="H2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="34">
+      <c r="I2" s="39">
         <v>1</v>
       </c>
-      <c r="J2" s="35"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="34">
+      <c r="L2" s="39">
         <v>1</v>
       </c>
-      <c r="M2" s="35"/>
+      <c r="M2" s="40"/>
       <c r="N2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="34">
+      <c r="O2" s="39">
         <v>1</v>
       </c>
-      <c r="P2" s="35"/>
+      <c r="P2" s="40"/>
       <c r="Q2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="34">
+      <c r="R2" s="39">
         <v>1</v>
       </c>
-      <c r="S2" s="35"/>
+      <c r="S2" s="40"/>
       <c r="T2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="34">
+      <c r="U2" s="39">
         <v>1</v>
       </c>
-      <c r="V2" s="35"/>
+      <c r="V2" s="40"/>
       <c r="W2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="34">
+      <c r="X2" s="39">
         <v>1</v>
       </c>
-      <c r="Y2" s="35"/>
+      <c r="Y2" s="40"/>
       <c r="Z2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="34">
+      <c r="AA2" s="39">
         <v>0.97959099999999999</v>
       </c>
-      <c r="AB2" s="35"/>
+      <c r="AB2" s="40"/>
       <c r="AC2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="34">
+      <c r="AD2" s="39">
         <v>0.95918300000000001</v>
       </c>
-      <c r="AE2" s="35"/>
+      <c r="AE2" s="40"/>
       <c r="AF2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AG2" s="34">
+      <c r="AG2" s="39">
         <v>1</v>
       </c>
-      <c r="AH2" s="35"/>
+      <c r="AH2" s="40"/>
       <c r="AI2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="34">
+      <c r="AJ2" s="39">
         <v>1</v>
       </c>
-      <c r="AK2" s="35"/>
+      <c r="AK2" s="40"/>
       <c r="AL2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AM2" s="34">
+      <c r="AM2" s="39">
         <v>0.98648599999999997</v>
       </c>
-      <c r="AN2" s="35"/>
+      <c r="AN2" s="40"/>
       <c r="AO2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AP2" s="34">
+      <c r="AP2" s="39">
         <v>1</v>
       </c>
-      <c r="AQ2" s="35"/>
+      <c r="AQ2" s="40"/>
       <c r="AR2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AS2" s="34">
+      <c r="AS2" s="39">
         <v>1</v>
       </c>
-      <c r="AT2" s="35"/>
+      <c r="AT2" s="40"/>
       <c r="AU2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AV2" s="34">
+      <c r="AV2" s="39">
         <v>1</v>
       </c>
-      <c r="AW2" s="35"/>
+      <c r="AW2" s="40"/>
     </row>
     <row r="3" spans="1:75" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
@@ -1679,7 +1939,7 @@
       </c>
     </row>
     <row r="4" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="5">
         <v>27</v>
       </c>
@@ -1852,7 +2112,7 @@
       <c r="BW4" s="2"/>
     </row>
     <row r="5" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="14"/>
@@ -1864,101 +2124,101 @@
       <c r="H5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="39">
         <v>1</v>
       </c>
-      <c r="J5" s="35"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5" s="39">
         <v>1</v>
       </c>
-      <c r="M5" s="35"/>
+      <c r="M5" s="40"/>
       <c r="N5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="34">
+      <c r="O5" s="39">
         <v>1</v>
       </c>
-      <c r="P5" s="35"/>
+      <c r="P5" s="40"/>
       <c r="Q5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R5" s="34">
+      <c r="R5" s="39">
         <v>1</v>
       </c>
-      <c r="S5" s="35"/>
+      <c r="S5" s="40"/>
       <c r="T5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="U5" s="34">
+      <c r="U5" s="39">
         <v>0.78662399999999999</v>
       </c>
-      <c r="V5" s="35"/>
+      <c r="V5" s="40"/>
       <c r="W5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="X5" s="34">
+      <c r="X5" s="39">
         <v>1</v>
       </c>
-      <c r="Y5" s="35"/>
+      <c r="Y5" s="40"/>
       <c r="Z5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA5" s="34">
+      <c r="AA5" s="39">
         <v>0.95</v>
       </c>
-      <c r="AB5" s="35"/>
+      <c r="AB5" s="40"/>
       <c r="AC5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AD5" s="34">
+      <c r="AD5" s="39">
         <v>0.88561999999999996</v>
       </c>
-      <c r="AE5" s="35"/>
+      <c r="AE5" s="40"/>
       <c r="AF5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AG5" s="34">
+      <c r="AG5" s="39">
         <v>1</v>
       </c>
-      <c r="AH5" s="35"/>
+      <c r="AH5" s="40"/>
       <c r="AI5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AJ5" s="34">
+      <c r="AJ5" s="39">
         <v>1</v>
       </c>
-      <c r="AK5" s="35"/>
+      <c r="AK5" s="40"/>
       <c r="AL5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AM5" s="34">
+      <c r="AM5" s="39">
         <v>1</v>
       </c>
-      <c r="AN5" s="35"/>
+      <c r="AN5" s="40"/>
       <c r="AO5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AP5" s="34">
+      <c r="AP5" s="39">
         <v>0.96078399999999997</v>
       </c>
-      <c r="AQ5" s="35"/>
+      <c r="AQ5" s="40"/>
       <c r="AR5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AS5" s="34">
+      <c r="AS5" s="39">
         <v>0.96</v>
       </c>
-      <c r="AT5" s="35"/>
+      <c r="AT5" s="40"/>
       <c r="AU5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AV5" s="34">
+      <c r="AV5" s="39">
         <v>1</v>
       </c>
-      <c r="AW5" s="35"/>
+      <c r="AW5" s="40"/>
       <c r="AX5" s="2"/>
       <c r="AY5" s="2"/>
       <c r="AZ5" s="2"/>
@@ -1987,7 +2247,7 @@
       <c r="BW5" s="2"/>
     </row>
     <row r="6" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="42"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="12"/>
       <c r="C6" s="11"/>
       <c r="D6" s="13"/>
@@ -2148,7 +2408,7 @@
       <c r="BW6" s="2"/>
     </row>
     <row r="7" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
@@ -2309,15 +2569,15 @@
       <c r="BW7" s="2"/>
     </row>
     <row r="8" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="46" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="14"/>
       <c r="I8" s="10"/>
       <c r="J8" s="15"/>
@@ -2327,87 +2587,87 @@
       <c r="N8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="34">
+      <c r="O8" s="39">
         <v>1</v>
       </c>
-      <c r="P8" s="35"/>
+      <c r="P8" s="40"/>
       <c r="Q8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="34">
+      <c r="R8" s="39">
         <v>0.98979499999999998</v>
       </c>
-      <c r="S8" s="35"/>
+      <c r="S8" s="40"/>
       <c r="T8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="U8" s="34">
+      <c r="U8" s="39">
         <v>0.99557499999999999</v>
       </c>
-      <c r="V8" s="35"/>
+      <c r="V8" s="40"/>
       <c r="W8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="X8" s="34">
+      <c r="X8" s="39">
         <v>1</v>
       </c>
-      <c r="Y8" s="35"/>
+      <c r="Y8" s="40"/>
       <c r="Z8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA8" s="34">
+      <c r="AA8" s="39">
         <v>1</v>
       </c>
-      <c r="AB8" s="35"/>
+      <c r="AB8" s="40"/>
       <c r="AC8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AD8" s="34">
+      <c r="AD8" s="39">
         <v>1</v>
       </c>
-      <c r="AE8" s="35"/>
+      <c r="AE8" s="40"/>
       <c r="AF8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AG8" s="34">
+      <c r="AG8" s="39">
         <v>1</v>
       </c>
-      <c r="AH8" s="35"/>
+      <c r="AH8" s="40"/>
       <c r="AI8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AJ8" s="34">
+      <c r="AJ8" s="39">
         <v>1</v>
       </c>
-      <c r="AK8" s="35"/>
+      <c r="AK8" s="40"/>
       <c r="AL8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AM8" s="34">
+      <c r="AM8" s="39">
         <v>1</v>
       </c>
-      <c r="AN8" s="35"/>
+      <c r="AN8" s="40"/>
       <c r="AO8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AP8" s="34">
+      <c r="AP8" s="39">
         <v>1</v>
       </c>
-      <c r="AQ8" s="35"/>
+      <c r="AQ8" s="40"/>
       <c r="AR8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AS8" s="34">
+      <c r="AS8" s="39">
         <v>1</v>
       </c>
-      <c r="AT8" s="35"/>
+      <c r="AT8" s="40"/>
       <c r="AU8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AV8" s="34">
+      <c r="AV8" s="39">
         <v>1</v>
       </c>
-      <c r="AW8" s="35"/>
+      <c r="AW8" s="40"/>
       <c r="AX8" s="2"/>
       <c r="AY8" s="2"/>
       <c r="AZ8" s="2"/>
@@ -2436,7 +2696,7 @@
       <c r="BW8" s="2"/>
     </row>
     <row r="9" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="42"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="12"/>
       <c r="C9" s="11"/>
       <c r="D9" s="13"/>
@@ -2585,7 +2845,7 @@
       <c r="BW9" s="2"/>
     </row>
     <row r="10" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="16"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
@@ -2734,21 +2994,21 @@
       <c r="BW10" s="2"/>
     </row>
     <row r="11" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="46" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="31"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="36"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="31"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="36"/>
       <c r="N11" s="14"/>
       <c r="O11" s="10"/>
       <c r="P11" s="15"/>
@@ -2758,73 +3018,73 @@
       <c r="T11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="U11" s="34">
+      <c r="U11" s="39">
         <v>1</v>
       </c>
-      <c r="V11" s="35"/>
+      <c r="V11" s="40"/>
       <c r="W11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="X11" s="34">
+      <c r="X11" s="39">
         <v>0.91666599999999998</v>
       </c>
-      <c r="Y11" s="35"/>
+      <c r="Y11" s="40"/>
       <c r="Z11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA11" s="34">
+      <c r="AA11" s="39">
         <v>1</v>
       </c>
-      <c r="AB11" s="35"/>
+      <c r="AB11" s="40"/>
       <c r="AC11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AD11" s="34">
+      <c r="AD11" s="39">
         <v>1</v>
       </c>
-      <c r="AE11" s="35"/>
+      <c r="AE11" s="40"/>
       <c r="AF11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AG11" s="34">
+      <c r="AG11" s="39">
         <v>1</v>
       </c>
-      <c r="AH11" s="35"/>
+      <c r="AH11" s="40"/>
       <c r="AI11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AJ11" s="34">
+      <c r="AJ11" s="39">
         <v>1</v>
       </c>
-      <c r="AK11" s="35"/>
+      <c r="AK11" s="40"/>
       <c r="AL11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AM11" s="34">
+      <c r="AM11" s="39">
         <v>1</v>
       </c>
-      <c r="AN11" s="35"/>
+      <c r="AN11" s="40"/>
       <c r="AO11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AP11" s="34">
+      <c r="AP11" s="39">
         <v>0.97916599999999998</v>
       </c>
-      <c r="AQ11" s="35"/>
+      <c r="AQ11" s="40"/>
       <c r="AR11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AS11" s="34">
+      <c r="AS11" s="39">
         <v>1</v>
       </c>
-      <c r="AT11" s="35"/>
+      <c r="AT11" s="40"/>
       <c r="AU11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AV11" s="34">
+      <c r="AV11" s="39">
         <v>1</v>
       </c>
-      <c r="AW11" s="35"/>
+      <c r="AW11" s="40"/>
       <c r="AX11" s="2"/>
       <c r="AY11" s="2"/>
       <c r="AZ11" s="2"/>
@@ -2853,7 +3113,7 @@
       <c r="BW11" s="2"/>
     </row>
     <row r="12" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="42"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="12"/>
       <c r="C12" s="11"/>
       <c r="D12" s="13"/>
@@ -2990,7 +3250,7 @@
       <c r="BW12" s="2"/>
     </row>
     <row r="13" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="16"/>
       <c r="C13" s="17"/>
       <c r="D13" s="18"/>
@@ -3127,27 +3387,27 @@
       <c r="BW13" s="2"/>
     </row>
     <row r="14" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="46" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="14"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="31"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="36"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="31"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="36"/>
       <c r="N14" s="14"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="31"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="36"/>
       <c r="Q14" s="10"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="31"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="36"/>
       <c r="T14" s="14"/>
       <c r="U14" s="10"/>
       <c r="V14" s="15"/>
@@ -3157,59 +3417,59 @@
       <c r="Z14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA14" s="34">
+      <c r="AA14" s="39">
         <v>1</v>
       </c>
-      <c r="AB14" s="35"/>
+      <c r="AB14" s="40"/>
       <c r="AC14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AD14" s="34">
+      <c r="AD14" s="39">
         <v>1</v>
       </c>
-      <c r="AE14" s="35"/>
+      <c r="AE14" s="40"/>
       <c r="AF14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AG14" s="34">
+      <c r="AG14" s="39">
         <v>1</v>
       </c>
-      <c r="AH14" s="35"/>
+      <c r="AH14" s="40"/>
       <c r="AI14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AJ14" s="34">
+      <c r="AJ14" s="39">
         <v>1</v>
       </c>
-      <c r="AK14" s="35"/>
+      <c r="AK14" s="40"/>
       <c r="AL14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AM14" s="34">
+      <c r="AM14" s="39">
         <v>1</v>
       </c>
-      <c r="AN14" s="35"/>
+      <c r="AN14" s="40"/>
       <c r="AO14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AP14" s="34">
+      <c r="AP14" s="39">
         <v>1</v>
       </c>
-      <c r="AQ14" s="35"/>
+      <c r="AQ14" s="40"/>
       <c r="AR14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AS14" s="34">
+      <c r="AS14" s="39">
         <v>0.925925</v>
       </c>
-      <c r="AT14" s="35"/>
+      <c r="AT14" s="40"/>
       <c r="AU14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AV14" s="34">
+      <c r="AV14" s="39">
         <v>0.89393900000000004</v>
       </c>
-      <c r="AW14" s="35"/>
+      <c r="AW14" s="40"/>
       <c r="AX14" s="2"/>
       <c r="AY14" s="2"/>
       <c r="AZ14" s="2"/>
@@ -3238,7 +3498,7 @@
       <c r="BW14" s="2"/>
     </row>
     <row r="15" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="42"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="12"/>
       <c r="C15" s="11"/>
       <c r="D15" s="13"/>
@@ -3363,7 +3623,7 @@
       <c r="BW15" s="2"/>
     </row>
     <row r="16" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="16"/>
       <c r="C16" s="17"/>
       <c r="D16" s="18"/>
@@ -3488,33 +3748,33 @@
       <c r="BW16" s="2"/>
     </row>
     <row r="17" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="46" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="14"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="31"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="36"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="31"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="36"/>
       <c r="N17" s="14"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="31"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="36"/>
       <c r="Q17" s="10"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="31"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="36"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="31"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="36"/>
       <c r="W17" s="10"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="31"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="36"/>
       <c r="Z17" s="14"/>
       <c r="AA17" s="10"/>
       <c r="AB17" s="15"/>
@@ -3524,45 +3784,45 @@
       <c r="AF17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AG17" s="34">
+      <c r="AG17" s="39">
         <v>1</v>
       </c>
-      <c r="AH17" s="35"/>
+      <c r="AH17" s="40"/>
       <c r="AI17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AJ17" s="34">
+      <c r="AJ17" s="39">
         <v>1</v>
       </c>
-      <c r="AK17" s="35"/>
+      <c r="AK17" s="40"/>
       <c r="AL17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AM17" s="34">
+      <c r="AM17" s="39">
         <v>0.98333300000000001</v>
       </c>
-      <c r="AN17" s="35"/>
+      <c r="AN17" s="40"/>
       <c r="AO17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AP17" s="34">
+      <c r="AP17" s="39">
         <v>1</v>
       </c>
-      <c r="AQ17" s="35"/>
+      <c r="AQ17" s="40"/>
       <c r="AR17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AS17" s="34">
+      <c r="AS17" s="39">
         <v>0.97916599999999998</v>
       </c>
-      <c r="AT17" s="35"/>
+      <c r="AT17" s="40"/>
       <c r="AU17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AV17" s="34">
+      <c r="AV17" s="39">
         <v>1</v>
       </c>
-      <c r="AW17" s="35"/>
+      <c r="AW17" s="40"/>
       <c r="AX17" s="2"/>
       <c r="AY17" s="2"/>
       <c r="AZ17" s="2"/>
@@ -3591,7 +3851,7 @@
       <c r="BW17" s="2"/>
     </row>
     <row r="18" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="42"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="12"/>
       <c r="C18" s="11"/>
       <c r="D18" s="13"/>
@@ -3704,7 +3964,7 @@
       <c r="BW18" s="2"/>
     </row>
     <row r="19" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="16"/>
       <c r="C19" s="17"/>
       <c r="D19" s="18"/>
@@ -3817,39 +4077,39 @@
       <c r="BW19" s="2"/>
     </row>
     <row r="20" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="46" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="14"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="31"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="36"/>
       <c r="K20" s="10"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="31"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="36"/>
       <c r="N20" s="14"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="31"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="36"/>
       <c r="Q20" s="10"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="31"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="36"/>
       <c r="T20" s="14"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="31"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="36"/>
       <c r="W20" s="10"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="31"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="36"/>
       <c r="Z20" s="14"/>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="31"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="36"/>
       <c r="AC20" s="10"/>
-      <c r="AD20" s="30"/>
-      <c r="AE20" s="31"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="36"/>
       <c r="AF20" s="14"/>
       <c r="AG20" s="10"/>
       <c r="AH20" s="15"/>
@@ -3859,31 +4119,31 @@
       <c r="AL20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AM20" s="34">
+      <c r="AM20" s="39">
         <v>1</v>
       </c>
-      <c r="AN20" s="35"/>
+      <c r="AN20" s="40"/>
       <c r="AO20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AP20" s="34">
+      <c r="AP20" s="39">
         <v>1</v>
       </c>
-      <c r="AQ20" s="35"/>
+      <c r="AQ20" s="40"/>
       <c r="AR20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AS20" s="34">
+      <c r="AS20" s="39">
         <v>0.98958299999999999</v>
       </c>
-      <c r="AT20" s="35"/>
+      <c r="AT20" s="40"/>
       <c r="AU20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AV20" s="34">
+      <c r="AV20" s="39">
         <v>1</v>
       </c>
-      <c r="AW20" s="35"/>
+      <c r="AW20" s="40"/>
       <c r="AX20" s="2"/>
       <c r="AY20" s="2"/>
       <c r="AZ20" s="2"/>
@@ -3912,7 +4172,7 @@
       <c r="BW20" s="2"/>
     </row>
     <row r="21" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="12"/>
       <c r="C21" s="11"/>
       <c r="D21" s="13"/>
@@ -4013,7 +4273,7 @@
       <c r="BW21" s="2"/>
     </row>
     <row r="22" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
       <c r="D22" s="18"/>
@@ -4114,45 +4374,45 @@
       <c r="BW22" s="2"/>
     </row>
     <row r="23" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="46" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="14"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
       <c r="E23" s="10"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="31"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="36"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="31"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="36"/>
       <c r="N23" s="14"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="31"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="36"/>
       <c r="Q23" s="10"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="31"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="36"/>
       <c r="T23" s="14"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="31"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="36"/>
       <c r="W23" s="10"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="31"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="36"/>
       <c r="Z23" s="14"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="31"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="36"/>
       <c r="AC23" s="10"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="31"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="36"/>
       <c r="AF23" s="14"/>
-      <c r="AG23" s="30"/>
-      <c r="AH23" s="31"/>
+      <c r="AG23" s="35"/>
+      <c r="AH23" s="36"/>
       <c r="AI23" s="10"/>
-      <c r="AJ23" s="30"/>
-      <c r="AK23" s="31"/>
+      <c r="AJ23" s="35"/>
+      <c r="AK23" s="36"/>
       <c r="AL23" s="14"/>
       <c r="AM23" s="10"/>
       <c r="AN23" s="15"/>
@@ -4162,17 +4422,17 @@
       <c r="AR23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AS23" s="34">
+      <c r="AS23" s="39">
         <v>0.97058800000000001</v>
       </c>
-      <c r="AT23" s="35"/>
+      <c r="AT23" s="40"/>
       <c r="AU23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AV23" s="34">
+      <c r="AV23" s="39">
         <v>0.94117600000000001</v>
       </c>
-      <c r="AW23" s="35"/>
+      <c r="AW23" s="40"/>
       <c r="AX23" s="2"/>
       <c r="AY23" s="2"/>
       <c r="AZ23" s="2"/>
@@ -4201,7 +4461,7 @@
       <c r="BW23" s="2"/>
     </row>
     <row r="24" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="42"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="12"/>
       <c r="C24" s="11"/>
       <c r="D24" s="13"/>
@@ -4290,7 +4550,7 @@
       <c r="BW24" s="2"/>
     </row>
     <row r="25" spans="1:75" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="18"/>
@@ -4379,68 +4639,68 @@
       <c r="BW25" s="2"/>
     </row>
     <row r="27" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="32">
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="37">
         <f>AVERAGE(C2,F2,I2,L2,O2,R2,U2,X2,AA2,AD2,AG2,AJ2,AM2,AP2,AS2,AV2,I5,L5,O5,R5,U5,X5,AA5,AD5,AG5,AJ5,AM5,AP5,AS5,AV5,O8,R8,U8,X8,AA8,AD8,AG8,AJ8,AM8,AP8,AS8,AV8,U11,X11,AA11,AD11,AG11,AJ11,AM11,AP11,AS11,AV11,AA14,AD14,AG14,AJ14,AM14,AP14,AS14,AV14,AG17,AJ17,AM17,AP17,AS17,AV17,AM20,AP20,AS20,AV20,AS23,AV23)</f>
         <v>0.98617143055555567</v>
       </c>
-      <c r="G27" s="33"/>
-      <c r="K27" s="28" t="s">
+      <c r="G27" s="38"/>
+      <c r="K27" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="32">
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="37">
         <v>0.938967</v>
       </c>
-      <c r="R27" s="33"/>
+      <c r="R27" s="38"/>
     </row>
     <row r="28" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="29">
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34">
         <f>AVERAGE(B4,E4,H4,K4,N4,Q4,T4,W4,Z4,AC4,AF4,AI4,AL4,AO4,AR4,AU4,H7,K7,N7,Q7,T7,W7,Z7,AC7,AF7,AI7,AL7,AO7,AR7,AU7,N10,Q10,T10,W10,Z10,AC10,AF10,AI10,AL10,AO10,AR10,AU10,T13,W13,Z13,AC13,AF13,AI13,AL13,AO13,AR13,AU13,Z16,AC16,AF16,AI16,AL16,AO16,AR16,AU16,AF19,AI19,AL19,AO19,AR19,AU19,AL22,AO22,AR22,AU22,AR25,AU25)</f>
         <v>33.569444444444443</v>
       </c>
-      <c r="G28" s="29"/>
+      <c r="G28" s="34"/>
     </row>
     <row r="29" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="29">
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="34">
         <f>AVERAGE(C4,F4,I4,L4,O4,R4,U4,X4,AA4,AD4,AG4,AJ4,AM4,AP4,AS4,AV4,I7,L7,O7,O10,R7,R10,U7,U10,U13,X7,X10,X13,AA7,AA10,AA13,AA16,AD7,AD10,AD13,AD16,AG7,AG10,AG13,AG16,AG19,AJ7,AJ10,AJ13,AJ16,AJ19,AM7,AM10,AM13,AM16,AM19,AM22,AP7,AP10,AP13,AP16,AP19,AP22,AS7,AS10,AS13,AS16,AS19,AS22,AS25,AV7,AV10,AV13,AV16,AV19,AV25)</f>
         <v>42.647887323943664</v>
       </c>
-      <c r="G29" s="29"/>
+      <c r="G29" s="34"/>
     </row>
     <row r="30" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="29">
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="34">
         <f>AVERAGE(D4,G4,J4,J7,M4,M7,P4,P7,P10,S4,S7,S10,V4,V7,V10,V13,Y4,Y7,Y10,Y13,AB4,AB7,AB10,AB13,AB16,AE4,AE7,AE10,AE13,AE16,AH4,AH7,AH10,AH13,AH16,AH19,AK4,AK7,AK10,AK13,AK16,AK19,AN4,AN7,AN10,AN13,AN16,AN19,AN22,AQ4,AQ7,AQ10,AQ13,AQ16,AQ19,AQ22,AT4,AT7,AT10,AT13,AT16,AT19,AT22,AT25,AW4,AW7,AW10,AW13,AW16,AW19,AW22,AW25)</f>
         <v>42.527777777777779</v>
       </c>
-      <c r="G30" s="29"/>
+      <c r="G30" s="34"/>
     </row>
     <row r="39" spans="47:47" x14ac:dyDescent="0.2">
       <c r="AU39" s="20"/>
@@ -4590,267 +4850,267 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="AX2:XFD2 A2:AE2">
-    <cfRule type="cellIs" dxfId="54" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="84" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF2:AK2">
-    <cfRule type="cellIs" dxfId="53" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="83" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL2:AQ2">
-    <cfRule type="cellIs" dxfId="52" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="82" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR2:AW2">
-    <cfRule type="cellIs" dxfId="51" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="81" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:M5">
-    <cfRule type="cellIs" dxfId="50" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="79" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:S5">
-    <cfRule type="cellIs" dxfId="49" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="78" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:Y5">
-    <cfRule type="cellIs" dxfId="48" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="77" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z5:AE5">
-    <cfRule type="cellIs" dxfId="47" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="76" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF5:AK5">
-    <cfRule type="cellIs" dxfId="46" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="75" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL5:AQ5">
-    <cfRule type="cellIs" dxfId="45" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="74" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR5:AW5">
-    <cfRule type="cellIs" dxfId="44" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="73" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:G8">
-    <cfRule type="cellIs" dxfId="43" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="72" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:S8">
-    <cfRule type="cellIs" dxfId="42" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="70" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8:Y8">
-    <cfRule type="cellIs" dxfId="41" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="69" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8:AE8">
-    <cfRule type="cellIs" dxfId="40" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="68" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF8:AK8">
-    <cfRule type="cellIs" dxfId="39" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="67" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL8:AQ8">
-    <cfRule type="cellIs" dxfId="38" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="66" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR8:AW8">
-    <cfRule type="cellIs" dxfId="37" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="65" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:G11">
-    <cfRule type="cellIs" dxfId="36" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="64" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:M14">
-    <cfRule type="cellIs" dxfId="35" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11:Y11">
-    <cfRule type="cellIs" dxfId="34" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="61" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11:AE11">
-    <cfRule type="cellIs" dxfId="33" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="60" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF11:AK11">
-    <cfRule type="cellIs" dxfId="32" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="59" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL11:AQ11">
-    <cfRule type="cellIs" dxfId="31" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="58" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR11:AW11">
-    <cfRule type="cellIs" dxfId="30" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="57" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:G14">
-    <cfRule type="cellIs" dxfId="29" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="56" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z14:AE14">
-    <cfRule type="cellIs" dxfId="28" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="52" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF14:AK14">
-    <cfRule type="cellIs" dxfId="27" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="51" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL14:AQ14">
-    <cfRule type="cellIs" dxfId="26" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="50" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR14:AW14">
-    <cfRule type="cellIs" dxfId="25" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="49" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:G17">
-    <cfRule type="cellIs" dxfId="24" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="48" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:M17">
-    <cfRule type="cellIs" dxfId="23" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="47" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17:S17">
-    <cfRule type="cellIs" dxfId="22" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="46" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL17:AQ17">
-    <cfRule type="cellIs" dxfId="21" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="42" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF17:AK17">
-    <cfRule type="cellIs" dxfId="20" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="43" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR17:AW17">
-    <cfRule type="cellIs" dxfId="19" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="41" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:G20">
-    <cfRule type="cellIs" dxfId="18" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="40" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:M20">
-    <cfRule type="cellIs" dxfId="17" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="39" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20:S20">
-    <cfRule type="cellIs" dxfId="16" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="38" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20:Y20">
-    <cfRule type="cellIs" dxfId="15" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="37" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:G23">
-    <cfRule type="cellIs" dxfId="14" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR20:AW20">
-    <cfRule type="cellIs" dxfId="13" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="33" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:M23">
-    <cfRule type="cellIs" dxfId="12" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="31" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23:S23">
-    <cfRule type="cellIs" dxfId="11" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T23:Y23">
-    <cfRule type="cellIs" dxfId="10" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z23:AE23">
-    <cfRule type="cellIs" dxfId="9" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL20:AQ20">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR23:AW23">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF23:AK23">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z20:AE20">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17:Y17">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14:S14">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:M11">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4861,10 +5121,1978 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34A7FC4-4A22-4356-9923-FD64DF263193}">
-  <dimension ref="A1:BG38"/>
+  <dimension ref="A1:AM33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" style="4" customWidth="1"/>
+    <col min="2" max="33" width="7" style="3" customWidth="1"/>
+    <col min="34" max="38" width="11.42578125" style="3"/>
+    <col min="39" max="16384" width="11.42578125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="23">
+        <v>0.95330000000000004</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="24">
+        <v>0.95</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="23">
+        <v>0.99285699999999999</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="24">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="23">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="24">
+        <v>0.95935000000000004</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="23">
+        <v>0.96</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="24">
+        <v>0.9375</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="23">
+        <v>0.99285699999999999</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="24">
+        <v>0.99660000000000004</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="23">
+        <v>0.99660000000000004</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="24">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="23">
+        <v>0.86</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC2" s="24">
+        <v>0.89659999999999995</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE2" s="23">
+        <v>0.95330000000000004</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG2" s="23">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG3" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="5">
+        <v>23</v>
+      </c>
+      <c r="C4" s="7">
+        <v>34</v>
+      </c>
+      <c r="D4" s="6">
+        <v>25</v>
+      </c>
+      <c r="E4" s="6">
+        <v>32</v>
+      </c>
+      <c r="F4" s="5">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7">
+        <v>9</v>
+      </c>
+      <c r="H4" s="6">
+        <v>3</v>
+      </c>
+      <c r="I4" s="6">
+        <v>8</v>
+      </c>
+      <c r="J4" s="5">
+        <v>33</v>
+      </c>
+      <c r="K4" s="7">
+        <v>47</v>
+      </c>
+      <c r="L4" s="6">
+        <v>26</v>
+      </c>
+      <c r="M4" s="6">
+        <v>39</v>
+      </c>
+      <c r="N4" s="5">
+        <v>20</v>
+      </c>
+      <c r="O4" s="7">
+        <v>48</v>
+      </c>
+      <c r="P4" s="6">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>45</v>
+      </c>
+      <c r="R4" s="5">
+        <v>4</v>
+      </c>
+      <c r="S4" s="7">
+        <v>9</v>
+      </c>
+      <c r="T4" s="6">
+        <v>3</v>
+      </c>
+      <c r="U4" s="6">
+        <v>9</v>
+      </c>
+      <c r="V4" s="5">
+        <v>36</v>
+      </c>
+      <c r="W4" s="7">
+        <v>48</v>
+      </c>
+      <c r="X4" s="6">
+        <v>37</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>49</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>34</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>40</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>32</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>43</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>39</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>48</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>39</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>49</v>
+      </c>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+    </row>
+    <row r="5" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="24">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="23">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="24">
+        <v>0.953125</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="23">
+        <v>0.921875</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="24">
+        <v>0.921875</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="23">
+        <v>0.99642900000000001</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="U5" s="24">
+        <v>0.99333300000000002</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="23">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y5" s="24">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA5" s="23">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC5" s="24">
+        <v>0.96</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE5" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="AF5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG5" s="23">
+        <v>0.94374999999999998</v>
+      </c>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+    </row>
+    <row r="6" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="47"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+    </row>
+    <row r="7" spans="1:39" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="5">
+        <v>28</v>
+      </c>
+      <c r="G7" s="7">
+        <v>49</v>
+      </c>
+      <c r="H7" s="6">
+        <v>31</v>
+      </c>
+      <c r="I7" s="6">
+        <v>42</v>
+      </c>
+      <c r="J7" s="5">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7">
+        <v>14</v>
+      </c>
+      <c r="L7" s="6">
+        <v>11</v>
+      </c>
+      <c r="M7" s="6">
+        <v>12</v>
+      </c>
+      <c r="N7" s="5">
+        <v>9</v>
+      </c>
+      <c r="O7" s="7">
+        <v>12</v>
+      </c>
+      <c r="P7" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>12</v>
+      </c>
+      <c r="R7" s="5">
+        <v>1</v>
+      </c>
+      <c r="S7" s="7">
+        <v>48</v>
+      </c>
+      <c r="T7" s="6">
+        <v>4</v>
+      </c>
+      <c r="U7" s="6">
+        <v>49</v>
+      </c>
+      <c r="V7" s="5">
+        <v>38</v>
+      </c>
+      <c r="W7" s="7">
+        <v>46</v>
+      </c>
+      <c r="X7" s="6">
+        <v>37</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>49</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>36</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>11</v>
+      </c>
+      <c r="AC7" s="6">
+        <v>36</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>41</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>47</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="7">
+        <v>7</v>
+      </c>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+    </row>
+    <row r="8" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="23">
+        <v>0.99642799999999998</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="24">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="23">
+        <v>1</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="24">
+        <v>0.99</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="23">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="U8" s="24">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W8" s="23">
+        <v>0.99642699999999995</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="24">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA8" s="23">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC8" s="24">
+        <v>0.99660000000000004</v>
+      </c>
+      <c r="AD8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE8" s="23">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG8" s="23">
+        <v>0.99660000000000004</v>
+      </c>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+    </row>
+    <row r="9" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="50"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+    </row>
+    <row r="10" spans="1:39" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="5">
+        <v>32</v>
+      </c>
+      <c r="K10" s="7">
+        <v>41</v>
+      </c>
+      <c r="L10" s="6">
+        <v>34</v>
+      </c>
+      <c r="M10" s="6">
+        <v>49</v>
+      </c>
+      <c r="N10" s="5">
+        <v>15</v>
+      </c>
+      <c r="O10" s="7">
+        <v>49</v>
+      </c>
+      <c r="P10" s="6">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>49</v>
+      </c>
+      <c r="R10" s="5">
+        <v>23</v>
+      </c>
+      <c r="S10" s="7">
+        <v>30</v>
+      </c>
+      <c r="T10" s="6">
+        <v>21</v>
+      </c>
+      <c r="U10" s="6">
+        <v>49</v>
+      </c>
+      <c r="V10" s="5">
+        <v>4</v>
+      </c>
+      <c r="W10" s="7">
+        <v>7</v>
+      </c>
+      <c r="X10" s="6">
+        <v>26</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>49</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>31</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>49</v>
+      </c>
+      <c r="AB10" s="6">
+        <v>33</v>
+      </c>
+      <c r="AC10" s="6">
+        <v>49</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>35</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>48</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>36</v>
+      </c>
+      <c r="AG10" s="7">
+        <v>45</v>
+      </c>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+    </row>
+    <row r="11" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="23">
+        <v>0.939473</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="24">
+        <v>0.85</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" s="23">
+        <v>0.98571399999999998</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="U11" s="24">
+        <v>0.98</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W11" s="23">
+        <v>0.96764700000000003</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y11" s="24">
+        <v>0.95588200000000001</v>
+      </c>
+      <c r="Z11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA11" s="23">
+        <v>0.93529399999999996</v>
+      </c>
+      <c r="AB11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC11" s="24">
+        <v>0.92333299999999996</v>
+      </c>
+      <c r="AD11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE11" s="23">
+        <v>0.94333299999999998</v>
+      </c>
+      <c r="AF11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG11" s="23">
+        <v>0.828125</v>
+      </c>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+    </row>
+    <row r="12" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="47"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+    </row>
+    <row r="13" spans="1:39" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="48"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="5">
+        <v>11</v>
+      </c>
+      <c r="O13" s="7">
+        <v>15</v>
+      </c>
+      <c r="P13" s="6">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>21</v>
+      </c>
+      <c r="R13" s="5">
+        <v>4</v>
+      </c>
+      <c r="S13" s="7">
+        <v>7</v>
+      </c>
+      <c r="T13" s="6">
+        <v>3</v>
+      </c>
+      <c r="U13" s="6">
+        <v>6</v>
+      </c>
+      <c r="V13" s="5">
+        <v>3</v>
+      </c>
+      <c r="W13" s="7">
+        <v>9</v>
+      </c>
+      <c r="X13" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>10</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>23</v>
+      </c>
+      <c r="AA13" s="7">
+        <v>38</v>
+      </c>
+      <c r="AB13" s="6">
+        <v>23</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>28</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>10</v>
+      </c>
+      <c r="AE13" s="7">
+        <v>12</v>
+      </c>
+      <c r="AF13" s="5">
+        <v>17</v>
+      </c>
+      <c r="AG13" s="7">
+        <v>20</v>
+      </c>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+    </row>
+    <row r="14" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="23">
+        <v>0.96785699999999997</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="U14" s="24">
+        <v>0.96</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W14" s="23">
+        <v>0.982352</v>
+      </c>
+      <c r="X14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y14" s="24">
+        <v>0.98823499999999997</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA14" s="23">
+        <v>0.96176399999999995</v>
+      </c>
+      <c r="AB14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC14" s="24">
+        <v>0.94333299999999998</v>
+      </c>
+      <c r="AD14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE14" s="23">
+        <v>0.89666599999999996</v>
+      </c>
+      <c r="AF14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG14" s="23">
+        <v>0.90312499999999996</v>
+      </c>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+    </row>
+    <row r="15" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="47"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+    </row>
+    <row r="16" spans="1:39" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="48"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="5">
+        <v>15</v>
+      </c>
+      <c r="S16" s="7">
+        <v>49</v>
+      </c>
+      <c r="T16" s="6">
+        <v>13</v>
+      </c>
+      <c r="U16" s="6">
+        <v>25</v>
+      </c>
+      <c r="V16" s="5">
+        <v>4</v>
+      </c>
+      <c r="W16" s="7">
+        <v>9</v>
+      </c>
+      <c r="X16" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>9</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>18</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>24</v>
+      </c>
+      <c r="AB16" s="6">
+        <v>21</v>
+      </c>
+      <c r="AC16" s="6">
+        <v>29</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="7">
+        <v>7</v>
+      </c>
+      <c r="AF16" s="5">
+        <v>2</v>
+      </c>
+      <c r="AG16" s="7">
+        <v>8</v>
+      </c>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+    </row>
+    <row r="17" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W17" s="23">
+        <v>0.99642900000000001</v>
+      </c>
+      <c r="X17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y17" s="24">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA17" s="23">
+        <v>0.98214199999999996</v>
+      </c>
+      <c r="AB17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC17" s="24">
+        <v>0.98333300000000001</v>
+      </c>
+      <c r="AD17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE17" s="23">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="AF17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG17" s="23">
+        <v>0.99333300000000002</v>
+      </c>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+    </row>
+    <row r="18" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="47"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+    </row>
+    <row r="19" spans="1:39" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="48"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="5">
+        <v>4</v>
+      </c>
+      <c r="W19" s="7">
+        <v>7</v>
+      </c>
+      <c r="X19" s="6">
+        <v>5</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>9</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA19" s="7">
+        <v>7</v>
+      </c>
+      <c r="AB19" s="6">
+        <v>4</v>
+      </c>
+      <c r="AC19" s="6">
+        <v>7</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>2</v>
+      </c>
+      <c r="AE19" s="7">
+        <v>7</v>
+      </c>
+      <c r="AF19" s="5">
+        <v>3</v>
+      </c>
+      <c r="AG19" s="7">
+        <v>6</v>
+      </c>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+    </row>
+    <row r="20" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA20" s="23">
+        <v>0.98235300000000003</v>
+      </c>
+      <c r="AB20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC20" s="24">
+        <v>0.98</v>
+      </c>
+      <c r="AD20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE20" s="23">
+        <v>0.85333300000000001</v>
+      </c>
+      <c r="AF20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG20" s="23">
+        <v>0.84375</v>
+      </c>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+    </row>
+    <row r="21" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="47"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+    </row>
+    <row r="22" spans="1:39" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="48"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="5">
+        <v>27</v>
+      </c>
+      <c r="AA22" s="7">
+        <v>49</v>
+      </c>
+      <c r="AB22" s="6">
+        <v>28</v>
+      </c>
+      <c r="AC22" s="6">
+        <v>48</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>33</v>
+      </c>
+      <c r="AE22" s="7">
+        <v>49</v>
+      </c>
+      <c r="AF22" s="5">
+        <v>34</v>
+      </c>
+      <c r="AG22" s="7">
+        <v>45</v>
+      </c>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+    </row>
+    <row r="23" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE23" s="23">
+        <v>0.85333300000000001</v>
+      </c>
+      <c r="AF23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG23" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+    </row>
+    <row r="24" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="47"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+    </row>
+    <row r="25" spans="1:39" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="48"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="5">
+        <v>20</v>
+      </c>
+      <c r="AE25" s="7">
+        <v>23</v>
+      </c>
+      <c r="AF25" s="5">
+        <v>18</v>
+      </c>
+      <c r="AG25" s="7">
+        <v>22</v>
+      </c>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+    </row>
+    <row r="33" spans="32:32" x14ac:dyDescent="0.2">
+      <c r="AF33" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="V1:Y1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A2:XFD2 AD23:AG23 F5:AG5 J8:AG8 N11:AG11 R14:AG14 V17:AG17 Z20:AG20">
+    <cfRule type="cellIs" dxfId="16" priority="99" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC3DF52-2744-4164-B222-55FC3FE8B13B}">
+  <dimension ref="A1:BG34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4877,54 +7105,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="38" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="38" t="s">
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="38" t="s">
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="38" t="s">
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="38" t="s">
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="38" t="s">
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="38" t="s">
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
       <c r="AH1" s="2"/>
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
@@ -4953,125 +7181,125 @@
       <c r="BG1" s="2"/>
     </row>
     <row r="2" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="26">
-        <v>0.95330000000000004</v>
+      <c r="C2" s="23">
+        <v>0.97687500000000005</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="27">
-        <v>0.95</v>
+      <c r="E2" s="24">
+        <v>0.96526100000000004</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="26">
-        <v>0.99285699999999999</v>
+      <c r="G2" s="23">
+        <v>0.99406399999999995</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="27">
-        <v>0.99329999999999996</v>
+      <c r="I2" s="24">
+        <v>0.99377700000000002</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="26">
-        <v>0.98329999999999995</v>
+      <c r="K2" s="23">
+        <v>0.97583299999999995</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="27">
-        <v>0.95935000000000004</v>
+      <c r="M2" s="24">
+        <v>0.980522</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="26">
-        <v>0.96</v>
+      <c r="O2" s="23">
+        <v>0.98416599999999999</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="27">
-        <v>0.9375</v>
+      <c r="Q2" s="24">
+        <v>0.97550199999999998</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="26">
-        <v>0.99285699999999999</v>
+      <c r="S2" s="23">
+        <v>0.99154900000000001</v>
       </c>
       <c r="T2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="27">
-        <v>0.99660000000000004</v>
+      <c r="U2" s="24">
+        <v>0.99545399999999995</v>
       </c>
       <c r="V2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="26">
-        <v>0.99660000000000004</v>
+      <c r="W2" s="23">
+        <v>0.99020799999999998</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="27">
-        <v>1</v>
+      <c r="Y2" s="24">
+        <v>0.98634500000000003</v>
       </c>
       <c r="Z2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="26">
-        <v>0.86</v>
+      <c r="AA2" s="23">
+        <v>0.86833300000000002</v>
       </c>
       <c r="AB2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="27">
-        <v>0.89659999999999995</v>
+      <c r="AC2" s="24">
+        <v>0.91190400000000005</v>
       </c>
       <c r="AD2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AE2" s="26">
-        <v>0.95330000000000004</v>
+      <c r="AE2" s="23">
+        <v>0.95886000000000005</v>
       </c>
       <c r="AF2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AG2" s="26">
-        <v>0.95</v>
+      <c r="AG2" s="23">
+        <v>0.94562500000000005</v>
       </c>
     </row>
     <row r="3" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>9</v>
+      <c r="G3" s="13">
+        <v>100</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>10</v>
@@ -5152,133 +7380,133 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="5">
+    <row r="4" spans="1:59" s="32" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="28">
         <v>23</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="29">
         <v>34</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="30">
         <v>25</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="30">
         <v>32</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="28">
         <v>3</v>
       </c>
-      <c r="G4" s="7">
-        <v>9</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="G4" s="29">
+        <v>9</v>
+      </c>
+      <c r="H4" s="30">
         <v>3</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="30">
         <v>8</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="28">
         <v>33</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="29">
         <v>47</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="30">
         <v>26</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="30">
         <v>39</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="28">
         <v>20</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="29">
         <v>48</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="30">
         <v>21</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="30">
         <v>45</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="28">
         <v>4</v>
       </c>
-      <c r="S4" s="7">
-        <v>9</v>
-      </c>
-      <c r="T4" s="6">
+      <c r="S4" s="29">
+        <v>9</v>
+      </c>
+      <c r="T4" s="30">
         <v>3</v>
       </c>
-      <c r="U4" s="6">
-        <v>9</v>
-      </c>
-      <c r="V4" s="5">
+      <c r="U4" s="30">
+        <v>9</v>
+      </c>
+      <c r="V4" s="28">
         <v>36</v>
       </c>
-      <c r="W4" s="7">
+      <c r="W4" s="29">
         <v>48</v>
       </c>
-      <c r="X4" s="6">
+      <c r="X4" s="30">
         <v>37</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="Y4" s="30">
         <v>49</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="Z4" s="28">
         <v>34</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="AA4" s="29">
         <v>40</v>
       </c>
-      <c r="AB4" s="6">
+      <c r="AB4" s="30">
         <v>32</v>
       </c>
-      <c r="AC4" s="6">
+      <c r="AC4" s="30">
         <v>43</v>
       </c>
-      <c r="AD4" s="5">
+      <c r="AD4" s="28">
         <v>39</v>
       </c>
-      <c r="AE4" s="7">
+      <c r="AE4" s="29">
         <v>48</v>
       </c>
-      <c r="AF4" s="6">
+      <c r="AF4" s="30">
         <v>39</v>
       </c>
-      <c r="AG4" s="7">
+      <c r="AG4" s="29">
         <v>49</v>
       </c>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="2"/>
-      <c r="AY4" s="2"/>
-      <c r="AZ4" s="2"/>
-      <c r="BA4" s="2"/>
-      <c r="BB4" s="2"/>
-      <c r="BC4" s="2"/>
-      <c r="BD4" s="2"/>
-      <c r="BE4" s="2"/>
-      <c r="BF4" s="2"/>
-      <c r="BG4" s="2"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="31"/>
+      <c r="AQ4" s="31"/>
+      <c r="AR4" s="31"/>
+      <c r="AS4" s="31"/>
+      <c r="AT4" s="31"/>
+      <c r="AU4" s="31"/>
+      <c r="AV4" s="31"/>
+      <c r="AW4" s="31"/>
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="31"/>
+      <c r="AZ4" s="31"/>
+      <c r="BA4" s="31"/>
+      <c r="BB4" s="31"/>
+      <c r="BC4" s="31"/>
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="31"/>
+      <c r="BF4" s="31"/>
+      <c r="BG4" s="31"/>
     </row>
     <row r="5" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="14"/>
@@ -5288,71 +7516,87 @@
       <c r="F5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="26">
-        <v>0.99639999999999995</v>
+      <c r="G5" s="23">
+        <v>0.97351600000000005</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="24">
+        <v>0.95488799999999996</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="23">
+        <v>0.97154499999999999</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="24">
+        <v>0.96606400000000003</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="23">
+        <v>0.96869899999999998</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="24">
+        <v>0.95762999999999998</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="23">
         <v>1</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="26">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="27">
-        <v>0.953125</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="26">
-        <v>0.921875</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5" s="27">
-        <v>0.921875</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5" s="26"/>
       <c r="T5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="27"/>
+      <c r="U5" s="24">
+        <v>0.99567099999999997</v>
+      </c>
       <c r="V5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="W5" s="26"/>
+      <c r="W5" s="23">
+        <v>0.97540700000000002</v>
+      </c>
       <c r="X5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Y5" s="27"/>
+      <c r="Y5" s="24">
+        <v>0.980522</v>
+      </c>
       <c r="Z5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA5" s="26"/>
+      <c r="AA5" s="23">
+        <v>0.987398</v>
+      </c>
       <c r="AB5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE5" s="26"/>
+      <c r="AC5" s="24">
+        <v>0.98679700000000004</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE5" s="23">
+        <v>0.93544300000000002</v>
+      </c>
       <c r="AF5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AG5" s="26"/>
+      <c r="AG5" s="23">
+        <v>0.96</v>
+      </c>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
@@ -5381,7 +7625,7 @@
       <c r="BG5" s="2"/>
     </row>
     <row r="6" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="42"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="12"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -5498,7 +7742,7 @@
       <c r="BG6" s="2"/>
     </row>
     <row r="7" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -5539,22 +7783,54 @@
       <c r="Q7" s="6">
         <v>12</v>
       </c>
-      <c r="R7" s="5"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="7"/>
+      <c r="R7" s="5">
+        <v>1</v>
+      </c>
+      <c r="S7" s="7">
+        <v>48</v>
+      </c>
+      <c r="T7" s="6">
+        <v>4</v>
+      </c>
+      <c r="U7" s="6">
+        <v>49</v>
+      </c>
+      <c r="V7" s="5">
+        <v>38</v>
+      </c>
+      <c r="W7" s="7">
+        <v>46</v>
+      </c>
+      <c r="X7" s="6">
+        <v>37</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>49</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>36</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>11</v>
+      </c>
+      <c r="AC7" s="6">
+        <v>36</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>41</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>47</v>
+      </c>
+      <c r="AF7" s="6">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="7">
+        <v>7</v>
+      </c>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
@@ -5583,7 +7859,7 @@
       <c r="BG7" s="2"/>
     </row>
     <row r="8" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="46" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="14"/>
@@ -5597,51 +7873,75 @@
       <c r="J8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="26"/>
+      <c r="K8" s="23">
+        <v>0.98858400000000002</v>
+      </c>
       <c r="L8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="27"/>
+      <c r="M8" s="24">
+        <v>0.99088799999999999</v>
+      </c>
       <c r="N8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="26"/>
+      <c r="O8" s="23">
+        <v>0.99863000000000002</v>
+      </c>
       <c r="P8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="27"/>
+      <c r="Q8" s="24">
+        <v>0.973777</v>
+      </c>
       <c r="R8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="26"/>
+      <c r="S8" s="23">
+        <v>0.92018800000000001</v>
+      </c>
       <c r="T8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="U8" s="27"/>
+      <c r="U8" s="24">
+        <v>0.95311100000000004</v>
+      </c>
       <c r="V8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="W8" s="26"/>
+      <c r="W8" s="23">
+        <v>0.99292199999999997</v>
+      </c>
       <c r="X8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Y8" s="27"/>
+      <c r="Y8" s="24">
+        <v>0.99511099999999997</v>
+      </c>
       <c r="Z8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA8" s="26"/>
+      <c r="AA8" s="23">
+        <v>0.97374400000000005</v>
+      </c>
       <c r="AB8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AC8" s="27"/>
+      <c r="AC8" s="24">
+        <v>0.97666600000000003</v>
+      </c>
       <c r="AD8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AE8" s="26"/>
+      <c r="AE8" s="23">
+        <v>0.97237399999999996</v>
+      </c>
       <c r="AF8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AG8" s="26"/>
+      <c r="AG8" s="23">
+        <v>0.96666600000000003</v>
+      </c>
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
@@ -5670,7 +7970,7 @@
       <c r="BG8" s="2"/>
     </row>
     <row r="9" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="42"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="12"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -5779,7 +8079,7 @@
       <c r="BG9" s="2"/>
     </row>
     <row r="10" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="16"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -5788,30 +8088,78 @@
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="7"/>
+      <c r="J10" s="5">
+        <v>32</v>
+      </c>
+      <c r="K10" s="7">
+        <v>41</v>
+      </c>
+      <c r="L10" s="6">
+        <v>34</v>
+      </c>
+      <c r="M10" s="6">
+        <v>49</v>
+      </c>
+      <c r="N10" s="5">
+        <v>15</v>
+      </c>
+      <c r="O10" s="7">
+        <v>49</v>
+      </c>
+      <c r="P10" s="6">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>49</v>
+      </c>
+      <c r="R10" s="5">
+        <v>23</v>
+      </c>
+      <c r="S10" s="7">
+        <v>30</v>
+      </c>
+      <c r="T10" s="6">
+        <v>21</v>
+      </c>
+      <c r="U10" s="6">
+        <v>49</v>
+      </c>
+      <c r="V10" s="5">
+        <v>4</v>
+      </c>
+      <c r="W10" s="7">
+        <v>7</v>
+      </c>
+      <c r="X10" s="6">
+        <v>26</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>49</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>31</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>49</v>
+      </c>
+      <c r="AB10" s="6">
+        <v>33</v>
+      </c>
+      <c r="AC10" s="6">
+        <v>49</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>35</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>48</v>
+      </c>
+      <c r="AF10" s="6">
+        <v>36</v>
+      </c>
+      <c r="AG10" s="7">
+        <v>45</v>
+      </c>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
@@ -5840,7 +8188,7 @@
       <c r="BG10" s="2"/>
     </row>
     <row r="11" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="46" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="14"/>
@@ -5858,43 +8206,63 @@
       <c r="N11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="26"/>
+      <c r="O11" s="23">
+        <v>0.95481099999999997</v>
+      </c>
       <c r="P11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Q11" s="27"/>
+      <c r="Q11" s="24">
+        <v>0.89280700000000002</v>
+      </c>
       <c r="R11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="S11" s="26"/>
+      <c r="S11" s="23">
+        <v>0.99037500000000001</v>
+      </c>
       <c r="T11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="U11" s="27"/>
+      <c r="U11" s="24">
+        <v>0.97965400000000002</v>
+      </c>
       <c r="V11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="W11" s="26"/>
+      <c r="W11" s="23">
+        <v>0.98014900000000005</v>
+      </c>
       <c r="X11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Y11" s="27"/>
+      <c r="Y11" s="24">
+        <v>0.97827699999999995</v>
+      </c>
       <c r="Z11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA11" s="26"/>
+      <c r="AA11" s="23">
+        <v>0.96174199999999999</v>
+      </c>
       <c r="AB11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AC11" s="27"/>
+      <c r="AC11" s="24">
+        <v>0.94935099999999994</v>
+      </c>
       <c r="AD11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AE11" s="26"/>
+      <c r="AE11" s="23">
+        <v>0.89599099999999998</v>
+      </c>
       <c r="AF11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AG11" s="26"/>
+      <c r="AG11" s="23">
+        <v>0.89395800000000003</v>
+      </c>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
@@ -5923,7 +8291,7 @@
       <c r="BG11" s="2"/>
     </row>
     <row r="12" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="42"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="12"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -6024,7 +8392,7 @@
       <c r="BG12" s="2"/>
     </row>
     <row r="13" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="16"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -6037,26 +8405,66 @@
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="7"/>
+      <c r="N13" s="5">
+        <v>11</v>
+      </c>
+      <c r="O13" s="7">
+        <v>15</v>
+      </c>
+      <c r="P13" s="6">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>21</v>
+      </c>
+      <c r="R13" s="5">
+        <v>4</v>
+      </c>
+      <c r="S13" s="7">
+        <v>7</v>
+      </c>
+      <c r="T13" s="6">
+        <v>3</v>
+      </c>
+      <c r="U13" s="6">
+        <v>6</v>
+      </c>
+      <c r="V13" s="5">
+        <v>3</v>
+      </c>
+      <c r="W13" s="7">
+        <v>9</v>
+      </c>
+      <c r="X13" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>10</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>23</v>
+      </c>
+      <c r="AA13" s="7">
+        <v>38</v>
+      </c>
+      <c r="AB13" s="6">
+        <v>23</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>28</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>10</v>
+      </c>
+      <c r="AE13" s="7">
+        <v>12</v>
+      </c>
+      <c r="AF13" s="6">
+        <v>17</v>
+      </c>
+      <c r="AG13" s="7">
+        <v>20</v>
+      </c>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
@@ -6085,7 +8493,7 @@
       <c r="BG13" s="2"/>
     </row>
     <row r="14" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="46" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="14"/>
@@ -6107,35 +8515,51 @@
       <c r="R14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="S14" s="26"/>
+      <c r="S14" s="23">
+        <v>0.99389700000000003</v>
+      </c>
       <c r="T14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="U14" s="27"/>
+      <c r="U14" s="24">
+        <v>0.99134199999999995</v>
+      </c>
       <c r="V14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="W14" s="26"/>
+      <c r="W14" s="23">
+        <v>0.98146100000000003</v>
+      </c>
       <c r="X14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Y14" s="27"/>
+      <c r="Y14" s="24">
+        <v>0.99026199999999998</v>
+      </c>
       <c r="Z14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA14" s="26"/>
+      <c r="AA14" s="23">
+        <v>0.98674200000000001</v>
+      </c>
       <c r="AB14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AC14" s="27"/>
+      <c r="AC14" s="24">
+        <v>0.97164499999999998</v>
+      </c>
       <c r="AD14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AE14" s="26"/>
+      <c r="AE14" s="23">
+        <v>0.93122400000000005</v>
+      </c>
       <c r="AF14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AG14" s="26"/>
+      <c r="AG14" s="23">
+        <v>0.952708</v>
+      </c>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
@@ -6164,7 +8588,7 @@
       <c r="BG14" s="2"/>
     </row>
     <row r="15" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="42"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="12"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -6257,7 +8681,7 @@
       <c r="BG15" s="2"/>
     </row>
     <row r="16" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="16"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -6274,22 +8698,54 @@
       <c r="O16" s="17"/>
       <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="7"/>
+      <c r="R16" s="5">
+        <v>15</v>
+      </c>
+      <c r="S16" s="7">
+        <v>49</v>
+      </c>
+      <c r="T16" s="6">
+        <v>13</v>
+      </c>
+      <c r="U16" s="6">
+        <v>25</v>
+      </c>
+      <c r="V16" s="5">
+        <v>4</v>
+      </c>
+      <c r="W16" s="7">
+        <v>9</v>
+      </c>
+      <c r="X16" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>9</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>18</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>24</v>
+      </c>
+      <c r="AB16" s="6">
+        <v>21</v>
+      </c>
+      <c r="AC16" s="6">
+        <v>29</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="7">
+        <v>7</v>
+      </c>
+      <c r="AF16" s="6">
+        <v>2</v>
+      </c>
+      <c r="AG16" s="7">
+        <v>8</v>
+      </c>
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
@@ -6318,7 +8774,7 @@
       <c r="BG16" s="2"/>
     </row>
     <row r="17" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="46" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="14"/>
@@ -6344,27 +8800,39 @@
       <c r="V17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="W17" s="26"/>
+      <c r="W17" s="23">
+        <v>0.99342699999999995</v>
+      </c>
       <c r="X17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Y17" s="27"/>
+      <c r="Y17" s="24">
+        <v>0.99848400000000004</v>
+      </c>
       <c r="Z17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA17" s="26"/>
+      <c r="AA17" s="23">
+        <v>0.983568</v>
+      </c>
       <c r="AB17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AC17" s="27"/>
+      <c r="AC17" s="24">
+        <v>0.989394</v>
+      </c>
       <c r="AD17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AE17" s="26"/>
+      <c r="AE17" s="23">
+        <v>0.99507000000000001</v>
+      </c>
       <c r="AF17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AG17" s="26"/>
+      <c r="AG17" s="23">
+        <v>0.989394</v>
+      </c>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
@@ -6393,7 +8861,7 @@
       <c r="BG17" s="2"/>
     </row>
     <row r="18" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="42"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="12"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -6478,7 +8946,7 @@
       <c r="BG18" s="2"/>
     </row>
     <row r="19" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="16"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -6499,18 +8967,42 @@
       <c r="S19" s="17"/>
       <c r="T19" s="17"/>
       <c r="U19" s="17"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="7"/>
+      <c r="V19" s="5">
+        <v>4</v>
+      </c>
+      <c r="W19" s="7">
+        <v>7</v>
+      </c>
+      <c r="X19" s="6">
+        <v>5</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>9</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA19" s="7">
+        <v>7</v>
+      </c>
+      <c r="AB19" s="6">
+        <v>4</v>
+      </c>
+      <c r="AC19" s="6">
+        <v>7</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>2</v>
+      </c>
+      <c r="AE19" s="7">
+        <v>7</v>
+      </c>
+      <c r="AF19" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG19" s="7">
+        <v>6</v>
+      </c>
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
@@ -6539,7 +9031,7 @@
       <c r="BG19" s="2"/>
     </row>
     <row r="20" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="46" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="14"/>
@@ -6569,19 +9061,27 @@
       <c r="Z20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA20" s="26"/>
+      <c r="AA20" s="23">
+        <v>0.96420499999999998</v>
+      </c>
       <c r="AB20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AC20" s="27"/>
+      <c r="AC20" s="24">
+        <v>0.96320300000000003</v>
+      </c>
       <c r="AD20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AE20" s="26"/>
+      <c r="AE20" s="23">
+        <v>0.81434600000000001</v>
+      </c>
       <c r="AF20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AG20" s="26"/>
+      <c r="AG20" s="23">
+        <v>0.82145800000000002</v>
+      </c>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
@@ -6610,7 +9110,7 @@
       <c r="BG20" s="2"/>
     </row>
     <row r="21" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="12"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -6687,7 +9187,7 @@
       <c r="BG21" s="2"/>
     </row>
     <row r="22" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -6712,14 +9212,30 @@
       <c r="W22" s="17"/>
       <c r="X22" s="17"/>
       <c r="Y22" s="17"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="7"/>
+      <c r="Z22" s="5">
+        <v>27</v>
+      </c>
+      <c r="AA22" s="7">
+        <v>49</v>
+      </c>
+      <c r="AB22" s="6">
+        <v>28</v>
+      </c>
+      <c r="AC22" s="6">
+        <v>48</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>33</v>
+      </c>
+      <c r="AE22" s="7">
+        <v>49</v>
+      </c>
+      <c r="AF22" s="6">
+        <v>34</v>
+      </c>
+      <c r="AG22" s="7">
+        <v>45</v>
+      </c>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
@@ -6748,7 +9264,7 @@
       <c r="BG22" s="2"/>
     </row>
     <row r="23" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="46" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="14"/>
@@ -6782,11 +9298,15 @@
       <c r="AD23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AE23" s="26"/>
+      <c r="AE23" s="23">
+        <v>0.89662399999999998</v>
+      </c>
       <c r="AF23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AG23" s="26"/>
+      <c r="AG23" s="23">
+        <v>0.96471899999999999</v>
+      </c>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
@@ -6815,7 +9335,7 @@
       <c r="BG23" s="2"/>
     </row>
     <row r="24" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="42"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="12"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -6884,7 +9404,7 @@
       <c r="BG24" s="2"/>
     </row>
     <row r="25" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -6913,10 +9433,18 @@
       <c r="AA25" s="17"/>
       <c r="AB25" s="17"/>
       <c r="AC25" s="17"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="6"/>
-      <c r="AG25" s="7"/>
+      <c r="AD25" s="5">
+        <v>20</v>
+      </c>
+      <c r="AE25" s="7">
+        <v>23</v>
+      </c>
+      <c r="AF25" s="6">
+        <v>18</v>
+      </c>
+      <c r="AG25" s="7">
+        <v>22</v>
+      </c>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
       <c r="AJ25" s="2"/>
@@ -6945,71 +9473,71 @@
       <c r="BG25" s="2"/>
     </row>
     <row r="27" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="32">
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="37">
         <f>AVERAGE(C2,E2,G2,I2,K2,M2,O2,Q2,S2,U2,W2,Y2,AA2,AC2,AE2,AG2,G5,I5,K5,M5,O5,Q5,S5,U5,W5,Y5,AA5,AC5,AE5,AG5,K8,M8,O8,Q8,S8,U8,W8,Y8,AA8,AC8,AE8,AG8,O11,Q11,S11,U11,W11,Y11,AA11,AC11,AE11,AG11,S14,U14,W14,Y14,AA14,AC14,AE14,AG14,W17,Y17,AA17,AC17,AE17,AG17,AA20,AC20,AE20,AG20,AE23,AG23)</f>
-        <v>0.96108359090909101</v>
-      </c>
-      <c r="F27" s="32"/>
+        <v>0.96473343055555583</v>
+      </c>
+      <c r="F27" s="37"/>
     </row>
     <row r="28" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="29">
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34">
         <f>AVERAGE(B4,D4,F4,H4,J4,L4,N4,P4,R4,T4,V4,X4,Z4,AB4,AD4,AF4,F7,H7,J7,L7,N7,P7,R7,T7,V7,X7,Z7,AB7,AD7,AF7,J10,L10,N10,P10,R10,T10,V10,X10,Z10,AB10,AD10,AF10,N13,P13,R13,T13,V13,X13,Z13,AB13,AD13,AF13,R16,T16,V16,X16,Z16,AB16,AD16,AF16,V19,X19,Z19,AB19,AD19,AF19,Z22,AB22,AD22,AF22,AD25,AF25)</f>
-        <v>21.727272727272727</v>
-      </c>
-      <c r="F28" s="29"/>
+        <v>18.236111111111111</v>
+      </c>
+      <c r="F28" s="34"/>
     </row>
     <row r="29" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="29">
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="34">
         <f>AVERAGE(C4,E4,G4,I4,K4,M4,O4,Q4,S4,U4,W4,Y4,AA4,AC4,AE4,AG4,G7,I7,K7,K10,M7,M10,O7,O10,O13,Q7,Q10,Q13,S7,S10,S13,S16,U7,U10,U13,U16,W7,W10,W13,W16,W19,Y7,Y10,Y13,Y16,Y19,AA7,AA10,AA13,AA16,AA19,AA22,AC7,AC10,AC13,AC16,AC19,AC22,AE7,AE10,AE13,AE16,AE19,AE22,AE25,AG7,AG10,AG13,AG16,AG19,AG25)</f>
-        <v>31.727272727272727</v>
-      </c>
-      <c r="F29" s="29"/>
+        <v>29.43661971830986</v>
+      </c>
+      <c r="F29" s="34"/>
     </row>
-    <row r="38" spans="32:32" x14ac:dyDescent="0.2">
-      <c r="AF38" s="20"/>
+    <row r="34" spans="32:32" x14ac:dyDescent="0.2">
+      <c r="AF34" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A14:A16"/>
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="A11:A13"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:Y1"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:E8 B14:M14 B17:Q17 B20:U20 B23:Y23 B11:I11 AD23:AG23 A2:XFD2 F5:AG5 J8:AG8 N11:AG11 R14:AG14 V17:AG17 Z20:AG20">
-    <cfRule type="cellIs" dxfId="1" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>100%</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7018,12 +9546,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC3DF52-2744-4164-B222-55FC3FE8B13B}">
-  <dimension ref="A1:BG38"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00546554-0485-4548-AF2A-F69C35082F7D}">
+  <dimension ref="A1:BG34"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -7036,54 +9564,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="38" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="38" t="s">
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="38" t="s">
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="38" t="s">
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="38" t="s">
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="38" t="s">
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="38" t="s">
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
       <c r="AH1" s="2"/>
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
@@ -7112,93 +9640,125 @@
       <c r="BG1" s="2"/>
     </row>
     <row r="2" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="23">
+        <v>0.99711099999999997</v>
+      </c>
       <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="24">
+        <v>0.99219400000000002</v>
+      </c>
       <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="26"/>
+      <c r="G2" s="23">
+        <v>1</v>
+      </c>
       <c r="H2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="27"/>
+      <c r="I2" s="24">
+        <v>1</v>
+      </c>
       <c r="J2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="26"/>
+      <c r="K2" s="23">
+        <v>0.98830799999999996</v>
+      </c>
       <c r="L2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="27"/>
+      <c r="M2" s="24">
+        <v>0.99444399999999999</v>
+      </c>
       <c r="N2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="26"/>
+      <c r="O2" s="23">
+        <v>0.98982599999999998</v>
+      </c>
       <c r="P2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="27"/>
+      <c r="Q2" s="24">
+        <v>0.99166600000000005</v>
+      </c>
       <c r="R2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="26"/>
+      <c r="S2" s="23">
+        <v>1</v>
+      </c>
       <c r="T2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="27"/>
+      <c r="U2" s="24">
+        <v>1</v>
+      </c>
       <c r="V2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="26"/>
+      <c r="W2" s="23">
+        <v>0.99907400000000002</v>
+      </c>
       <c r="X2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="27"/>
+      <c r="Y2" s="24">
+        <v>0.99662099999999998</v>
+      </c>
       <c r="Z2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="26"/>
+      <c r="AA2" s="23">
+        <v>0.907142</v>
+      </c>
       <c r="AB2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="27"/>
+      <c r="AC2" s="24">
+        <v>0.921296</v>
+      </c>
       <c r="AD2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AE2" s="26"/>
+      <c r="AE2" s="23">
+        <v>0.98286300000000004</v>
+      </c>
       <c r="AF2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AG2" s="26"/>
+      <c r="AG2" s="23">
+        <v>0.97579899999999997</v>
+      </c>
     </row>
     <row r="3" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>9</v>
+      <c r="G3" s="13">
+        <v>100</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>10</v>
@@ -7279,73 +9839,133 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="5">
+    <row r="4" spans="1:59" s="32" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="28">
+        <v>23</v>
+      </c>
+      <c r="C4" s="29">
+        <v>34</v>
+      </c>
+      <c r="D4" s="30">
+        <v>25</v>
+      </c>
+      <c r="E4" s="30">
+        <v>32</v>
+      </c>
+      <c r="F4" s="28">
+        <v>3</v>
+      </c>
+      <c r="G4" s="29">
+        <v>9</v>
+      </c>
+      <c r="H4" s="30">
+        <v>3</v>
+      </c>
+      <c r="I4" s="30">
+        <v>8</v>
+      </c>
+      <c r="J4" s="28">
+        <v>33</v>
+      </c>
+      <c r="K4" s="29">
+        <v>47</v>
+      </c>
+      <c r="L4" s="30">
+        <v>26</v>
+      </c>
+      <c r="M4" s="30">
+        <v>39</v>
+      </c>
+      <c r="N4" s="28">
         <v>20</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="29">
         <v>48</v>
       </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="2"/>
-      <c r="AY4" s="2"/>
-      <c r="AZ4" s="2"/>
-      <c r="BA4" s="2"/>
-      <c r="BB4" s="2"/>
-      <c r="BC4" s="2"/>
-      <c r="BD4" s="2"/>
-      <c r="BE4" s="2"/>
-      <c r="BF4" s="2"/>
-      <c r="BG4" s="2"/>
+      <c r="P4" s="30">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="30">
+        <v>45</v>
+      </c>
+      <c r="R4" s="28">
+        <v>4</v>
+      </c>
+      <c r="S4" s="29">
+        <v>9</v>
+      </c>
+      <c r="T4" s="30">
+        <v>3</v>
+      </c>
+      <c r="U4" s="30">
+        <v>9</v>
+      </c>
+      <c r="V4" s="28">
+        <v>36</v>
+      </c>
+      <c r="W4" s="29">
+        <v>48</v>
+      </c>
+      <c r="X4" s="30">
+        <v>37</v>
+      </c>
+      <c r="Y4" s="30">
+        <v>49</v>
+      </c>
+      <c r="Z4" s="28">
+        <v>34</v>
+      </c>
+      <c r="AA4" s="29">
+        <v>40</v>
+      </c>
+      <c r="AB4" s="30">
+        <v>32</v>
+      </c>
+      <c r="AC4" s="30">
+        <v>43</v>
+      </c>
+      <c r="AD4" s="28">
+        <v>39</v>
+      </c>
+      <c r="AE4" s="29">
+        <v>48</v>
+      </c>
+      <c r="AF4" s="30">
+        <v>39</v>
+      </c>
+      <c r="AG4" s="29">
+        <v>49</v>
+      </c>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="31"/>
+      <c r="AQ4" s="31"/>
+      <c r="AR4" s="31"/>
+      <c r="AS4" s="31"/>
+      <c r="AT4" s="31"/>
+      <c r="AU4" s="31"/>
+      <c r="AV4" s="31"/>
+      <c r="AW4" s="31"/>
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="31"/>
+      <c r="AZ4" s="31"/>
+      <c r="BA4" s="31"/>
+      <c r="BB4" s="31"/>
+      <c r="BC4" s="31"/>
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="31"/>
+      <c r="BF4" s="31"/>
+      <c r="BG4" s="31"/>
     </row>
     <row r="5" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="14"/>
@@ -7355,59 +9975,87 @@
       <c r="F5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="26"/>
+      <c r="G5" s="23">
+        <v>0.987626</v>
+      </c>
       <c r="H5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="27"/>
+      <c r="I5" s="24">
+        <v>0.98407960000000005</v>
+      </c>
       <c r="J5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="26"/>
+      <c r="K5" s="23">
+        <v>1</v>
+      </c>
       <c r="L5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="27"/>
+      <c r="M5" s="24">
+        <v>0.98755199999999999</v>
+      </c>
       <c r="N5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="26"/>
+      <c r="O5" s="23">
+        <v>0.99802599999999997</v>
+      </c>
       <c r="P5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="27"/>
+      <c r="Q5" s="24">
+        <v>0.99355550000000004</v>
+      </c>
       <c r="R5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="S5" s="26"/>
+      <c r="S5" s="23">
+        <v>1</v>
+      </c>
       <c r="T5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="27"/>
+      <c r="U5" s="24">
+        <v>1</v>
+      </c>
       <c r="V5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="W5" s="26"/>
+      <c r="W5" s="23">
+        <v>0.98157890000000003</v>
+      </c>
       <c r="X5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Y5" s="27"/>
+      <c r="Y5" s="24">
+        <v>0.98960999999999999</v>
+      </c>
       <c r="Z5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA5" s="26"/>
+      <c r="AA5" s="23">
+        <v>0.99978599999999995</v>
+      </c>
       <c r="AB5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE5" s="26"/>
+      <c r="AC5" s="24">
+        <v>0.99882599999999999</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE5" s="23">
+        <v>0.97769950000000005</v>
+      </c>
       <c r="AF5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AG5" s="26"/>
+      <c r="AG5" s="23">
+        <v>0.99414400000000003</v>
+      </c>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
@@ -7436,7 +10084,7 @@
       <c r="BG5" s="2"/>
     </row>
     <row r="6" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="42"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="12"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -7553,39 +10201,95 @@
       <c r="BG6" s="2"/>
     </row>
     <row r="7" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="7"/>
+      <c r="F7" s="5">
+        <v>28</v>
+      </c>
+      <c r="G7" s="7">
+        <v>49</v>
+      </c>
+      <c r="H7" s="6">
+        <v>31</v>
+      </c>
+      <c r="I7" s="6">
+        <v>42</v>
+      </c>
+      <c r="J7" s="5">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7">
+        <v>14</v>
+      </c>
+      <c r="L7" s="6">
+        <v>11</v>
+      </c>
+      <c r="M7" s="6">
+        <v>12</v>
+      </c>
+      <c r="N7" s="5">
+        <v>9</v>
+      </c>
+      <c r="O7" s="7">
+        <v>12</v>
+      </c>
+      <c r="P7" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>12</v>
+      </c>
+      <c r="R7" s="5">
+        <v>1</v>
+      </c>
+      <c r="S7" s="7">
+        <v>48</v>
+      </c>
+      <c r="T7" s="6">
+        <v>4</v>
+      </c>
+      <c r="U7" s="6">
+        <v>49</v>
+      </c>
+      <c r="V7" s="5">
+        <v>38</v>
+      </c>
+      <c r="W7" s="7">
+        <v>46</v>
+      </c>
+      <c r="X7" s="6">
+        <v>37</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>49</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>36</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>11</v>
+      </c>
+      <c r="AC7" s="6">
+        <v>36</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>41</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>47</v>
+      </c>
+      <c r="AF7" s="6">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="7">
+        <v>7</v>
+      </c>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
@@ -7614,13 +10318,13 @@
       <c r="BG7" s="2"/>
     </row>
     <row r="8" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="46" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="24"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="24"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="14"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -7628,51 +10332,75 @@
       <c r="J8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="26"/>
+      <c r="K8" s="23">
+        <v>0.99420200000000003</v>
+      </c>
       <c r="L8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="27"/>
+      <c r="M8" s="24">
+        <v>0.98875599999999997</v>
+      </c>
       <c r="N8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="26"/>
+      <c r="O8" s="23">
+        <v>0.99947900000000001</v>
+      </c>
       <c r="P8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="27"/>
+      <c r="Q8" s="24">
+        <v>0.99328300000000003</v>
+      </c>
       <c r="R8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="26"/>
+      <c r="S8" s="23">
+        <v>0.94589699999999999</v>
+      </c>
       <c r="T8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="U8" s="27"/>
+      <c r="U8" s="24">
+        <v>0.97864600000000002</v>
+      </c>
       <c r="V8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="W8" s="26"/>
+      <c r="W8" s="23">
+        <v>1</v>
+      </c>
       <c r="X8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Y8" s="27"/>
+      <c r="Y8" s="24">
+        <v>1</v>
+      </c>
       <c r="Z8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA8" s="26"/>
+      <c r="AA8" s="23">
+        <v>0.99114599999999997</v>
+      </c>
       <c r="AB8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AC8" s="27"/>
+      <c r="AC8" s="24">
+        <v>0.99534299999999998</v>
+      </c>
       <c r="AD8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AE8" s="26"/>
+      <c r="AE8" s="23">
+        <v>0.980846</v>
+      </c>
       <c r="AF8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AG8" s="26"/>
+      <c r="AG8" s="23">
+        <v>0.98880599999999996</v>
+      </c>
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
@@ -7701,7 +10429,7 @@
       <c r="BG8" s="2"/>
     </row>
     <row r="9" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="42"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="12"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -7810,7 +10538,7 @@
       <c r="BG9" s="2"/>
     </row>
     <row r="10" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="16"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -7819,30 +10547,78 @@
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="7"/>
+      <c r="J10" s="5">
+        <v>32</v>
+      </c>
+      <c r="K10" s="7">
+        <v>41</v>
+      </c>
+      <c r="L10" s="6">
+        <v>34</v>
+      </c>
+      <c r="M10" s="6">
+        <v>49</v>
+      </c>
+      <c r="N10" s="5">
+        <v>15</v>
+      </c>
+      <c r="O10" s="7">
+        <v>49</v>
+      </c>
+      <c r="P10" s="6">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>49</v>
+      </c>
+      <c r="R10" s="5">
+        <v>23</v>
+      </c>
+      <c r="S10" s="7">
+        <v>30</v>
+      </c>
+      <c r="T10" s="6">
+        <v>21</v>
+      </c>
+      <c r="U10" s="6">
+        <v>49</v>
+      </c>
+      <c r="V10" s="5">
+        <v>4</v>
+      </c>
+      <c r="W10" s="7">
+        <v>7</v>
+      </c>
+      <c r="X10" s="6">
+        <v>26</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>49</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>31</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>49</v>
+      </c>
+      <c r="AB10" s="6">
+        <v>33</v>
+      </c>
+      <c r="AC10" s="6">
+        <v>49</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>35</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>48</v>
+      </c>
+      <c r="AF10" s="6">
+        <v>36</v>
+      </c>
+      <c r="AG10" s="7">
+        <v>45</v>
+      </c>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
@@ -7871,17 +10647,17 @@
       <c r="BG10" s="2"/>
     </row>
     <row r="11" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="46" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="25"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="24"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="24"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="24"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="14"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
@@ -7889,43 +10665,63 @@
       <c r="N11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="26"/>
+      <c r="O11" s="23">
+        <v>0.97985299999999997</v>
+      </c>
       <c r="P11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Q11" s="27"/>
+      <c r="Q11" s="24">
+        <v>0.94612399999999997</v>
+      </c>
       <c r="R11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="S11" s="26"/>
+      <c r="S11" s="23">
+        <v>1</v>
+      </c>
       <c r="T11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="U11" s="27"/>
+      <c r="U11" s="24">
+        <v>0.99951699999999999</v>
+      </c>
       <c r="V11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="W11" s="26"/>
+      <c r="W11" s="23">
+        <v>0.99812500000000004</v>
+      </c>
       <c r="X11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Y11" s="27"/>
+      <c r="Y11" s="24">
+        <v>0.99917699999999998</v>
+      </c>
       <c r="Z11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA11" s="26"/>
+      <c r="AA11" s="23">
+        <v>0.97736599999999996</v>
+      </c>
       <c r="AB11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AC11" s="27"/>
+      <c r="AC11" s="24">
+        <v>0.96643800000000002</v>
+      </c>
       <c r="AD11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AE11" s="26"/>
+      <c r="AE11" s="23">
+        <v>0.97698399999999996</v>
+      </c>
       <c r="AF11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AG11" s="26"/>
+      <c r="AG11" s="23">
+        <v>0.96621000000000001</v>
+      </c>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
@@ -7954,7 +10750,7 @@
       <c r="BG11" s="2"/>
     </row>
     <row r="12" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="42"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="12"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -8055,7 +10851,7 @@
       <c r="BG12" s="2"/>
     </row>
     <row r="13" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="16"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -8068,26 +10864,66 @@
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="7"/>
+      <c r="N13" s="5">
+        <v>11</v>
+      </c>
+      <c r="O13" s="7">
+        <v>15</v>
+      </c>
+      <c r="P13" s="6">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>21</v>
+      </c>
+      <c r="R13" s="5">
+        <v>4</v>
+      </c>
+      <c r="S13" s="7">
+        <v>7</v>
+      </c>
+      <c r="T13" s="6">
+        <v>3</v>
+      </c>
+      <c r="U13" s="6">
+        <v>6</v>
+      </c>
+      <c r="V13" s="5">
+        <v>3</v>
+      </c>
+      <c r="W13" s="7">
+        <v>9</v>
+      </c>
+      <c r="X13" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>10</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>23</v>
+      </c>
+      <c r="AA13" s="7">
+        <v>38</v>
+      </c>
+      <c r="AB13" s="6">
+        <v>23</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>28</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>10</v>
+      </c>
+      <c r="AE13" s="7">
+        <v>12</v>
+      </c>
+      <c r="AF13" s="6">
+        <v>17</v>
+      </c>
+      <c r="AG13" s="7">
+        <v>20</v>
+      </c>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
@@ -8116,21 +10952,21 @@
       <c r="BG13" s="2"/>
     </row>
     <row r="14" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="46" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="14"/>
-      <c r="C14" s="24"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="24"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="24"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="24"/>
+      <c r="I14" s="26"/>
       <c r="J14" s="14"/>
-      <c r="K14" s="24"/>
+      <c r="K14" s="26"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="24"/>
+      <c r="M14" s="26"/>
       <c r="N14" s="14"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
@@ -8138,35 +10974,51 @@
       <c r="R14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="S14" s="26"/>
+      <c r="S14" s="23">
+        <v>0.99477599999999999</v>
+      </c>
       <c r="T14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="U14" s="27"/>
+      <c r="U14" s="24">
+        <v>0.99880950000000002</v>
+      </c>
       <c r="V14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="W14" s="26"/>
+      <c r="W14" s="23">
+        <v>1</v>
+      </c>
       <c r="X14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Y14" s="27"/>
+      <c r="Y14" s="24">
+        <v>0.99978900000000004</v>
+      </c>
       <c r="Z14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA14" s="26"/>
+      <c r="AA14" s="23">
+        <v>0.99538099999999996</v>
+      </c>
       <c r="AB14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AC14" s="27"/>
+      <c r="AC14" s="24">
+        <v>0.99460099999999996</v>
+      </c>
       <c r="AD14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AE14" s="26"/>
+      <c r="AE14" s="23">
+        <v>0.98523799999999995</v>
+      </c>
       <c r="AF14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AG14" s="26"/>
+      <c r="AG14" s="23">
+        <v>0.99031499999999995</v>
+      </c>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
@@ -8195,7 +11047,7 @@
       <c r="BG14" s="2"/>
     </row>
     <row r="15" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="42"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="12"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -8288,7 +11140,7 @@
       <c r="BG15" s="2"/>
     </row>
     <row r="16" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="16"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -8305,22 +11157,54 @@
       <c r="O16" s="17"/>
       <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="7"/>
+      <c r="R16" s="5">
+        <v>15</v>
+      </c>
+      <c r="S16" s="7">
+        <v>49</v>
+      </c>
+      <c r="T16" s="6">
+        <v>13</v>
+      </c>
+      <c r="U16" s="6">
+        <v>25</v>
+      </c>
+      <c r="V16" s="5">
+        <v>4</v>
+      </c>
+      <c r="W16" s="7">
+        <v>9</v>
+      </c>
+      <c r="X16" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>9</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>18</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>24</v>
+      </c>
+      <c r="AB16" s="6">
+        <v>21</v>
+      </c>
+      <c r="AC16" s="6">
+        <v>29</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="7">
+        <v>7</v>
+      </c>
+      <c r="AF16" s="6">
+        <v>2</v>
+      </c>
+      <c r="AG16" s="7">
+        <v>8</v>
+      </c>
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
@@ -8349,25 +11233,25 @@
       <c r="BG16" s="2"/>
     </row>
     <row r="17" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="46" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="14"/>
-      <c r="C17" s="24"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="24"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="24"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="24"/>
+      <c r="I17" s="26"/>
       <c r="J17" s="14"/>
-      <c r="K17" s="24"/>
+      <c r="K17" s="26"/>
       <c r="L17" s="10"/>
-      <c r="M17" s="24"/>
+      <c r="M17" s="26"/>
       <c r="N17" s="14"/>
-      <c r="O17" s="24"/>
+      <c r="O17" s="26"/>
       <c r="P17" s="10"/>
-      <c r="Q17" s="24"/>
+      <c r="Q17" s="26"/>
       <c r="R17" s="14"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
@@ -8375,27 +11259,39 @@
       <c r="V17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="W17" s="26"/>
+      <c r="W17" s="23">
+        <v>1</v>
+      </c>
       <c r="X17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Y17" s="27"/>
+      <c r="Y17" s="24">
+        <v>1</v>
+      </c>
       <c r="Z17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA17" s="26"/>
+      <c r="AA17" s="23">
+        <v>0.99923099999999998</v>
+      </c>
       <c r="AB17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AC17" s="27"/>
+      <c r="AC17" s="24">
+        <v>0.99976500000000001</v>
+      </c>
       <c r="AD17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AE17" s="26"/>
+      <c r="AE17" s="23">
+        <v>1</v>
+      </c>
       <c r="AF17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AG17" s="26"/>
+      <c r="AG17" s="23">
+        <v>1</v>
+      </c>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
@@ -8424,7 +11320,7 @@
       <c r="BG17" s="2"/>
     </row>
     <row r="18" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="42"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="12"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -8509,7 +11405,7 @@
       <c r="BG18" s="2"/>
     </row>
     <row r="19" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="16"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -8530,18 +11426,42 @@
       <c r="S19" s="17"/>
       <c r="T19" s="17"/>
       <c r="U19" s="17"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="7"/>
+      <c r="V19" s="5">
+        <v>4</v>
+      </c>
+      <c r="W19" s="7">
+        <v>7</v>
+      </c>
+      <c r="X19" s="6">
+        <v>5</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>9</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA19" s="7">
+        <v>7</v>
+      </c>
+      <c r="AB19" s="6">
+        <v>4</v>
+      </c>
+      <c r="AC19" s="6">
+        <v>7</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>2</v>
+      </c>
+      <c r="AE19" s="7">
+        <v>7</v>
+      </c>
+      <c r="AF19" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG19" s="7">
+        <v>6</v>
+      </c>
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
@@ -8570,29 +11490,29 @@
       <c r="BG19" s="2"/>
     </row>
     <row r="20" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="46" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="14"/>
-      <c r="C20" s="24"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="10"/>
-      <c r="E20" s="24"/>
+      <c r="E20" s="26"/>
       <c r="F20" s="14"/>
-      <c r="G20" s="24"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="24"/>
+      <c r="I20" s="26"/>
       <c r="J20" s="14"/>
-      <c r="K20" s="24"/>
+      <c r="K20" s="26"/>
       <c r="L20" s="10"/>
-      <c r="M20" s="24"/>
+      <c r="M20" s="26"/>
       <c r="N20" s="14"/>
-      <c r="O20" s="24"/>
+      <c r="O20" s="26"/>
       <c r="P20" s="10"/>
-      <c r="Q20" s="24"/>
+      <c r="Q20" s="26"/>
       <c r="R20" s="14"/>
-      <c r="S20" s="24"/>
+      <c r="S20" s="26"/>
       <c r="T20" s="10"/>
-      <c r="U20" s="24"/>
+      <c r="U20" s="26"/>
       <c r="V20" s="14"/>
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
@@ -8600,19 +11520,27 @@
       <c r="Z20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA20" s="26"/>
+      <c r="AA20" s="23">
+        <v>0.98162400000000005</v>
+      </c>
       <c r="AB20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AC20" s="27"/>
+      <c r="AC20" s="24">
+        <v>0.97662000000000004</v>
+      </c>
       <c r="AD20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AE20" s="26"/>
+      <c r="AE20" s="23">
+        <v>0.82142899999999996</v>
+      </c>
       <c r="AF20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AG20" s="26"/>
+      <c r="AG20" s="23">
+        <v>0.87442900000000001</v>
+      </c>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
@@ -8641,7 +11569,7 @@
       <c r="BG20" s="2"/>
     </row>
     <row r="21" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="12"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -8718,7 +11646,7 @@
       <c r="BG21" s="2"/>
     </row>
     <row r="22" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -8743,14 +11671,30 @@
       <c r="W22" s="17"/>
       <c r="X22" s="17"/>
       <c r="Y22" s="17"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="7"/>
+      <c r="Z22" s="5">
+        <v>27</v>
+      </c>
+      <c r="AA22" s="7">
+        <v>49</v>
+      </c>
+      <c r="AB22" s="6">
+        <v>28</v>
+      </c>
+      <c r="AC22" s="6">
+        <v>48</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>33</v>
+      </c>
+      <c r="AE22" s="7">
+        <v>49</v>
+      </c>
+      <c r="AF22" s="6">
+        <v>34</v>
+      </c>
+      <c r="AG22" s="7">
+        <v>45</v>
+      </c>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
@@ -8779,33 +11723,33 @@
       <c r="BG22" s="2"/>
     </row>
     <row r="23" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="46" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="14"/>
-      <c r="C23" s="24"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="10"/>
-      <c r="E23" s="24"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="24"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="24"/>
+      <c r="I23" s="26"/>
       <c r="J23" s="14"/>
-      <c r="K23" s="24"/>
+      <c r="K23" s="26"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="24"/>
+      <c r="M23" s="26"/>
       <c r="N23" s="14"/>
-      <c r="O23" s="24"/>
+      <c r="O23" s="26"/>
       <c r="P23" s="10"/>
-      <c r="Q23" s="24"/>
+      <c r="Q23" s="26"/>
       <c r="R23" s="14"/>
-      <c r="S23" s="24"/>
+      <c r="S23" s="26"/>
       <c r="T23" s="10"/>
-      <c r="U23" s="24"/>
+      <c r="U23" s="26"/>
       <c r="V23" s="14"/>
-      <c r="W23" s="24"/>
+      <c r="W23" s="26"/>
       <c r="X23" s="10"/>
-      <c r="Y23" s="24"/>
+      <c r="Y23" s="26"/>
       <c r="Z23" s="14"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="10"/>
@@ -8813,11 +11757,15 @@
       <c r="AD23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AE23" s="26"/>
+      <c r="AE23" s="23">
+        <v>0.97047600000000001</v>
+      </c>
       <c r="AF23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AG23" s="26"/>
+      <c r="AG23" s="23">
+        <v>0.98726899999999995</v>
+      </c>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
@@ -8846,7 +11794,7 @@
       <c r="BG23" s="2"/>
     </row>
     <row r="24" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="42"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="12"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -8915,7 +11863,7 @@
       <c r="BG24" s="2"/>
     </row>
     <row r="25" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -8944,10 +11892,18 @@
       <c r="AA25" s="17"/>
       <c r="AB25" s="17"/>
       <c r="AC25" s="17"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="6"/>
-      <c r="AG25" s="7"/>
+      <c r="AD25" s="5">
+        <v>20</v>
+      </c>
+      <c r="AE25" s="7">
+        <v>23</v>
+      </c>
+      <c r="AF25" s="6">
+        <v>18</v>
+      </c>
+      <c r="AG25" s="7">
+        <v>22</v>
+      </c>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
       <c r="AJ25" s="2"/>
@@ -8976,58 +11932,2505 @@
       <c r="BG25" s="2"/>
     </row>
     <row r="27" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="32" t="e">
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="37">
         <f>AVERAGE(C2,E2,G2,I2,K2,M2,O2,Q2,S2,U2,W2,Y2,AA2,AC2,AE2,AG2,G5,I5,K5,M5,O5,Q5,S5,U5,W5,Y5,AA5,AC5,AE5,AG5,K8,M8,O8,Q8,S8,U8,W8,Y8,AA8,AC8,AE8,AG8,O11,Q11,S11,U11,W11,Y11,AA11,AC11,AE11,AG11,S14,U14,W14,Y14,AA14,AC14,AE14,AG14,W17,Y17,AA17,AC17,AE17,AG17,AA20,AC20,AE20,AG20,AE23,AG23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" s="32"/>
-      <c r="H27" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="32">
-        <v>0.938967</v>
-      </c>
-      <c r="M27" s="33"/>
+        <v>0.98423302777777777</v>
+      </c>
+      <c r="F27" s="37"/>
     </row>
     <row r="28" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="29">
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34">
         <f>AVERAGE(B4,D4,F4,H4,J4,L4,N4,P4,R4,T4,V4,X4,Z4,AB4,AD4,AF4,F7,H7,J7,L7,N7,P7,R7,T7,V7,X7,Z7,AB7,AD7,AF7,J10,L10,N10,P10,R10,T10,V10,X10,Z10,AB10,AD10,AF10,N13,P13,R13,T13,V13,X13,Z13,AB13,AD13,AF13,R16,T16,V16,X16,Z16,AB16,AD16,AF16,V19,X19,Z19,AB19,AD19,AF19,Z22,AB22,AD22,AF22,AD25,AF25)</f>
-        <v>20</v>
-      </c>
-      <c r="F28" s="29"/>
+        <v>18.236111111111111</v>
+      </c>
+      <c r="F28" s="34"/>
     </row>
     <row r="29" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="29">
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="34">
         <f>AVERAGE(C4,E4,G4,I4,K4,M4,O4,Q4,S4,U4,W4,Y4,AA4,AC4,AE4,AG4,G7,I7,K7,K10,M7,M10,O7,O10,O13,Q7,Q10,Q13,S7,S10,S13,S16,U7,U10,U13,U16,W7,W10,W13,W16,W19,Y7,Y10,Y13,Y16,Y19,AA7,AA10,AA13,AA16,AA19,AA22,AC7,AC10,AC13,AC16,AC19,AC22,AE7,AE10,AE13,AE16,AE19,AE22,AE25,AG7,AG10,AG13,AG16,AG19,AG25)</f>
-        <v>48</v>
-      </c>
-      <c r="F29" s="29"/>
+        <v>29.43661971830986</v>
+      </c>
+      <c r="F29" s="34"/>
     </row>
-    <row r="38" spans="32:32" x14ac:dyDescent="0.2">
-      <c r="AF38" s="20"/>
+    <row r="34" spans="32:32" x14ac:dyDescent="0.2">
+      <c r="AF34" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="L27:M27"/>
+  <mergeCells count="22">
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:Y1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B8:E8 B14:M14 B17:Q17 B20:U20 B23:Y23 B11:I11 AD23:AG23 A2:XFD2 F5:AG5 J8:AG8 N11:AG11 R14:AG14 V17:AG17 Z20:AG20">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>100%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B520AA4-3BE8-45FC-9A01-07036C1EDC28}">
+  <dimension ref="A1:BG34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" style="4" customWidth="1"/>
+    <col min="2" max="33" width="7" style="3" customWidth="1"/>
+    <col min="34" max="46" width="4.7109375" style="3" customWidth="1"/>
+    <col min="47" max="59" width="11.42578125" style="3"/>
+    <col min="60" max="16384" width="11.42578125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+    </row>
+    <row r="2" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="23">
+        <v>0.99817400000000001</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="24">
+        <v>0.99437200000000003</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="23">
+        <v>0.99973500000000004</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="24">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="23">
+        <v>0.991919</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="24">
+        <v>0.996888</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="23">
+        <v>0.99311099999999997</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="24">
+        <v>0.99662099999999998</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="23">
+        <v>1</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="24">
+        <v>1</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="23">
+        <v>0.99812199999999995</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="24">
+        <v>0.99840099999999998</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="23">
+        <v>0.910049</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC2" s="24">
+        <v>0.92347400000000002</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE2" s="23">
+        <v>0.9838095</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG2" s="23">
+        <v>0.97625600000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="13">
+        <v>100</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG3" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59" s="32" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="28">
+        <v>23</v>
+      </c>
+      <c r="C4" s="29">
+        <v>34</v>
+      </c>
+      <c r="D4" s="30">
+        <v>25</v>
+      </c>
+      <c r="E4" s="30">
+        <v>32</v>
+      </c>
+      <c r="F4" s="28">
+        <v>3</v>
+      </c>
+      <c r="G4" s="29">
+        <v>9</v>
+      </c>
+      <c r="H4" s="30">
+        <v>3</v>
+      </c>
+      <c r="I4" s="30">
+        <v>8</v>
+      </c>
+      <c r="J4" s="28">
+        <v>33</v>
+      </c>
+      <c r="K4" s="29">
+        <v>47</v>
+      </c>
+      <c r="L4" s="30">
+        <v>26</v>
+      </c>
+      <c r="M4" s="30">
+        <v>39</v>
+      </c>
+      <c r="N4" s="28">
+        <v>20</v>
+      </c>
+      <c r="O4" s="29">
+        <v>48</v>
+      </c>
+      <c r="P4" s="30">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="30">
+        <v>45</v>
+      </c>
+      <c r="R4" s="28">
+        <v>4</v>
+      </c>
+      <c r="S4" s="29">
+        <v>9</v>
+      </c>
+      <c r="T4" s="30">
+        <v>3</v>
+      </c>
+      <c r="U4" s="30">
+        <v>9</v>
+      </c>
+      <c r="V4" s="28">
+        <v>36</v>
+      </c>
+      <c r="W4" s="29">
+        <v>48</v>
+      </c>
+      <c r="X4" s="30">
+        <v>37</v>
+      </c>
+      <c r="Y4" s="30">
+        <v>49</v>
+      </c>
+      <c r="Z4" s="28">
+        <v>34</v>
+      </c>
+      <c r="AA4" s="29">
+        <v>40</v>
+      </c>
+      <c r="AB4" s="30">
+        <v>32</v>
+      </c>
+      <c r="AC4" s="30">
+        <v>43</v>
+      </c>
+      <c r="AD4" s="28">
+        <v>39</v>
+      </c>
+      <c r="AE4" s="29">
+        <v>48</v>
+      </c>
+      <c r="AF4" s="30">
+        <v>39</v>
+      </c>
+      <c r="AG4" s="29">
+        <v>49</v>
+      </c>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="31"/>
+      <c r="AQ4" s="31"/>
+      <c r="AR4" s="31"/>
+      <c r="AS4" s="31"/>
+      <c r="AT4" s="31"/>
+      <c r="AU4" s="31"/>
+      <c r="AV4" s="31"/>
+      <c r="AW4" s="31"/>
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="31"/>
+      <c r="AZ4" s="31"/>
+      <c r="BA4" s="31"/>
+      <c r="BB4" s="31"/>
+      <c r="BC4" s="31"/>
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="31"/>
+      <c r="BF4" s="31"/>
+      <c r="BG4" s="31"/>
+    </row>
+    <row r="5" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0.98439100000000002</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="24">
+        <v>0.98080800000000001</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="23">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="24">
+        <v>0.98896099999999998</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="23">
+        <v>0.99752300000000005</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="24">
+        <v>0.99222200000000005</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="23">
+        <v>1</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="U5" s="24">
+        <v>1</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="23">
+        <v>0.98488799999999999</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y5" s="24">
+        <v>0.996</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA5" s="23">
+        <v>0.99893200000000004</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC5" s="24">
+        <v>0.998309</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE5" s="23">
+        <v>0.98023800000000005</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG5" s="23">
+        <v>0.99606499999999998</v>
+      </c>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+    </row>
+    <row r="6" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="47"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="2"/>
+      <c r="AZ6" s="2"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="2"/>
+      <c r="BE6" s="2"/>
+      <c r="BF6" s="2"/>
+      <c r="BG6" s="2"/>
+    </row>
+    <row r="7" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="5">
+        <v>28</v>
+      </c>
+      <c r="G7" s="7">
+        <v>49</v>
+      </c>
+      <c r="H7" s="6">
+        <v>31</v>
+      </c>
+      <c r="I7" s="6">
+        <v>42</v>
+      </c>
+      <c r="J7" s="5">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7">
+        <v>14</v>
+      </c>
+      <c r="L7" s="6">
+        <v>11</v>
+      </c>
+      <c r="M7" s="6">
+        <v>12</v>
+      </c>
+      <c r="N7" s="5">
+        <v>9</v>
+      </c>
+      <c r="O7" s="7">
+        <v>12</v>
+      </c>
+      <c r="P7" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>12</v>
+      </c>
+      <c r="R7" s="5">
+        <v>1</v>
+      </c>
+      <c r="S7" s="7">
+        <v>48</v>
+      </c>
+      <c r="T7" s="6">
+        <v>4</v>
+      </c>
+      <c r="U7" s="6">
+        <v>49</v>
+      </c>
+      <c r="V7" s="5">
+        <v>38</v>
+      </c>
+      <c r="W7" s="7">
+        <v>46</v>
+      </c>
+      <c r="X7" s="6">
+        <v>37</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>49</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>36</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>11</v>
+      </c>
+      <c r="AC7" s="6">
+        <v>36</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>41</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>47</v>
+      </c>
+      <c r="AF7" s="6">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="7">
+        <v>7</v>
+      </c>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2"/>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="2"/>
+      <c r="BG7" s="2"/>
+    </row>
+    <row r="8" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="23">
+        <v>0.99577099999999996</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="24">
+        <v>0.99722200000000005</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="23">
+        <v>1</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="24">
+        <v>0.99743599999999999</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="23">
+        <v>0.95416699999999999</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="U8" s="24">
+        <v>0.98091399999999995</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W8" s="23">
+        <v>1</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="24">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA8" s="23">
+        <v>0.99462399999999995</v>
+      </c>
+      <c r="AB8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC8" s="24">
+        <v>0.99552200000000002</v>
+      </c>
+      <c r="AD8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE8" s="23">
+        <v>0.98282800000000003</v>
+      </c>
+      <c r="AF8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG8" s="23">
+        <v>0.99696960000000001</v>
+      </c>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="2"/>
+      <c r="BD8" s="2"/>
+      <c r="BE8" s="2"/>
+      <c r="BF8" s="2"/>
+      <c r="BG8" s="2"/>
+    </row>
+    <row r="9" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="47"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="2"/>
+      <c r="BG9" s="2"/>
+    </row>
+    <row r="10" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="48"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="5">
+        <v>32</v>
+      </c>
+      <c r="K10" s="7">
+        <v>41</v>
+      </c>
+      <c r="L10" s="6">
+        <v>34</v>
+      </c>
+      <c r="M10" s="6">
+        <v>49</v>
+      </c>
+      <c r="N10" s="5">
+        <v>15</v>
+      </c>
+      <c r="O10" s="7">
+        <v>49</v>
+      </c>
+      <c r="P10" s="6">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>49</v>
+      </c>
+      <c r="R10" s="5">
+        <v>23</v>
+      </c>
+      <c r="S10" s="7">
+        <v>30</v>
+      </c>
+      <c r="T10" s="6">
+        <v>21</v>
+      </c>
+      <c r="U10" s="6">
+        <v>49</v>
+      </c>
+      <c r="V10" s="5">
+        <v>4</v>
+      </c>
+      <c r="W10" s="7">
+        <v>7</v>
+      </c>
+      <c r="X10" s="6">
+        <v>26</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>49</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>31</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>49</v>
+      </c>
+      <c r="AB10" s="6">
+        <v>33</v>
+      </c>
+      <c r="AC10" s="6">
+        <v>49</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>35</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>48</v>
+      </c>
+      <c r="AF10" s="6">
+        <v>36</v>
+      </c>
+      <c r="AG10" s="7">
+        <v>45</v>
+      </c>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="2"/>
+      <c r="BE10" s="2"/>
+      <c r="BF10" s="2"/>
+      <c r="BG10" s="2"/>
+    </row>
+    <row r="11" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="23">
+        <v>0.98277199999999998</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="24">
+        <v>0.95863500000000001</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" s="23">
+        <v>0.99974399999999997</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="U11" s="24">
+        <v>1</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W11" s="23">
+        <v>0.99852300000000005</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y11" s="24">
+        <v>0.99978900000000004</v>
+      </c>
+      <c r="Z11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA11" s="23">
+        <v>0.98083299999999995</v>
+      </c>
+      <c r="AB11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC11" s="24">
+        <v>0.97253500000000004</v>
+      </c>
+      <c r="AD11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE11" s="23">
+        <v>0.97661299999999995</v>
+      </c>
+      <c r="AF11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG11" s="23">
+        <v>0.96157400000000004</v>
+      </c>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="2"/>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="2"/>
+      <c r="BD11" s="2"/>
+      <c r="BE11" s="2"/>
+      <c r="BF11" s="2"/>
+      <c r="BG11" s="2"/>
+    </row>
+    <row r="12" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="47"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2"/>
+      <c r="BE12" s="2"/>
+      <c r="BF12" s="2"/>
+      <c r="BG12" s="2"/>
+    </row>
+    <row r="13" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="48"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="5">
+        <v>11</v>
+      </c>
+      <c r="O13" s="7">
+        <v>15</v>
+      </c>
+      <c r="P13" s="6">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>21</v>
+      </c>
+      <c r="R13" s="5">
+        <v>4</v>
+      </c>
+      <c r="S13" s="7">
+        <v>7</v>
+      </c>
+      <c r="T13" s="6">
+        <v>3</v>
+      </c>
+      <c r="U13" s="6">
+        <v>6</v>
+      </c>
+      <c r="V13" s="5">
+        <v>3</v>
+      </c>
+      <c r="W13" s="7">
+        <v>9</v>
+      </c>
+      <c r="X13" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>10</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>23</v>
+      </c>
+      <c r="AA13" s="7">
+        <v>38</v>
+      </c>
+      <c r="AB13" s="6">
+        <v>23</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>28</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>10</v>
+      </c>
+      <c r="AE13" s="7">
+        <v>12</v>
+      </c>
+      <c r="AF13" s="6">
+        <v>17</v>
+      </c>
+      <c r="AG13" s="7">
+        <v>20</v>
+      </c>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2"/>
+      <c r="BE13" s="2"/>
+      <c r="BF13" s="2"/>
+      <c r="BG13" s="2"/>
+    </row>
+    <row r="14" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="23">
+        <v>0.99552200000000002</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="U14" s="24">
+        <v>0.9995098</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W14" s="23">
+        <v>1</v>
+      </c>
+      <c r="X14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y14" s="24">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA14" s="23">
+        <v>0.99535899999999999</v>
+      </c>
+      <c r="AB14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC14" s="24">
+        <v>0.99309499999999995</v>
+      </c>
+      <c r="AD14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE14" s="23">
+        <v>0.98478299999999996</v>
+      </c>
+      <c r="AF14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG14" s="23">
+        <v>0.98881300000000005</v>
+      </c>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="2"/>
+      <c r="BD14" s="2"/>
+      <c r="BE14" s="2"/>
+      <c r="BF14" s="2"/>
+      <c r="BG14" s="2"/>
+    </row>
+    <row r="15" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="47"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="2"/>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="2"/>
+      <c r="BD15" s="2"/>
+      <c r="BE15" s="2"/>
+      <c r="BF15" s="2"/>
+      <c r="BG15" s="2"/>
+    </row>
+    <row r="16" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="48"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="5">
+        <v>15</v>
+      </c>
+      <c r="S16" s="7">
+        <v>49</v>
+      </c>
+      <c r="T16" s="6">
+        <v>13</v>
+      </c>
+      <c r="U16" s="6">
+        <v>25</v>
+      </c>
+      <c r="V16" s="5">
+        <v>4</v>
+      </c>
+      <c r="W16" s="7">
+        <v>9</v>
+      </c>
+      <c r="X16" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>9</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>18</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>24</v>
+      </c>
+      <c r="AB16" s="6">
+        <v>21</v>
+      </c>
+      <c r="AC16" s="6">
+        <v>29</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="7">
+        <v>7</v>
+      </c>
+      <c r="AF16" s="6">
+        <v>2</v>
+      </c>
+      <c r="AG16" s="7">
+        <v>8</v>
+      </c>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="2"/>
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="2"/>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="2"/>
+      <c r="BD16" s="2"/>
+      <c r="BE16" s="2"/>
+      <c r="BF16" s="2"/>
+      <c r="BG16" s="2"/>
+    </row>
+    <row r="17" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W17" s="23">
+        <v>1</v>
+      </c>
+      <c r="X17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y17" s="24">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA17" s="23">
+        <v>0.99946199999999996</v>
+      </c>
+      <c r="AB17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC17" s="24">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE17" s="23">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG17" s="23">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="2"/>
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="2"/>
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="2"/>
+      <c r="BA17" s="2"/>
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="2"/>
+      <c r="BD17" s="2"/>
+      <c r="BE17" s="2"/>
+      <c r="BF17" s="2"/>
+      <c r="BG17" s="2"/>
+    </row>
+    <row r="18" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="47"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="2"/>
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="2"/>
+      <c r="AY18" s="2"/>
+      <c r="AZ18" s="2"/>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="2"/>
+      <c r="BD18" s="2"/>
+      <c r="BE18" s="2"/>
+      <c r="BF18" s="2"/>
+      <c r="BG18" s="2"/>
+    </row>
+    <row r="19" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="48"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="5">
+        <v>4</v>
+      </c>
+      <c r="W19" s="7">
+        <v>7</v>
+      </c>
+      <c r="X19" s="6">
+        <v>5</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>9</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA19" s="7">
+        <v>7</v>
+      </c>
+      <c r="AB19" s="6">
+        <v>4</v>
+      </c>
+      <c r="AC19" s="6">
+        <v>7</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>2</v>
+      </c>
+      <c r="AE19" s="7">
+        <v>7</v>
+      </c>
+      <c r="AF19" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG19" s="7">
+        <v>6</v>
+      </c>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="2"/>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="2"/>
+      <c r="BE19" s="2"/>
+      <c r="BF19" s="2"/>
+      <c r="BG19" s="2"/>
+    </row>
+    <row r="20" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA20" s="23">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="AB20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC20" s="24">
+        <v>0.97453699999999999</v>
+      </c>
+      <c r="AD20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE20" s="23">
+        <v>0.82487900000000003</v>
+      </c>
+      <c r="AF20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG20" s="23">
+        <v>0.87054799999999999</v>
+      </c>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="2"/>
+      <c r="AZ20" s="2"/>
+      <c r="BA20" s="2"/>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="2"/>
+      <c r="BD20" s="2"/>
+      <c r="BE20" s="2"/>
+      <c r="BF20" s="2"/>
+      <c r="BG20" s="2"/>
+    </row>
+    <row r="21" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="47"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="2"/>
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="2"/>
+      <c r="BD21" s="2"/>
+      <c r="BE21" s="2"/>
+      <c r="BF21" s="2"/>
+      <c r="BG21" s="2"/>
+    </row>
+    <row r="22" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="48"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="5">
+        <v>27</v>
+      </c>
+      <c r="AA22" s="7">
+        <v>49</v>
+      </c>
+      <c r="AB22" s="6">
+        <v>28</v>
+      </c>
+      <c r="AC22" s="6">
+        <v>48</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>33</v>
+      </c>
+      <c r="AE22" s="7">
+        <v>49</v>
+      </c>
+      <c r="AF22" s="6">
+        <v>34</v>
+      </c>
+      <c r="AG22" s="7">
+        <v>45</v>
+      </c>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
+      <c r="AZ22" s="2"/>
+      <c r="BA22" s="2"/>
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="2"/>
+      <c r="BD22" s="2"/>
+      <c r="BE22" s="2"/>
+      <c r="BF22" s="2"/>
+      <c r="BG22" s="2"/>
+    </row>
+    <row r="23" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE23" s="23">
+        <v>0.97028979999999998</v>
+      </c>
+      <c r="AF23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG23" s="23">
+        <v>0.98595200000000005</v>
+      </c>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
+      <c r="AZ23" s="2"/>
+      <c r="BA23" s="2"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="2"/>
+      <c r="BD23" s="2"/>
+      <c r="BE23" s="2"/>
+      <c r="BF23" s="2"/>
+      <c r="BG23" s="2"/>
+    </row>
+    <row r="24" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="47"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="2"/>
+      <c r="AU24" s="2"/>
+      <c r="AV24" s="2"/>
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="2"/>
+      <c r="AZ24" s="2"/>
+      <c r="BA24" s="2"/>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="2"/>
+      <c r="BD24" s="2"/>
+      <c r="BE24" s="2"/>
+      <c r="BF24" s="2"/>
+      <c r="BG24" s="2"/>
+    </row>
+    <row r="25" spans="1:59" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="48"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="5">
+        <v>20</v>
+      </c>
+      <c r="AE25" s="7">
+        <v>23</v>
+      </c>
+      <c r="AF25" s="6">
+        <v>18</v>
+      </c>
+      <c r="AG25" s="7">
+        <v>22</v>
+      </c>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="2"/>
+      <c r="BA25" s="2"/>
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="2"/>
+      <c r="BD25" s="2"/>
+      <c r="BE25" s="2"/>
+      <c r="BF25" s="2"/>
+      <c r="BG25" s="2"/>
+    </row>
+    <row r="27" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="B27" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="37">
+        <f>AVERAGE(C2,E2,G2,I2,K2,M2,O2,Q2,S2,U2,W2,Y2,AA2,AC2,AE2,AG2,G5,I5,K5,M5,O5,Q5,S5,U5,W5,Y5,AA5,AC5,AE5,AG5,K8,M8,O8,Q8,S8,U8,W8,Y8,AA8,AC8,AE8,AG8,O11,Q11,S11,U11,W11,Y11,AA11,AC11,AE11,AG11,S14,U14,W14,Y14,AA14,AC14,AE14,AG14,W17,Y17,AA17,AC17,AE17,AG17,AA20,AC20,AE20,AG20,AE23,AG23)</f>
+        <v>0.98556235694444438</v>
+      </c>
+      <c r="F27" s="37"/>
+    </row>
+    <row r="28" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="B28" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34">
+        <f>AVERAGE(B4,D4,F4,H4,J4,L4,N4,P4,R4,T4,V4,X4,Z4,AB4,AD4,AF4,F7,H7,J7,L7,N7,P7,R7,T7,V7,X7,Z7,AB7,AD7,AF7,J10,L10,N10,P10,R10,T10,V10,X10,Z10,AB10,AD10,AF10,N13,P13,R13,T13,V13,X13,Z13,AB13,AD13,AF13,R16,T16,V16,X16,Z16,AB16,AD16,AF16,V19,X19,Z19,AB19,AD19,AF19,Z22,AB22,AD22,AF22,AD25,AF25)</f>
+        <v>18.236111111111111</v>
+      </c>
+      <c r="F28" s="34"/>
+    </row>
+    <row r="29" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="B29" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="34">
+        <f>AVERAGE(C4,E4,G4,I4,K4,M4,O4,Q4,S4,U4,W4,Y4,AA4,AC4,AE4,AG4,G7,I7,K7,K10,M7,M10,O7,O10,O13,Q7,Q10,Q13,S7,S10,S13,S16,U7,U10,U13,U16,W7,W10,W13,W16,W19,Y7,Y10,Y13,Y16,Y19,AA7,AA10,AA13,AA16,AA19,AA22,AC7,AC10,AC13,AC16,AC19,AC22,AE7,AE10,AE13,AE16,AE19,AE22,AE25,AG7,AG10,AG13,AG16,AG19,AG25)</f>
+        <v>29.43661971830986</v>
+      </c>
+      <c r="F29" s="34"/>
+    </row>
+    <row r="34" spans="32:32" x14ac:dyDescent="0.2">
+      <c r="AF34" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="B29:D29"/>
